--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="38">
   <si>
     <t>buy</t>
     <phoneticPr fontId="1"/>
@@ -163,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="#,##0_ "/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -179,6 +179,18 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="25"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="28"/>
       <name val="ＭＳ ゴシック"/>
       <charset val="128"/>
     </font>
@@ -224,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -235,10 +247,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,7 +603,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -673,11 +703,11 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
+        <f t="shared" ref="G6:G15" si="1">IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
         <v>7.1900000000000297E-3</v>
       </c>
       <c r="H6" s="2">
-        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
+        <f t="shared" ref="H6:H15" si="2">IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
         <v>-7.1900000000000297E-3</v>
       </c>
     </row>
@@ -699,62 +729,62 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f>IF(B7="buy",F7+(C7/100),F7-(C7/100))</f>
+        <f t="shared" si="1"/>
         <v>-7.2999999999998596E-3</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(B7="buy",F7-(C7/100),F7+(C7/100))</f>
+        <f t="shared" si="2"/>
         <v>7.2999999999998596E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9">
         <v>0.742999999999993</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="9">
         <f>$G$2</f>
         <v>112.13</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>12002.987783719234</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9">
+        <f t="shared" si="1"/>
         <v>-7.4299999999999297E-3</v>
       </c>
-      <c r="H8" s="2">
-        <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
+      <c r="H8" s="9">
+        <f t="shared" si="2"/>
         <v>7.4299999999999297E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:8" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9">
         <v>0.82099999999999795</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="9">
         <v>100</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>12180.26796589528</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
+        <f t="shared" si="1"/>
         <v>-8.2099999999999795E-3</v>
       </c>
-      <c r="H9" s="2">
-        <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
+      <c r="H9" s="9">
+        <f t="shared" si="2"/>
         <v>8.2099999999999795E-3</v>
       </c>
     </row>
@@ -776,11 +806,11 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <f>IF(B10="buy",F10+(C10/100),F10-(C10/100))</f>
+        <f t="shared" si="1"/>
         <v>-8.3499999999999599E-3</v>
       </c>
       <c r="H10" s="2">
-        <f>IF(B10="buy",F10-(C10/100),F10+(C10/100))</f>
+        <f t="shared" si="2"/>
         <v>8.3499999999999599E-3</v>
       </c>
     </row>
@@ -802,63 +832,63 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <f>IF(B11="buy",F11+(C11/100),F11-(C11/100))</f>
+        <f t="shared" si="1"/>
         <v>-8.6200000000000703E-3</v>
       </c>
       <c r="H11" s="2">
-        <f>IF(B11="buy",F11-(C11/100),F11+(C11/100))</f>
+        <f t="shared" si="2"/>
         <v>8.6200000000000703E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
         <v>0.870999999999995</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="6">
         <v>100</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>11481.056257175725</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <f>IF(B12="buy",F12+(C12/100),F12-(C12/100))</f>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
         <v>-8.7099999999999504E-3</v>
       </c>
-      <c r="H12" s="2">
-        <f>IF(B12="buy",F12-(C12/100),F12+(C12/100))</f>
+      <c r="H12" s="6">
+        <f t="shared" si="2"/>
         <v>8.7099999999999504E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6">
         <v>0.88199999999999001</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="6">
         <v>100</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>11337.868480725752</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <f>IF(B13="buy",F13+(C13/100),F13-(C13/100))</f>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
         <v>8.8199999999999008E-3</v>
       </c>
-      <c r="H13" s="2">
-        <f>IF(B13="buy",F13-(C13/100),F13+(C13/100))</f>
+      <c r="H13" s="6">
+        <f t="shared" si="2"/>
         <v>-8.8199999999999008E-3</v>
       </c>
     </row>
@@ -880,11 +910,11 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <f>IF(B14="buy",F14+(C14/100),F14-(C14/100))</f>
+        <f t="shared" si="1"/>
         <v>-8.82999999999989E-3</v>
       </c>
       <c r="H14" s="2">
-        <f>IF(B14="buy",F14-(C14/100),F14+(C14/100))</f>
+        <f t="shared" si="2"/>
         <v>8.82999999999989E-3</v>
       </c>
     </row>
@@ -908,11 +938,11 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <f>IF(B15="buy",F15+(C15/100),F15-(C15/100))</f>
+        <f t="shared" si="1"/>
         <v>9.2099999999999405E-3</v>
       </c>
       <c r="H15" s="2">
-        <f>IF(B15="buy",F15-(C15/100),F15+(C15/100))</f>
+        <f t="shared" si="2"/>
         <v>-9.2099999999999405E-3</v>
       </c>
     </row>
@@ -967,57 +997,55 @@
         <v>1.02899999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="6">
         <v>1.034</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="6">
         <v>100</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="7">
         <f>$A$2*(1/C18)*(100/D18)/400</f>
         <v>9671.1798839458406</v>
       </c>
-      <c r="F18" s="2">
-        <v>110.89</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
         <f>IF(B18="buy",F18+C18,F18-C18)</f>
-        <v>111.92400000000001</v>
-      </c>
-      <c r="H18" s="2">
+        <v>1.034</v>
+      </c>
+      <c r="H18" s="6">
         <f>IF(B18="buy",F18-C18,F18+C18)</f>
-        <v>109.85599999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1">
-      <c r="A19" s="2" t="s">
+        <v>-1.034</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6">
         <v>1.1000000000000101</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="6">
         <f>$C$2</f>
         <v>88.35</v>
       </c>
-      <c r="E19" s="5">
-        <f t="shared" ref="E19:E25" si="1">$A$2*(1/C19)*(100/D19)/400</f>
+      <c r="E19" s="7">
+        <f t="shared" ref="E19:E25" si="3">$A$2*(1/C19)*(100/D19)/400</f>
         <v>10289.653753151111</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6">
         <f>IF(B19="buy",F19+(C19/100),F19-(C19/100))</f>
         <v>-1.10000000000001E-2</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="6">
         <f>IF(B19="buy",F19-(C19/100),F19+(C19/100))</f>
         <v>1.10000000000001E-2</v>
       </c>
@@ -1036,19 +1064,17 @@
         <v>100</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8347.2454090150241</v>
       </c>
-      <c r="F20" s="2">
-        <v>110.89</v>
-      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2">
         <f>IF(B20="buy",F20+C20,F20-C20)</f>
-        <v>112.08799999999999</v>
+        <v>1.198</v>
       </c>
       <c r="H20" s="2">
         <f>IF(B20="buy",F20-C20,F20+C20)</f>
-        <v>109.69200000000001</v>
+        <v>-1.198</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1">
@@ -1064,7 +1090,7 @@
         <v>114.86</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6546.0534498356283</v>
       </c>
       <c r="F21" s="2"/>
@@ -1077,54 +1103,54 @@
         <v>1.3300000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:8" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9">
         <v>1.40499999999998</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="9">
         <f>$G$2</f>
         <v>112.13</v>
       </c>
-      <c r="E22" s="5">
-        <f t="shared" si="1"/>
+      <c r="E22" s="10">
+        <f t="shared" si="3"/>
         <v>6347.4874898956832</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9">
         <f>IF(B22="buy",F22+C22,F22-C22)</f>
         <v>-1.40499999999998</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="9">
         <f>IF(B22="buy",F22-C22,F22+C22)</f>
         <v>1.40499999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:8" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9">
         <v>1.44199999999998</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="9">
         <f>$B$2</f>
         <v>85.33</v>
       </c>
-      <c r="E23" s="5">
-        <f t="shared" si="1"/>
+      <c r="E23" s="10">
+        <f t="shared" si="3"/>
         <v>8127.0511661263035</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9">
         <f>IF(B23="buy",F23+(C23/100),F23-(C23/100))</f>
         <v>-1.4419999999999799E-2</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="9">
         <f>IF(B23="buy",F23-(C23/100),F23+(C23/100))</f>
         <v>1.4419999999999799E-2</v>
       </c>
@@ -1141,7 +1167,7 @@
         <v>100</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5443.6581382689765</v>
       </c>
       <c r="F24" s="2"/>
@@ -1169,7 +1195,7 @@
         <v>85.33</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5821.7624349498374</v>
       </c>
       <c r="F25" s="2"/>
@@ -1203,7 +1229,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1238,6 +1264,9 @@
       <c r="A2" s="4">
         <v>4140625</v>
       </c>
+      <c r="B2" s="1">
+        <v>85.33</v>
+      </c>
       <c r="D2" s="1">
         <v>114.86</v>
       </c>
@@ -1272,9 +1301,7 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2">
         <v>0.71900000000000297</v>
       </c>
@@ -1283,100 +1310,94 @@
         <v>114.86</v>
       </c>
       <c r="E6" s="5">
-        <f>$A$2*(1/C6)*(100/D6)/400</f>
+        <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/400</f>
         <v>12534.53439235569</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
+        <f t="shared" ref="G6:G7" si="1">IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
+        <v>-7.1900000000000297E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ref="H6:H7" si="2">IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
         <v>7.1900000000000297E-3</v>
-      </c>
-      <c r="H6" s="2">
-        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>-7.1900000000000297E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2">
-        <v>0.86200000000000698</v>
+        <v>0.72999999999998599</v>
       </c>
       <c r="D7" s="2">
         <f>$D$2</f>
         <v>114.86</v>
       </c>
       <c r="E7" s="5">
-        <f>$A$2*(1/C7)*(100/D7)/400</f>
-        <v>10455.13947575836</v>
+        <f t="shared" si="0"/>
+        <v>12345.657846717741</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f>IF(B7="buy",F7+(C7/100),F7-(C7/100))</f>
-        <v>8.6200000000000703E-3</v>
+        <f t="shared" si="1"/>
+        <v>-7.2999999999998596E-3</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(B7="buy",F7-(C7/100),F7+(C7/100))</f>
-        <v>-8.6200000000000703E-3</v>
+        <f t="shared" si="2"/>
+        <v>7.2999999999998596E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2">
-        <v>0.97199999999999398</v>
+        <v>1.83699999999998</v>
       </c>
       <c r="D8" s="2">
         <v>100</v>
       </c>
       <c r="E8" s="5">
-        <f>$A$2*(1/C8)*(100/D8)/400</f>
-        <v>10649.755658436281</v>
+        <f t="shared" si="0"/>
+        <v>5635.0367446924956</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
         <f>IF(B8="buy",F8+C8,F8-C8)</f>
-        <v>0.97199999999999398</v>
+        <v>-1.83699999999998</v>
       </c>
       <c r="H8" s="2">
         <f>IF(B8="buy",F8-C8,F8+C8)</f>
-        <v>-0.97199999999999398</v>
+        <v>1.83699999999998</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2">
-        <v>1.33</v>
+        <v>2.0129999999999901</v>
       </c>
       <c r="D9" s="2">
-        <f>$D$2</f>
-        <v>114.86</v>
+        <f>$B$2</f>
+        <v>85.33</v>
       </c>
       <c r="E9" s="5">
-        <f>$A$2*(1/C9)*(100/D9)/400</f>
-        <v>6776.1881414314112</v>
+        <f t="shared" si="0"/>
+        <v>6026.4337705535427</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
         <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>1.3300000000000001E-2</v>
+        <v>-2.0129999999999901E-2</v>
       </c>
       <c r="H9" s="2">
         <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>-1.3300000000000001E-2</v>
+        <v>2.0129999999999901E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1421,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1435,11 +1456,8 @@
       <c r="A2" s="4">
         <v>4140625</v>
       </c>
-      <c r="D2" s="1">
-        <v>114.86</v>
-      </c>
-      <c r="F2" s="1">
-        <v>77.19</v>
+      <c r="B2" s="1">
+        <v>85.33</v>
       </c>
       <c r="G2" s="1">
         <v>112.13</v>
@@ -1473,105 +1491,105 @@
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
-        <v>0.72999999999998599</v>
+        <v>0.742999999999993</v>
       </c>
       <c r="D6" s="2">
-        <f>$D$2</f>
-        <v>114.86</v>
+        <f>$G$2</f>
+        <v>112.13</v>
       </c>
       <c r="E6" s="5">
-        <f>$A$2*(1/C6)*(100/D6)/400</f>
-        <v>12345.657846717741</v>
+        <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/400</f>
+        <v>12424.967822990613</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>-7.2999999999998596E-3</v>
+        <f t="shared" ref="G6:G7" si="1">IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
+        <v>-7.4299999999999297E-3</v>
       </c>
       <c r="H6" s="2">
-        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>7.2999999999998596E-3</v>
+        <f t="shared" ref="H6:H7" si="2">IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
+        <v>7.4299999999999297E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
-        <v>0.870999999999995</v>
+        <v>0.82099999999999795</v>
       </c>
       <c r="D7" s="2">
         <v>100</v>
       </c>
       <c r="E7" s="5">
-        <f>$A$2*(1/C7)*(100/D7)/400</f>
-        <v>11884.68714121706</v>
+        <f t="shared" si="0"/>
+        <v>12608.480511571286</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
         <f>IF(B7="buy",F7+C7,F7-C7)</f>
-        <v>-0.870999999999995</v>
+        <v>-0.82099999999999795</v>
       </c>
       <c r="H7" s="2">
         <f>IF(B7="buy",F7-C7,F7+C7)</f>
-        <v>0.870999999999995</v>
+        <v>0.82099999999999795</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
-        <v>1.0289999999999899</v>
+        <v>1.40499999999998</v>
       </c>
       <c r="D8" s="2">
-        <f>$F$2</f>
-        <v>77.19</v>
+        <f>$G$2</f>
+        <v>112.13</v>
       </c>
       <c r="E8" s="5">
-        <f>$A$2*(1/C8)*(100/D8)/400</f>
-        <v>13032.552794960022</v>
+        <f t="shared" si="0"/>
+        <v>6570.6413469623285</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
         <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
-        <v>-1.02899999999999E-2</v>
+        <v>-1.40499999999998E-2</v>
       </c>
       <c r="H8" s="2">
         <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
-        <v>1.02899999999999E-2</v>
+        <v>1.40499999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
-        <v>1.40499999999998</v>
+        <v>1.44199999999998</v>
       </c>
       <c r="D9" s="2">
-        <f>$G$2</f>
-        <v>112.13</v>
+        <f>$B$2</f>
+        <v>85.33</v>
       </c>
       <c r="E9" s="5">
-        <f>$A$2*(1/C9)*(100/D9)/400</f>
-        <v>6570.6413469623285</v>
+        <f t="shared" si="0"/>
+        <v>8412.7678086854321</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
         <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>-1.40499999999998E-2</v>
+        <v>-1.4419999999999799E-2</v>
       </c>
       <c r="H9" s="2">
         <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>1.40499999999998E-2</v>
+        <v>1.4419999999999799E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1592,7 +1610,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1627,8 +1645,8 @@
       <c r="A2" s="4">
         <v>4140625</v>
       </c>
-      <c r="B2" s="1">
-        <v>85.33</v>
+      <c r="D2" s="1">
+        <v>114.86</v>
       </c>
       <c r="G2" s="1">
         <v>112.13</v>
@@ -1662,119 +1680,113 @@
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2">
-        <v>0.742999999999993</v>
+        <v>0.83499999999999597</v>
       </c>
       <c r="D6" s="2">
         <f>$G$2</f>
         <v>112.13</v>
       </c>
       <c r="E6" s="5">
-        <f>$A$2*(1/C6)*(100/D6)/400</f>
-        <v>12424.967822990613</v>
+        <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/400</f>
+        <v>11055.989332313757</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>7.4299999999999297E-3</v>
+        <f t="shared" ref="G6:G7" si="1">IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
+        <v>-8.3499999999999599E-3</v>
       </c>
       <c r="H6" s="2">
-        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>-7.4299999999999297E-3</v>
+        <f t="shared" ref="H6:H7" si="2">IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
+        <v>8.3499999999999599E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2">
-        <v>0.88199999999999001</v>
+        <v>0.86200000000000698</v>
       </c>
       <c r="D7" s="2">
-        <v>100</v>
+        <f>$D$2</f>
+        <v>114.86</v>
       </c>
       <c r="E7" s="5">
-        <f>$A$2*(1/C7)*(100/D7)/400</f>
-        <v>11736.465419501266</v>
+        <f t="shared" si="0"/>
+        <v>10455.13947575836</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f>IF(B7="buy",F7+C7,F7-C7)</f>
-        <v>0.88199999999999001</v>
+        <f t="shared" si="1"/>
+        <v>-8.6200000000000703E-3</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(B7="buy",F7-C7,F7+C7)</f>
-        <v>-0.88199999999999001</v>
+        <f t="shared" si="2"/>
+        <v>8.6200000000000703E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1.034</v>
+        <v>1.198</v>
       </c>
       <c r="D8" s="2">
         <v>100</v>
       </c>
       <c r="E8" s="5">
-        <f>$A$2*(1/C8)*(100/D8)/400</f>
-        <v>10011.182301740811</v>
+        <f t="shared" si="0"/>
+        <v>8640.7032554257094</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
         <f>IF(B8="buy",F8+C8,F8-C8)</f>
-        <v>1.034</v>
+        <v>1.198</v>
       </c>
       <c r="H8" s="2">
         <f>IF(B8="buy",F8-C8,F8+C8)</f>
-        <v>-1.034</v>
+        <v>-1.198</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2">
-        <v>1.44199999999998</v>
+        <v>1.33</v>
       </c>
       <c r="D9" s="2">
-        <f>$B$2</f>
-        <v>85.33</v>
+        <f>$D$2</f>
+        <v>114.86</v>
       </c>
       <c r="E9" s="5">
-        <f>$A$2*(1/C9)*(100/D9)/400</f>
-        <v>8412.7678086854321</v>
+        <f t="shared" si="0"/>
+        <v>6776.1881414314112</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
         <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>1.4419999999999799E-2</v>
+        <v>-1.3300000000000001E-2</v>
       </c>
       <c r="H9" s="2">
         <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>-1.4419999999999799E-2</v>
+        <v>1.3300000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1788,7 +1800,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1826,9 +1838,6 @@
       <c r="C2" s="1">
         <v>88.35</v>
       </c>
-      <c r="E2" s="1">
-        <v>151.13</v>
-      </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -1858,112 +1867,103 @@
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2">
-        <v>0.82099999999999795</v>
+        <v>0.870999999999995</v>
       </c>
       <c r="D6" s="2">
         <v>100</v>
       </c>
       <c r="E6" s="5">
-        <f>$A$2*(1/C6)*(100/D6)/400</f>
-        <v>12608.480511571286</v>
+        <f t="shared" ref="E6:E7" si="0">$A$2*(1/C6)*(100/D6)/400</f>
+        <v>11884.68714121706</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
         <f>IF(B6="buy",F6+C6,F6-C6)</f>
-        <v>0.82099999999999795</v>
+        <v>-0.870999999999995</v>
       </c>
       <c r="H6" s="2">
         <f>IF(B6="buy",F6-C6,F6+C6)</f>
-        <v>-0.82099999999999795</v>
+        <v>0.870999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2">
-        <v>0.88299999999998902</v>
+        <v>0.88199999999999001</v>
       </c>
       <c r="D7" s="2">
-        <f>$E$2</f>
-        <v>151.13</v>
+        <v>100</v>
       </c>
       <c r="E7" s="5">
-        <f>$A$2*(1/C7)*(100/D7)/400</f>
-        <v>7757.013061063155</v>
+        <f t="shared" si="0"/>
+        <v>11736.465419501266</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f>IF(B7="buy",F7+(C7/100),F7-(C7/100))</f>
-        <v>8.82999999999989E-3</v>
+        <f>IF(B7="buy",F7+C7,F7-C7)</f>
+        <v>-0.88199999999999001</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(B7="buy",F7-(C7/100),F7+(C7/100))</f>
-        <v>-8.82999999999989E-3</v>
+        <f>IF(B7="buy",F7-C7,F7+C7)</f>
+        <v>0.88199999999999001</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>1.034</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="5">
+        <f>$A$2*(1/C8)*(100/D8)/400</f>
+        <v>10011.182301740811</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <f>IF(B8="buy",F8+C8,F8-C8)</f>
+        <v>-1.034</v>
+      </c>
+      <c r="H8" s="2">
+        <f>IF(B8="buy",F8-C8,F8+C8)</f>
+        <v>1.034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
         <v>1.1000000000000101</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <f>$C$2</f>
         <v>88.35</v>
       </c>
-      <c r="E8" s="5">
-        <f>$A$2*(1/C8)*(100/D8)/400</f>
+      <c r="E9" s="5">
+        <f t="shared" ref="E9" si="1">$A$2*(1/C9)*(100/D9)/400</f>
         <v>10651.399392910333</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
-        <v>1.10000000000001E-2</v>
-      </c>
-      <c r="H8" s="2">
-        <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
-        <v>-1.10000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.83699999999998</v>
-      </c>
-      <c r="D9" s="2">
-        <v>100</v>
-      </c>
-      <c r="E9" s="5">
-        <f>$A$2*(1/C9)*(100/D9)/400</f>
-        <v>5635.0367446924956</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <f>IF(B9="buy",F9+C9,F9-C9)</f>
-        <v>1.83699999999998</v>
+        <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
+        <v>-1.10000000000001E-2</v>
       </c>
       <c r="H9" s="2">
-        <f>IF(B9="buy",F9-C9,F9+C9)</f>
-        <v>-1.83699999999998</v>
+        <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
+        <v>1.10000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1984,7 +1984,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G17" sqref="G17:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -2019,8 +2019,11 @@
       <c r="A2" s="4">
         <v>4140625</v>
       </c>
-      <c r="B2" s="1">
-        <v>85.33</v>
+      <c r="E2" s="1">
+        <v>151.13</v>
+      </c>
+      <c r="F2" s="1">
+        <v>77.19</v>
       </c>
       <c r="G2" s="1">
         <v>112.13</v>
@@ -2054,28 +2057,28 @@
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
-        <v>0.83499999999999597</v>
+        <v>0.88299999999998902</v>
       </c>
       <c r="D6" s="2">
-        <f>$G$2</f>
-        <v>112.13</v>
+        <f>$E$2</f>
+        <v>151.13</v>
       </c>
       <c r="E6" s="5">
-        <f>$A$2*(1/C6)*(100/D6)/400</f>
-        <v>11055.989332313757</v>
+        <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/400</f>
+        <v>7757.013061063155</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>-8.3499999999999599E-3</v>
+        <f t="shared" ref="G6:G9" si="1">IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
+        <v>-8.82999999999989E-3</v>
       </c>
       <c r="H6" s="2">
-        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>8.3499999999999599E-3</v>
+        <f t="shared" ref="H6:H9" si="2">IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
+        <v>8.82999999999989E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
@@ -2091,75 +2094,74 @@
         <v>112.13</v>
       </c>
       <c r="E7" s="5">
-        <f>$A$2*(1/C7)*(100/D7)/400</f>
+        <f t="shared" si="0"/>
         <v>10023.616821370248</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f>IF(B7="buy",F7+(C7/100),F7-(C7/100))</f>
+        <f t="shared" si="1"/>
         <v>-9.2099999999999405E-3</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(B7="buy",F7-(C7/100),F7+(C7/100))</f>
+        <f t="shared" si="2"/>
         <v>9.2099999999999405E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
-        <v>1.198</v>
+        <v>0.97199999999999398</v>
       </c>
       <c r="D8" s="2">
         <v>100</v>
       </c>
       <c r="E8" s="5">
-        <f>$A$2*(1/C8)*(100/D8)/400</f>
-        <v>8640.7032554257094</v>
+        <f t="shared" si="0"/>
+        <v>10649.755658436281</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
         <f>IF(B8="buy",F8+C8,F8-C8)</f>
-        <v>-1.198</v>
+        <v>-0.97199999999999398</v>
       </c>
       <c r="H8" s="2">
         <f>IF(B8="buy",F8-C8,F8+C8)</f>
-        <v>1.198</v>
+        <v>0.97199999999999398</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
-        <v>2.0129999999999901</v>
+        <v>1.0289999999999899</v>
       </c>
       <c r="D9" s="2">
-        <f>$B$2</f>
-        <v>85.33</v>
+        <f>$F$2</f>
+        <v>77.19</v>
       </c>
       <c r="E9" s="5">
-        <f>$A$2*(1/C9)*(100/D9)/400</f>
-        <v>6026.4337705535427</v>
+        <f t="shared" si="0"/>
+        <v>13032.552794960022</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
         <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>-2.0129999999999901E-2</v>
+        <v>-1.02899999999999E-2</v>
       </c>
       <c r="H9" s="2">
         <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>2.0129999999999901E-2</v>
+        <v>1.02899999999999E-2</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="-80" windowWidth="33600" windowHeight="20980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6840" yWindow="-80" windowWidth="33600" windowHeight="20980" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -602,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="125" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1209,13 +1209,11 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A6:H25">
     <sortCondition ref="C7:C25"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1228,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B9"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1401,13 +1399,11 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A6:H25">
     <sortCondition descending="1" ref="C7:C25"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1507,11 +1503,11 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f t="shared" ref="G6:G7" si="1">IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
+        <f t="shared" ref="G6" si="1">IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
         <v>-7.4299999999999297E-3</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ref="H6:H7" si="2">IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
+        <f t="shared" ref="H6" si="2">IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
         <v>7.4299999999999297E-3</v>
       </c>
     </row>
@@ -1593,10 +1589,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1784,7 +1778,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1967,10 +1960,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1983,7 +1974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="G17" sqref="G17:G18"/>
     </sheetView>
   </sheetViews>
@@ -2073,11 +2064,11 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f t="shared" ref="G6:G9" si="1">IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
+        <f t="shared" ref="G6:G7" si="1">IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
         <v>-8.82999999999989E-3</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ref="H6:H9" si="2">IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
+        <f t="shared" ref="H6:H7" si="2">IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
         <v>8.82999999999989E-3</v>
       </c>
     </row>
@@ -2159,7 +2150,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="-80" windowWidth="33600" windowHeight="20980" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="200" yWindow="-80" windowWidth="32380" windowHeight="20980" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="41">
   <si>
     <t>buy</t>
     <phoneticPr fontId="1"/>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>NZDJPY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1209,6 +1221,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A6:H25">
     <sortCondition ref="C7:C25"/>
   </sortState>
@@ -1227,7 +1240,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1260,13 +1273,13 @@
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="4">
-        <v>4140625</v>
+        <v>4056802</v>
       </c>
       <c r="B2" s="1">
-        <v>85.33</v>
+        <v>85.92</v>
       </c>
       <c r="D2" s="1">
-        <v>114.86</v>
+        <v>114.84</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
@@ -1299,111 +1312,129 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C6" s="2">
         <v>0.71900000000000297</v>
       </c>
       <c r="D6" s="2">
         <f>$D$2</f>
-        <v>114.86</v>
-      </c>
-      <c r="E6" s="5">
+        <v>114.84</v>
+      </c>
+      <c r="E6" s="4">
         <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/400</f>
-        <v>12534.53439235569</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>12282.923474832682</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.748278</v>
+      </c>
       <c r="G6" s="2">
         <f t="shared" ref="G6:G7" si="1">IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>-7.1900000000000297E-3</v>
+        <v>0.74108799999999997</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" ref="H6:H7" si="2">IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>7.1900000000000297E-3</v>
+        <v>0.75546800000000003</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C7" s="2">
         <v>0.72999999999998599</v>
       </c>
       <c r="D7" s="2">
         <f>$D$2</f>
-        <v>114.86</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>12345.657846717741</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>114.84</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>12097.838326582063</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.165915</v>
+      </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>-7.2999999999998596E-3</v>
+        <v>1.1732149999999999</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="2"/>
-        <v>7.2999999999998596E-3</v>
+        <v>1.1586150000000002</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C8" s="2">
         <v>1.83699999999998</v>
       </c>
       <c r="D8" s="2">
         <v>100</v>
       </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>5635.0367446924956</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>5520.9608056614652</v>
+      </c>
+      <c r="F8" s="2">
+        <v>152.55940000000001</v>
+      </c>
       <c r="G8" s="2">
         <f>IF(B8="buy",F8+C8,F8-C8)</f>
-        <v>-1.83699999999998</v>
+        <v>154.3964</v>
       </c>
       <c r="H8" s="2">
         <f>IF(B8="buy",F8-C8,F8+C8)</f>
-        <v>1.83699999999998</v>
+        <v>150.72240000000002</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C9" s="2">
         <v>2.0129999999999901</v>
       </c>
       <c r="D9" s="2">
         <f>$B$2</f>
-        <v>85.33</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>6026.4337705535427</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>85.92</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>5863.8894901945841</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.77878</v>
+      </c>
       <c r="G9" s="2">
         <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>-2.0129999999999901E-2</v>
+        <v>1.79891</v>
       </c>
       <c r="H9" s="2">
         <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>2.0129999999999901E-2</v>
+        <v>1.75865</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A6:H25">
     <sortCondition descending="1" ref="C7:C25"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1417,7 +1448,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1497,7 +1528,7 @@
         <f>$G$2</f>
         <v>112.13</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/400</f>
         <v>12424.967822990613</v>
       </c>
@@ -1522,7 +1553,7 @@
       <c r="D7" s="2">
         <v>100</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>12608.480511571286</v>
       </c>
@@ -1548,7 +1579,7 @@
         <f>$G$2</f>
         <v>112.13</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>6570.6413469623285</v>
       </c>
@@ -1574,7 +1605,7 @@
         <f>$B$2</f>
         <v>85.33</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>8412.7678086854321</v>
       </c>
@@ -1589,6 +1620,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1604,7 +1636,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1684,7 +1716,7 @@
         <f>$G$2</f>
         <v>112.13</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/400</f>
         <v>11055.989332313757</v>
       </c>
@@ -1710,7 +1742,7 @@
         <f>$D$2</f>
         <v>114.86</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>10455.13947575836</v>
       </c>
@@ -1737,7 +1769,7 @@
       <c r="D8" s="2">
         <v>100</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>8640.7032554257094</v>
       </c>
@@ -1763,7 +1795,7 @@
         <f>$D$2</f>
         <v>114.86</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>6776.1881414314112</v>
       </c>
@@ -1778,6 +1810,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1793,7 +1826,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1869,8 +1902,8 @@
       <c r="D6" s="2">
         <v>100</v>
       </c>
-      <c r="E6" s="5">
-        <f t="shared" ref="E6:E7" si="0">$A$2*(1/C6)*(100/D6)/400</f>
+      <c r="E6" s="4">
+        <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/400</f>
         <v>11884.68714121706</v>
       </c>
       <c r="F6" s="2"/>
@@ -1894,7 +1927,7 @@
       <c r="D7" s="2">
         <v>100</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>11736.465419501266</v>
       </c>
@@ -1919,8 +1952,8 @@
       <c r="D8" s="2">
         <v>100</v>
       </c>
-      <c r="E8" s="5">
-        <f>$A$2*(1/C8)*(100/D8)/400</f>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
         <v>10011.182301740811</v>
       </c>
       <c r="F8" s="2"/>
@@ -1945,8 +1978,8 @@
         <f>$C$2</f>
         <v>88.35</v>
       </c>
-      <c r="E9" s="5">
-        <f t="shared" ref="E9" si="1">$A$2*(1/C9)*(100/D9)/400</f>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
         <v>10651.399392910333</v>
       </c>
       <c r="F9" s="2"/>
@@ -1960,6 +1993,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1975,7 +2009,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -2058,7 +2092,7 @@
         <f>$E$2</f>
         <v>151.13</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/400</f>
         <v>7757.013061063155</v>
       </c>
@@ -2084,7 +2118,7 @@
         <f>$G$2</f>
         <v>112.13</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>10023.616821370248</v>
       </c>
@@ -2109,7 +2143,7 @@
       <c r="D8" s="2">
         <v>100</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>10649.755658436281</v>
       </c>
@@ -2135,7 +2169,7 @@
         <f>$F$2</f>
         <v>77.19</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>13032.552794960022</v>
       </c>
@@ -2150,6 +2184,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="-80" windowWidth="32380" windowHeight="20980" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="5480" yWindow="-80" windowWidth="31140" windowHeight="21140" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="50">
   <si>
     <t>buy</t>
     <phoneticPr fontId="1"/>
@@ -155,6 +155,42 @@
   </si>
   <si>
     <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1221,7 +1257,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A6:H25">
     <sortCondition ref="C7:C25"/>
   </sortState>
@@ -1240,7 +1275,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1428,13 +1463,11 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A6:H25">
     <sortCondition descending="1" ref="C7:C25"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1448,7 +1481,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1481,13 +1514,13 @@
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="4">
-        <v>4140625</v>
+        <v>4036368</v>
       </c>
       <c r="B2" s="1">
-        <v>85.33</v>
+        <v>85.79</v>
       </c>
       <c r="G2" s="1">
-        <v>112.13</v>
+        <v>112.7</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
@@ -1520,33 +1553,39 @@
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C6" s="2">
         <v>0.742999999999993</v>
       </c>
       <c r="D6" s="2">
         <f>$G$2</f>
-        <v>112.13</v>
+        <v>112.7</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/400</f>
-        <v>12424.967822990613</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>12050.859784489716</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.76140799999999997</v>
+      </c>
       <c r="G6" s="2">
         <f t="shared" ref="G6" si="1">IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>-7.4299999999999297E-3</v>
+        <v>0.75397800000000004</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" ref="H6" si="2">IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>7.4299999999999297E-3</v>
+        <v>0.76883799999999991</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C7" s="2">
         <v>0.82099999999999795</v>
       </c>
@@ -1555,72 +1594,81 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>12608.480511571286</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>12291.010962241198</v>
+      </c>
+      <c r="F7" s="2">
+        <v>114.1781</v>
+      </c>
       <c r="G7" s="2">
         <f>IF(B7="buy",F7+C7,F7-C7)</f>
-        <v>-0.82099999999999795</v>
+        <v>113.3571</v>
       </c>
       <c r="H7" s="2">
         <f>IF(B7="buy",F7-C7,F7+C7)</f>
-        <v>0.82099999999999795</v>
+        <v>114.9991</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C8" s="2">
         <v>1.40499999999998</v>
       </c>
       <c r="D8" s="2">
         <f>$G$2</f>
-        <v>112.13</v>
+        <v>112.7</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>6570.6413469623285</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>6372.8034305166566</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.345615</v>
+      </c>
       <c r="G8" s="2">
         <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
-        <v>-1.40499999999998E-2</v>
+        <v>1.3315650000000001</v>
       </c>
       <c r="H8" s="2">
         <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
-        <v>1.40499999999998E-2</v>
+        <v>1.3596649999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C9" s="2">
         <v>1.44199999999998</v>
       </c>
       <c r="D9" s="2">
         <f>$B$2</f>
-        <v>85.33</v>
+        <v>85.79</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>8412.7678086854321</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>8156.9694342813855</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.5548690000000001</v>
+      </c>
       <c r="G9" s="2">
         <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>-1.4419999999999799E-2</v>
+        <v>1.5692889999999999</v>
       </c>
       <c r="H9" s="2">
         <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>1.4419999999999799E-2</v>
+        <v>1.5404490000000002</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1636,7 +1684,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1669,13 +1717,13 @@
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="4">
-        <v>4140625</v>
+        <v>3958178</v>
       </c>
       <c r="D2" s="1">
-        <v>114.86</v>
+        <v>113.45</v>
       </c>
       <c r="G2" s="1">
-        <v>112.13</v>
+        <v>112.17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
@@ -1708,52 +1756,60 @@
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C6" s="2">
         <v>0.83499999999999597</v>
       </c>
       <c r="D6" s="2">
         <f>$G$2</f>
-        <v>112.13</v>
+        <v>112.17</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/400</f>
-        <v>11055.989332313757</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>10565.064041481146</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.68889999999999996</v>
+      </c>
       <c r="G6" s="2">
         <f t="shared" ref="G6:G7" si="1">IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>-8.3499999999999599E-3</v>
+        <v>0.69724999999999993</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" ref="H6:H7" si="2">IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>8.3499999999999599E-3</v>
+        <v>0.68054999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C7" s="2">
         <v>0.86200000000000698</v>
       </c>
       <c r="D7" s="2">
         <f>$D$2</f>
-        <v>114.86</v>
+        <v>113.45</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>10455.13947575836</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>10118.673046069254</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.98884799999999995</v>
+      </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>-8.6200000000000703E-3</v>
+        <v>0.99746800000000002</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="2"/>
-        <v>8.6200000000000703E-3</v>
+        <v>0.98022799999999988</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
@@ -1761,7 +1817,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>1.198</v>
@@ -1771,46 +1827,51 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>8640.7032554257094</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>8259.9707846410693</v>
+      </c>
+      <c r="F8" s="2">
+        <v>132.46889999999999</v>
+      </c>
       <c r="G8" s="2">
         <f>IF(B8="buy",F8+C8,F8-C8)</f>
-        <v>1.198</v>
+        <v>131.27089999999998</v>
       </c>
       <c r="H8" s="2">
         <f>IF(B8="buy",F8-C8,F8+C8)</f>
-        <v>-1.198</v>
+        <v>133.6669</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C9" s="2">
         <v>1.33</v>
       </c>
       <c r="D9" s="2">
         <f>$D$2</f>
-        <v>114.86</v>
+        <v>113.45</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>6776.1881414314112</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>6558.1174178283964</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.321402</v>
+      </c>
       <c r="G9" s="2">
         <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>-1.3300000000000001E-2</v>
+        <v>1.3081019999999999</v>
       </c>
       <c r="H9" s="2">
         <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>1.3300000000000001E-2</v>
+        <v>1.3347020000000001</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1825,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E9"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1859,10 +1920,10 @@
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="4">
-        <v>4140625</v>
+        <v>3968238</v>
       </c>
       <c r="C2" s="1">
-        <v>88.35</v>
+        <v>87.91</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
@@ -1895,7 +1956,9 @@
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C6" s="2">
         <v>0.870999999999995</v>
       </c>
@@ -1904,23 +1967,27 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/400</f>
-        <v>11884.68714121706</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>11389.890929965621</v>
+      </c>
+      <c r="F6" s="2">
+        <v>77.042599999999993</v>
+      </c>
       <c r="G6" s="2">
         <f>IF(B6="buy",F6+C6,F6-C6)</f>
-        <v>-0.870999999999995</v>
+        <v>76.171599999999998</v>
       </c>
       <c r="H6" s="2">
         <f>IF(B6="buy",F6-C6,F6+C6)</f>
-        <v>0.870999999999995</v>
+        <v>77.913599999999988</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C7" s="2">
         <v>0.88199999999999001</v>
       </c>
@@ -1929,23 +1996,27 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>11736.465419501266</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>11247.840136054549</v>
+      </c>
+      <c r="F7" s="2">
+        <v>84.786500000000004</v>
+      </c>
       <c r="G7" s="2">
         <f>IF(B7="buy",F7+C7,F7-C7)</f>
-        <v>-0.88199999999999001</v>
+        <v>83.904500000000013</v>
       </c>
       <c r="H7" s="2">
         <f>IF(B7="buy",F7-C7,F7+C7)</f>
-        <v>0.88199999999999001</v>
+        <v>85.668499999999995</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C8" s="2">
         <v>1.034</v>
       </c>
@@ -1954,48 +2025,54 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>10011.182301740811</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>9594.3858800773687</v>
+      </c>
+      <c r="F8" s="2">
+        <v>112.7527</v>
+      </c>
       <c r="G8" s="2">
         <f>IF(B8="buy",F8+C8,F8-C8)</f>
-        <v>-1.034</v>
+        <v>113.78670000000001</v>
       </c>
       <c r="H8" s="2">
         <f>IF(B8="buy",F8-C8,F8+C8)</f>
-        <v>1.034</v>
+        <v>111.7187</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C9" s="2">
         <v>1.1000000000000101</v>
       </c>
       <c r="D9" s="2">
         <f>$C$2</f>
-        <v>88.35</v>
+        <v>87.91</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>10651.399392910333</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>10259.040754490554</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.282629</v>
+      </c>
       <c r="G9" s="2">
         <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>-1.10000000000001E-2</v>
+        <v>1.2936290000000001</v>
       </c>
       <c r="H9" s="2">
         <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>1.10000000000001E-2</v>
+        <v>1.2716289999999999</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2008,7 +2085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2184,7 +2261,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="-80" windowWidth="31140" windowHeight="21140" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="5900" yWindow="-80" windowWidth="31140" windowHeight="21140" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="50">
-  <si>
-    <t>buy</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="44">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
@@ -66,10 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>buy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AUDCHF</t>
   </si>
   <si>
@@ -154,51 +146,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>buy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>buy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>buy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>buy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>buy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>buy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>Pairs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Operation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pips</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yen Rate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lots</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Limit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stop</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -284,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -301,19 +277,7 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -650,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A3" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -661,25 +625,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
@@ -707,561 +671,58 @@
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.71900000000000297</v>
-      </c>
-      <c r="D6" s="2">
-        <f>$D$2</f>
-        <v>114.86</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" ref="E6:E17" si="0">$A$2*(1/C6)*(100/D6)/400</f>
-        <v>12108.833224313423</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <f t="shared" ref="G6:G15" si="1">IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>7.1900000000000297E-3</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" ref="H6:H15" si="2">IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>-7.1900000000000297E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
-        <v>0.72999999999998599</v>
-      </c>
-      <c r="D7" s="2">
-        <f>$D$2</f>
-        <v>114.86</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>11926.371353810348</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <f t="shared" si="1"/>
-        <v>-7.2999999999998596E-3</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="2"/>
-        <v>7.2999999999998596E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9">
-        <v>0.742999999999993</v>
-      </c>
-      <c r="D8" s="9">
-        <f>$G$2</f>
-        <v>112.13</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" si="0"/>
-        <v>12002.987783719234</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9">
-        <f t="shared" si="1"/>
-        <v>-7.4299999999999297E-3</v>
-      </c>
-      <c r="H8" s="9">
-        <f t="shared" si="2"/>
-        <v>7.4299999999999297E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9">
-        <v>0.82099999999999795</v>
-      </c>
-      <c r="D9" s="9">
-        <v>100</v>
-      </c>
-      <c r="E9" s="10">
-        <f t="shared" si="0"/>
-        <v>12180.26796589528</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9">
-        <f t="shared" si="1"/>
-        <v>-8.2099999999999795E-3</v>
-      </c>
-      <c r="H9" s="9">
-        <f t="shared" si="2"/>
-        <v>8.2099999999999795E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2">
-        <v>0.83499999999999597</v>
-      </c>
-      <c r="D10" s="2">
-        <f>$G$2</f>
-        <v>112.13</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>10680.502902159706</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <f t="shared" si="1"/>
-        <v>-8.3499999999999599E-3</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="2"/>
-        <v>8.3499999999999599E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2">
-        <v>0.86200000000000698</v>
-      </c>
-      <c r="D11" s="2">
-        <f>$D$2</f>
-        <v>114.86</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>10100.059267147699</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <f t="shared" si="1"/>
-        <v>-8.6200000000000703E-3</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="2"/>
-        <v>8.6200000000000703E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6">
-        <v>0.870999999999995</v>
-      </c>
-      <c r="D12" s="6">
-        <v>100</v>
-      </c>
-      <c r="E12" s="7">
-        <f t="shared" si="0"/>
-        <v>11481.056257175725</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6">
-        <f t="shared" si="1"/>
-        <v>-8.7099999999999504E-3</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="2"/>
-        <v>8.7099999999999504E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.88199999999999001</v>
-      </c>
-      <c r="D13" s="6">
-        <v>100</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>11337.868480725752</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6">
-        <f t="shared" si="1"/>
-        <v>8.8199999999999008E-3</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="2"/>
-        <v>-8.8199999999999008E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2">
-        <v>0.88299999999998902</v>
-      </c>
-      <c r="D14" s="2">
-        <f>$E$2</f>
-        <v>151.13</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>7493.5673344610086</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <f t="shared" si="1"/>
-        <v>-8.82999999999989E-3</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="2"/>
-        <v>8.82999999999989E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.92099999999999405</v>
-      </c>
-      <c r="D15" s="2">
-        <f>$G$2</f>
-        <v>112.13</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="0"/>
-        <v>9683.1920991350344</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <f t="shared" si="1"/>
-        <v>9.2099999999999405E-3</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="2"/>
-        <v>-9.2099999999999405E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2">
-        <v>0.97199999999999398</v>
-      </c>
-      <c r="D16" s="2">
-        <v>100</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="0"/>
-        <v>10288.065843621464</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <f>IF(B16="buy",F16+C16,F16-C16)</f>
-        <v>-0.97199999999999398</v>
-      </c>
-      <c r="H16" s="2">
-        <f>IF(B16="buy",F16-C16,F16+C16)</f>
-        <v>0.97199999999999398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2">
-        <v>1.0289999999999899</v>
-      </c>
-      <c r="D17" s="2">
-        <f>$F$2</f>
-        <v>77.19</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="0"/>
-        <v>12589.937794376474</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <f>IF(B17="buy",F17+(C17/100),F17-(C17/100))</f>
-        <v>-1.02899999999999E-2</v>
-      </c>
-      <c r="H17" s="2">
-        <f>IF(B17="buy",F17-(C17/100),F17+(C17/100))</f>
-        <v>1.02899999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1.034</v>
-      </c>
-      <c r="D18" s="6">
-        <v>100</v>
-      </c>
-      <c r="E18" s="7">
-        <f>$A$2*(1/C18)*(100/D18)/400</f>
-        <v>9671.1798839458406</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6">
-        <f>IF(B18="buy",F18+C18,F18-C18)</f>
-        <v>1.034</v>
-      </c>
-      <c r="H18" s="6">
-        <f>IF(B18="buy",F18-C18,F18+C18)</f>
-        <v>-1.034</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6">
-        <v>1.1000000000000101</v>
-      </c>
-      <c r="D19" s="6">
-        <f>$C$2</f>
-        <v>88.35</v>
-      </c>
-      <c r="E19" s="7">
-        <f t="shared" ref="E19:E25" si="3">$A$2*(1/C19)*(100/D19)/400</f>
-        <v>10289.653753151111</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6">
-        <f>IF(B19="buy",F19+(C19/100),F19-(C19/100))</f>
-        <v>-1.10000000000001E-2</v>
-      </c>
-      <c r="H19" s="6">
-        <f>IF(B19="buy",F19-(C19/100),F19+(C19/100))</f>
-        <v>1.10000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.198</v>
-      </c>
-      <c r="D20" s="2">
-        <v>100</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="3"/>
-        <v>8347.2454090150241</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <f>IF(B20="buy",F20+C20,F20-C20)</f>
-        <v>1.198</v>
-      </c>
-      <c r="H20" s="2">
-        <f>IF(B20="buy",F20-C20,F20+C20)</f>
-        <v>-1.198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2">
-        <v>1.33</v>
-      </c>
-      <c r="D21" s="2">
-        <f>$D$2</f>
-        <v>114.86</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="3"/>
-        <v>6546.0534498356283</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
-        <f>IF(B21="buy",F21+(C21/100),F21-(C21/100))</f>
-        <v>-1.3300000000000001E-2</v>
-      </c>
-      <c r="H21" s="2">
-        <f>IF(B21="buy",F21-(C21/100),F21+(C21/100))</f>
-        <v>1.3300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="11" customFormat="1" ht="30" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9">
-        <v>1.40499999999998</v>
-      </c>
-      <c r="D22" s="9">
-        <f>$G$2</f>
-        <v>112.13</v>
-      </c>
-      <c r="E22" s="10">
-        <f t="shared" si="3"/>
-        <v>6347.4874898956832</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9">
-        <f>IF(B22="buy",F22+C22,F22-C22)</f>
-        <v>-1.40499999999998</v>
-      </c>
-      <c r="H22" s="9">
-        <f>IF(B22="buy",F22-C22,F22+C22)</f>
-        <v>1.40499999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="11" customFormat="1" ht="30" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9">
-        <v>1.44199999999998</v>
-      </c>
-      <c r="D23" s="9">
-        <f>$B$2</f>
-        <v>85.33</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" si="3"/>
-        <v>8127.0511661263035</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9">
-        <f>IF(B23="buy",F23+(C23/100),F23-(C23/100))</f>
-        <v>-1.4419999999999799E-2</v>
-      </c>
-      <c r="H23" s="9">
-        <f>IF(B23="buy",F23-(C23/100),F23+(C23/100))</f>
-        <v>1.4419999999999799E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
-        <v>1.83699999999998</v>
-      </c>
-      <c r="D24" s="2">
-        <v>100</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" si="3"/>
-        <v>5443.6581382689765</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <f>IF(B24="buy",F24+(C24/100),F24-(C24/100))</f>
-        <v>-1.83699999999998E-2</v>
-      </c>
-      <c r="H24" s="2">
-        <f>IF(B24="buy",F24-(C24/100),F24+(C24/100))</f>
-        <v>1.83699999999998E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2.0129999999999901</v>
-      </c>
-      <c r="D25" s="2">
-        <f>$B$2</f>
-        <v>85.33</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="3"/>
-        <v>5821.7624349498374</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
-        <f>IF(B25="buy",F25+(C25/100),F25-(C25/100))</f>
-        <v>2.0129999999999901E-2</v>
-      </c>
-      <c r="H25" s="2">
-        <f>IF(B25="buy",F25-(C25/100),F25+(C25/100))</f>
-        <v>-2.0129999999999901E-2</v>
-      </c>
-    </row>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1"/>
+    <row r="7" spans="1:8" ht="30" customHeight="1"/>
+    <row r="8" spans="1:8" s="7" customFormat="1" ht="30" customHeight="1"/>
+    <row r="9" spans="1:8" s="7" customFormat="1" ht="30" customHeight="1"/>
+    <row r="10" spans="1:8" ht="30" customHeight="1"/>
+    <row r="11" spans="1:8" ht="30" customHeight="1"/>
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1"/>
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1"/>
+    <row r="14" spans="1:8" ht="30" customHeight="1"/>
+    <row r="15" spans="1:8" ht="30" customHeight="1"/>
+    <row r="16" spans="1:8" ht="30" customHeight="1"/>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" s="6" customFormat="1" ht="30" customHeight="1"/>
+    <row r="19" s="6" customFormat="1" ht="30" customHeight="1"/>
+    <row r="20" ht="30" customHeight="1"/>
+    <row r="21" ht="30" customHeight="1"/>
+    <row r="22" s="7" customFormat="1" ht="30" customHeight="1"/>
+    <row r="23" s="7" customFormat="1" ht="30" customHeight="1"/>
+    <row r="24" ht="30" customHeight="1"/>
+    <row r="25" ht="30" customHeight="1"/>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A6:H25">
-    <sortCondition ref="C7:C25"/>
+    <sortCondition descending="1" ref="C7:C25"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1275,7 +736,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1285,25 +746,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
@@ -1311,163 +772,156 @@
         <v>4056802</v>
       </c>
       <c r="B2" s="1">
-        <v>85.92</v>
+        <v>85.24</v>
       </c>
       <c r="D2" s="1">
-        <v>114.84</v>
+        <v>114.36</v>
+      </c>
+      <c r="E2" s="1">
+        <v>152.13999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2">
-        <v>0.71900000000000297</v>
+        <v>0.70700000000000196</v>
       </c>
       <c r="D6" s="2">
         <f>$D$2</f>
-        <v>114.84</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/400</f>
-        <v>12282.923474832682</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.748278</v>
-      </c>
+        <v>114.36</v>
+      </c>
+      <c r="E6" s="5">
+        <f>master!$A$2*(1/C6)*(100/D6)/400</f>
+        <v>12368.198294870677</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f t="shared" ref="G6:G7" si="1">IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>0.74108799999999997</v>
+        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
+        <v>7.0700000000000198E-3</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ref="H6:H7" si="2">IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>0.75546800000000003</v>
+        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
+        <v>-7.0700000000000198E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2">
-        <v>0.72999999999998599</v>
+        <v>0.91299999999999604</v>
       </c>
       <c r="D7" s="2">
-        <f>$D$2</f>
-        <v>114.84</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>12097.838326582063</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.165915</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E7" s="5">
+        <f>master!$A$2*(1/C7)*(100/D7)/400</f>
+        <v>10952.902519167626</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1732149999999999</v>
+        <f>IF(B7="buy",F7+C7,F7-C7)</f>
+        <v>-0.91299999999999604</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
-        <v>1.1586150000000002</v>
+        <f>IF(B7="buy",F7-C7,F7+C7)</f>
+        <v>0.91299999999999604</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2">
-        <v>1.83699999999998</v>
+        <v>0.90099999999999603</v>
       </c>
       <c r="D8" s="2">
-        <v>100</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>5520.9608056614652</v>
-      </c>
-      <c r="F8" s="2">
-        <v>152.55940000000001</v>
-      </c>
+        <f>$E$2</f>
+        <v>152.13999999999999</v>
+      </c>
+      <c r="E8" s="5">
+        <f>master!$A$2*(1/C8)*(100/D8)/400</f>
+        <v>7295.1091983010883</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <f>IF(B8="buy",F8+C8,F8-C8)</f>
-        <v>154.3964</v>
+        <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
+        <v>-9.0099999999999607E-3</v>
       </c>
       <c r="H8" s="2">
-        <f>IF(B8="buy",F8-C8,F8+C8)</f>
-        <v>150.72240000000002</v>
+        <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
+        <v>9.0099999999999607E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2">
-        <v>2.0129999999999901</v>
+        <v>2.0270000000000001</v>
       </c>
       <c r="D9" s="2">
         <f>$B$2</f>
-        <v>85.92</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>5863.8894901945841</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.77878</v>
-      </c>
+        <v>85.24</v>
+      </c>
+      <c r="E9" s="5">
+        <f>master!$A$2*(1/C9)*(100/D9)/400</f>
+        <v>5787.6573345708111</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
         <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>1.79891</v>
+        <v>2.027E-2</v>
       </c>
       <c r="H9" s="2">
         <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>1.75865</v>
+        <v>-2.027E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A6:H25">
-    <sortCondition descending="1" ref="C7:C25"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <sortState ref="A6:H9">
+    <sortCondition ref="A7:A9"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1481,7 +935,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1491,186 +945,178 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="4">
         <v>4036368</v>
       </c>
-      <c r="B2" s="1">
-        <v>85.79</v>
+      <c r="D2" s="1">
+        <v>114.36</v>
       </c>
       <c r="G2" s="1">
-        <v>112.7</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2">
-        <v>0.742999999999993</v>
+        <v>0.71499999999999897</v>
       </c>
       <c r="D6" s="2">
-        <f>$G$2</f>
-        <v>112.7</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/400</f>
-        <v>12050.859784489716</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.76140799999999997</v>
-      </c>
+        <f>$D$2</f>
+        <v>114.36</v>
+      </c>
+      <c r="E6" s="5">
+        <f>master!$A$2*(1/C6)*(100/D6)/400</f>
+        <v>12229.812859403643</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f t="shared" ref="G6" si="1">IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>0.75397800000000004</v>
+        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
+        <v>-7.1499999999999897E-3</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ref="H6" si="2">IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>0.76883799999999991</v>
+        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
+        <v>7.1499999999999897E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2">
-        <v>0.82099999999999795</v>
+        <v>0.89900000000000502</v>
       </c>
       <c r="D7" s="2">
-        <v>100</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>12291.010962241198</v>
-      </c>
-      <c r="F7" s="2">
-        <v>114.1781</v>
-      </c>
+        <f>$G$2</f>
+        <v>113.5</v>
+      </c>
+      <c r="E7" s="5">
+        <f>master!$A$2*(1/C7)*(100/D7)/400</f>
+        <v>9800.4145575357288</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f>IF(B7="buy",F7+C7,F7-C7)</f>
-        <v>113.3571</v>
+        <f>IF(B7="buy",F7+(C7/100),F7-(C7/100))</f>
+        <v>8.99000000000005E-3</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(B7="buy",F7-C7,F7+C7)</f>
-        <v>114.9991</v>
+        <f>IF(B7="buy",F7-(C7/100),F7+(C7/100))</f>
+        <v>-8.99000000000005E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2">
-        <v>1.40499999999998</v>
+        <v>1.8619999999999901</v>
       </c>
       <c r="D8" s="2">
-        <f>$G$2</f>
-        <v>112.7</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>6372.8034305166566</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.345615</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E8" s="5">
+        <f>master!$A$2*(1/C8)*(100/D8)/400</f>
+        <v>5370.569280343745</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
         <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
-        <v>1.3315650000000001</v>
+        <v>-1.8619999999999901E-2</v>
       </c>
       <c r="H8" s="2">
         <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
-        <v>1.3596649999999999</v>
+        <v>1.8619999999999901E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2">
-        <v>1.44199999999998</v>
+        <v>0.97899999999999898</v>
       </c>
       <c r="D9" s="2">
-        <f>$B$2</f>
-        <v>85.79</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>8156.9694342813855</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.5548690000000001</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E9" s="5">
+        <f>master!$A$2*(1/C9)*(100/D9)/400</f>
+        <v>10214.504596527078</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>1.5692889999999999</v>
+        <f>IF(B9="buy",F9+C9,F9-C9)</f>
+        <v>0.97899999999999898</v>
       </c>
       <c r="H9" s="2">
-        <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>1.5404490000000002</v>
+        <f>IF(B9="buy",F9-C9,F9+C9)</f>
+        <v>-0.97899999999999898</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <sortState ref="A6:H9">
+    <sortCondition ref="A7:A9"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1684,7 +1130,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1694,25 +1140,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
@@ -1720,160 +1166,152 @@
         <v>3958178</v>
       </c>
       <c r="D2" s="1">
-        <v>113.45</v>
+        <v>114.36</v>
+      </c>
+      <c r="F2" s="1">
+        <v>77.62</v>
       </c>
       <c r="G2" s="1">
-        <v>112.17</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2">
-        <v>0.83499999999999597</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="D6" s="2">
-        <f>$G$2</f>
-        <v>112.17</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/400</f>
-        <v>10565.064041481146</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.68889999999999996</v>
-      </c>
+        <f>$F$2</f>
+        <v>77.62</v>
+      </c>
+      <c r="E6" s="5">
+        <f>master!$A$2*(1/C6)*(100/D6)/400</f>
+        <v>12328.495220858827</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f t="shared" ref="G6:G7" si="1">IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>0.69724999999999993</v>
+        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
+        <v>-1.0449999999999999E-2</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ref="H6:H7" si="2">IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>0.68054999999999999</v>
+        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
+        <v>1.0449999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2">
-        <v>0.86200000000000698</v>
+        <v>0.73699999999999799</v>
       </c>
       <c r="D7" s="2">
-        <f>$D$2</f>
-        <v>113.45</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>10118.673046069254</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.98884799999999995</v>
-      </c>
+        <f>$G$2</f>
+        <v>113.5</v>
+      </c>
+      <c r="E7" s="5">
+        <f>master!$A$2*(1/C7)*(100/D7)/400</f>
+        <v>11954.644080359149</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.99746800000000002</v>
+        <f>IF(B7="buy",F7+(C7/100),F7-(C7/100))</f>
+        <v>-7.3699999999999799E-3</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
-        <v>0.98022799999999988</v>
+        <f>IF(B7="buy",F7-(C7/100),F7+(C7/100))</f>
+        <v>7.3699999999999799E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2">
-        <v>1.198</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="D8" s="2">
-        <v>100</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>8259.9707846410693</v>
-      </c>
-      <c r="F8" s="2">
-        <v>132.46889999999999</v>
-      </c>
+        <f>$D$2</f>
+        <v>114.36</v>
+      </c>
+      <c r="E8" s="5">
+        <f>master!$A$2*(1/C8)*(100/D8)/400</f>
+        <v>6009.8393089165584</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <f>IF(B8="buy",F8+C8,F8-C8)</f>
-        <v>131.27089999999998</v>
+        <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
+        <v>-1.455E-2</v>
       </c>
       <c r="H8" s="2">
-        <f>IF(B8="buy",F8-C8,F8+C8)</f>
-        <v>133.6669</v>
+        <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
+        <v>1.455E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2">
-        <v>1.33</v>
+        <v>0.85500000000000398</v>
       </c>
       <c r="D9" s="2">
-        <f>$D$2</f>
-        <v>113.45</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>6558.1174178283964</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.321402</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E9" s="5">
+        <f>master!$A$2*(1/C9)*(100/D9)/400</f>
+        <v>11695.906432748483</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
         <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>1.3081019999999999</v>
+        <v>-8.5500000000000402E-3</v>
       </c>
       <c r="H9" s="2">
         <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>1.3347020000000001</v>
+        <v>8.5500000000000402E-3</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <sortState ref="A6:H9">
+    <sortCondition ref="A7:A9"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1886,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1897,179 +1335,177 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="4">
         <v>3968238</v>
       </c>
+      <c r="B2" s="1">
+        <v>85.24</v>
+      </c>
       <c r="C2" s="1">
-        <v>87.91</v>
+        <v>88.3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>113.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2">
-        <v>0.870999999999995</v>
+        <v>0.83700000000000296</v>
       </c>
       <c r="D6" s="2">
         <v>100</v>
       </c>
-      <c r="E6" s="4">
-        <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/400</f>
-        <v>11389.890929965621</v>
-      </c>
-      <c r="F6" s="2">
-        <v>77.042599999999993</v>
-      </c>
+      <c r="E6" s="5">
+        <f>master!$A$2*(1/C6)*(100/D6)/400</f>
+        <v>11947.43130226997</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f>IF(B6="buy",F6+C6,F6-C6)</f>
-        <v>76.171599999999998</v>
+        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
+        <v>8.3700000000000302E-3</v>
       </c>
       <c r="H6" s="2">
-        <f>IF(B6="buy",F6-C6,F6+C6)</f>
-        <v>77.913599999999988</v>
+        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
+        <v>-8.3700000000000302E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2">
-        <v>0.88199999999999001</v>
+        <v>1.427</v>
       </c>
       <c r="D7" s="2">
-        <v>100</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>11247.840136054549</v>
-      </c>
-      <c r="F7" s="2">
-        <v>84.786500000000004</v>
-      </c>
+        <f>$B$2</f>
+        <v>85.24</v>
+      </c>
+      <c r="E7" s="5">
+        <f>master!$A$2*(1/C7)*(100/D7)/400</f>
+        <v>8221.1502573055604</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f>IF(B7="buy",F7+C7,F7-C7)</f>
-        <v>83.904500000000013</v>
+        <f>IF(B7="buy",F7+(C7/100),F7-(C7/100))</f>
+        <v>-1.427E-2</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(B7="buy",F7-C7,F7+C7)</f>
-        <v>85.668499999999995</v>
+        <f>IF(B7="buy",F7-(C7/100),F7+(C7/100))</f>
+        <v>1.427E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2">
-        <v>1.034</v>
+        <v>0.80599999999999505</v>
       </c>
       <c r="D8" s="2">
-        <v>100</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>9594.3858800773687</v>
-      </c>
-      <c r="F8" s="2">
-        <v>112.7527</v>
-      </c>
+        <f>$G$2</f>
+        <v>113.5</v>
+      </c>
+      <c r="E8" s="5">
+        <f>master!$A$2*(1/C8)*(100/D8)/400</f>
+        <v>10931.231621866904</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <f>IF(B8="buy",F8+C8,F8-C8)</f>
-        <v>113.78670000000001</v>
+        <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
+        <v>-8.0599999999999509E-3</v>
       </c>
       <c r="H8" s="2">
-        <f>IF(B8="buy",F8-C8,F8+C8)</f>
-        <v>111.7187</v>
+        <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
+        <v>8.0599999999999509E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2">
-        <v>1.1000000000000101</v>
+        <v>1.07099999999999</v>
       </c>
       <c r="D9" s="2">
         <f>$C$2</f>
-        <v>87.91</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>10259.040754490554</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.282629</v>
-      </c>
+        <v>88.3</v>
+      </c>
+      <c r="E9" s="5">
+        <f>master!$A$2*(1/C9)*(100/D9)/400</f>
+        <v>10574.25612751717</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
         <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>1.2936290000000001</v>
+        <v>-1.07099999999999E-2</v>
       </c>
       <c r="H9" s="2">
         <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>1.2716289999999999</v>
+        <v>1.07099999999999E-2</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <sortState ref="A6:H9">
+    <sortCondition ref="A7:A9"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2085,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -2096,171 +1532,173 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="4">
-        <v>4140625</v>
-      </c>
-      <c r="E2" s="1">
-        <v>151.13</v>
-      </c>
-      <c r="F2" s="1">
-        <v>77.19</v>
+        <v>3978138</v>
+      </c>
+      <c r="D2" s="1">
+        <v>114.36</v>
       </c>
       <c r="G2" s="1">
-        <v>112.13</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
-        <v>0.88299999999998902</v>
+        <v>0.81700000000000705</v>
       </c>
       <c r="D6" s="2">
-        <f>$E$2</f>
-        <v>151.13</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/400</f>
-        <v>7757.013061063155</v>
+        <v>100</v>
+      </c>
+      <c r="E6" s="5">
+        <f>master!$A$2*(1/C6)*(100/D6)/400</f>
+        <v>12239.902080783248</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f t="shared" ref="G6:G7" si="1">IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>-8.82999999999989E-3</v>
+        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
+        <v>-8.1700000000000713E-3</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ref="H6:H7" si="2">IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>8.82999999999989E-3</v>
+        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
+        <v>8.1700000000000713E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C7" s="2">
-        <v>0.92099999999999405</v>
+        <v>1.143</v>
       </c>
       <c r="D7" s="2">
-        <f>$G$2</f>
-        <v>112.13</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>10023.616821370248</v>
+        <v>100</v>
+      </c>
+      <c r="E7" s="5">
+        <f>master!$A$2*(1/C7)*(100/D7)/400</f>
+        <v>8748.906386701663</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f t="shared" si="1"/>
-        <v>-9.2099999999999405E-3</v>
+        <f>IF(B7="buy",F7+C7,F7-C7)</f>
+        <v>1.143</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
-        <v>9.2099999999999405E-3</v>
+        <f>IF(B7="buy",F7-C7,F7+C7)</f>
+        <v>-1.143</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
-        <v>0.97199999999999398</v>
+        <v>1.425</v>
       </c>
       <c r="D8" s="2">
-        <v>100</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>10649.755658436281</v>
+        <f>$G$2</f>
+        <v>113.5</v>
+      </c>
+      <c r="E8" s="5">
+        <f>master!$A$2*(1/C8)*(100/D8)/400</f>
+        <v>6182.8580261225743</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
         <f>IF(B8="buy",F8+C8,F8-C8)</f>
-        <v>-0.97199999999999398</v>
+        <v>-1.425</v>
       </c>
       <c r="H8" s="2">
         <f>IF(B8="buy",F8-C8,F8+C8)</f>
-        <v>0.97199999999999398</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
-        <v>1.0289999999999899</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="D9" s="2">
-        <f>$F$2</f>
-        <v>77.19</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>13032.552794960022</v>
+        <f>$D$2</f>
+        <v>114.36</v>
+      </c>
+      <c r="E9" s="5">
+        <f>master!$A$2*(1/C9)*(100/D9)/400</f>
+        <v>10573.538324635541</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
         <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>-1.02899999999999E-2</v>
+        <v>-8.2699999999999996E-3</v>
       </c>
       <c r="H9" s="2">
         <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>1.02899999999999E-2</v>
+        <v>8.2699999999999996E-3</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <sortState ref="A6:H9">
+    <sortCondition ref="A7:A9"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="-80" windowWidth="31140" windowHeight="21140" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="6340" yWindow="-80" windowWidth="33600" windowHeight="20980" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
@@ -178,7 +178,63 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -186,11 +242,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -203,18 +258,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="25"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="28"/>
       <name val="ＭＳ ゴシック"/>
       <charset val="128"/>
     </font>
@@ -260,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -274,14 +317,11 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,10 +652,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:H21"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="14.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24" customHeight="1">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>0.93600000000000705</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24" customHeight="1">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>1.1459999999999799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24" customHeight="1">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>0.91899999999998006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24" customHeight="1">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1.77600000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24" customHeight="1">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>1.32499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24" customHeight="1">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24" customHeight="1">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>1.1000000000000101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24" customHeight="1">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.70600000000000296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24" customHeight="1">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.65399999999999903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24" customHeight="1">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>0.753000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="24" customHeight="1">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>0.74399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="24" customHeight="1">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.81400000000000305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="24" customHeight="1">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>0.71000000000000796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="24" customHeight="1">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.81600000000000195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="24" customHeight="1">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.67199999999998306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="24" customHeight="1">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>1.28999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="24" customHeight="1">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>0.68200000000000405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="24" customHeight="1">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>0.88299999999998902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="24" customHeight="1">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>1.36499999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="24" customHeight="1">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1.96399999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A6:H25">
+    <sortCondition descending="1" ref="C7:C25"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -648,25 +875,16 @@
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="4">
-        <v>4000000</v>
+        <v>3881697</v>
       </c>
       <c r="B2" s="1">
-        <v>85.33</v>
-      </c>
-      <c r="C2" s="1">
-        <v>88.35</v>
+        <v>86.3</v>
       </c>
       <c r="D2" s="1">
-        <v>114.86</v>
+        <v>113.9</v>
       </c>
       <c r="E2" s="1">
-        <v>151.13</v>
-      </c>
-      <c r="F2" s="1">
-        <v>77.19</v>
-      </c>
-      <c r="G2" s="1">
-        <v>112.13</v>
+        <v>150.4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
@@ -695,34 +913,165 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1"/>
-    <row r="7" spans="1:8" ht="30" customHeight="1"/>
-    <row r="8" spans="1:8" s="7" customFormat="1" ht="30" customHeight="1"/>
-    <row r="9" spans="1:8" s="7" customFormat="1" ht="30" customHeight="1"/>
-    <row r="10" spans="1:8" ht="30" customHeight="1"/>
-    <row r="11" spans="1:8" ht="30" customHeight="1"/>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1"/>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1"/>
-    <row r="14" spans="1:8" ht="30" customHeight="1"/>
-    <row r="15" spans="1:8" ht="30" customHeight="1"/>
-    <row r="16" spans="1:8" ht="30" customHeight="1"/>
-    <row r="17" ht="30" customHeight="1"/>
-    <row r="18" s="6" customFormat="1" ht="30" customHeight="1"/>
-    <row r="19" s="6" customFormat="1" ht="30" customHeight="1"/>
-    <row r="20" ht="30" customHeight="1"/>
-    <row r="21" ht="30" customHeight="1"/>
-    <row r="22" s="7" customFormat="1" ht="30" customHeight="1"/>
-    <row r="23" s="7" customFormat="1" ht="30" customHeight="1"/>
-    <row r="24" ht="30" customHeight="1"/>
-    <row r="25" ht="30" customHeight="1"/>
+    <row r="6" spans="1:8" ht="30" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2">
+        <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
+        <v>0.68200000000000405</v>
+      </c>
+      <c r="D6" s="2">
+        <f>$D$2</f>
+        <v>113.9</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/100*$C$14</f>
+        <v>7495.5722079613552</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.75719499999999995</v>
+      </c>
+      <c r="G6" s="2">
+        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
+        <v>0.7503749999999999</v>
+      </c>
+      <c r="H6" s="2">
+        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
+        <v>0.764015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2">
+        <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
+        <v>0.878</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>6631.6007972665147</v>
+      </c>
+      <c r="F7" s="2">
+        <v>87.418599999999998</v>
+      </c>
+      <c r="G7" s="2">
+        <f>IF(B7="buy",F7+C7,F7-C7)</f>
+        <v>88.296599999999998</v>
+      </c>
+      <c r="H7" s="2">
+        <f>IF(B7="buy",F7-C7,F7+C7)</f>
+        <v>86.540599999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2">
+        <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
+        <v>0.81400000000000305</v>
+      </c>
+      <c r="D8" s="2">
+        <f>$E$2</f>
+        <v>150.4</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>4755.9869014323613</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.88247900000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
+        <v>0.89061900000000005</v>
+      </c>
+      <c r="H8" s="2">
+        <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
+        <v>0.87433899999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
+        <v>1.96399999999998</v>
+      </c>
+      <c r="D9" s="2">
+        <f>$B$2</f>
+        <v>86.3</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>3435.2679045531381</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.7442150000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
+        <v>1.763855</v>
+      </c>
+      <c r="H9" s="2">
+        <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
+        <v>1.7245750000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24" customHeight="1">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <f>A12/B12</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24" customHeight="1">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <f>A13/B13</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24" customHeight="1">
+      <c r="C14" s="1">
+        <f>C12*C13</f>
+        <v>0.15</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <sortState ref="A6:H25">
-    <sortCondition descending="1" ref="C7:C25"/>
+  <sortState ref="A6:H9">
+    <sortCondition ref="A7:A9"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -731,12 +1080,526 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="14.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1">
+      <c r="A2" s="4">
+        <v>3887496</v>
+      </c>
+      <c r="D2" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>112.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2">
+        <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
+        <v>0.67199999999998306</v>
+      </c>
+      <c r="D6" s="2">
+        <f>$D$2</f>
+        <v>114.4</v>
+      </c>
+      <c r="E6" s="5">
+        <f>$A$2*(1/C6)*(100/D6)/100*$C$14</f>
+        <v>7585.1804445556345</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.162533</v>
+      </c>
+      <c r="G6" s="2">
+        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
+        <v>1.1692529999999999</v>
+      </c>
+      <c r="H6" s="2">
+        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
+        <v>1.1558130000000002</v>
+      </c>
+      <c r="I6" s="1">
+        <f>AVERAGE(G6:H6)</f>
+        <v>1.162533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2">
+        <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
+        <v>0.91899999999998006</v>
+      </c>
+      <c r="D7" s="2">
+        <f>$G$2</f>
+        <v>112.6</v>
+      </c>
+      <c r="E7" s="5">
+        <f>$A$2*(1/C7)*(100/D7)/100*$C$14</f>
+        <v>5635.1737640536448</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.181163</v>
+      </c>
+      <c r="G7" s="2">
+        <f>IF(B7="buy",F7+(C7/100),F7-(C7/100))</f>
+        <v>1.1719730000000002</v>
+      </c>
+      <c r="H7" s="2">
+        <f>IF(B7="buy",F7-(C7/100),F7+(C7/100))</f>
+        <v>1.1903529999999998</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" ref="I7:I9" si="0">AVERAGE(G7:H7)</f>
+        <v>1.181163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2">
+        <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
+        <v>1.77600000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="5">
+        <f>$A$2*(1/C8)*(100/D8)/100*$C$14</f>
+        <v>3283.3581081080893</v>
+      </c>
+      <c r="F8" s="2">
+        <v>150.48869999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <f>IF(B8="buy",F8+C8,F8-C8)</f>
+        <v>148.71269999999998</v>
+      </c>
+      <c r="H8" s="2">
+        <f>IF(B8="buy",F8-C8,F8+C8)</f>
+        <v>152.2647</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>150.48869999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2">
+        <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
+        <v>0.93600000000000705</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="5">
+        <f>$A$2*(1/C9)*(100/D9)/100*$C$14</f>
+        <v>6229.9615384614926</v>
+      </c>
+      <c r="F9" s="2">
+        <v>112.5903</v>
+      </c>
+      <c r="G9" s="2">
+        <f>IF(B9="buy",F9+C9,F9-C9)</f>
+        <v>113.52630000000001</v>
+      </c>
+      <c r="H9" s="2">
+        <f>IF(B9="buy",F9-C9,F9+C9)</f>
+        <v>111.65429999999999</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>112.5903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <f>A12/B12</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <f>A13/B13</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1">
+      <c r="C14" s="1">
+        <f>C12*C13</f>
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A6:H9">
+    <sortCondition ref="A7:A9"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="14.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1">
+      <c r="A2" s="4">
+        <v>3899170</v>
+      </c>
+      <c r="D2" s="1">
+        <v>114.7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1">
+        <v>113.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2">
+        <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
+        <v>0.88299999999998902</v>
+      </c>
+      <c r="D6" s="2">
+        <f>$F$2</f>
+        <v>79</v>
+      </c>
+      <c r="E6" s="5">
+        <f>$A$2*(1/C6)*(100/D6)/100*$C$14</f>
+        <v>8384.4703757330062</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.0996729999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
+        <v>1.090843</v>
+      </c>
+      <c r="H6" s="2">
+        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
+        <v>1.1085029999999998</v>
+      </c>
+      <c r="I6" s="1">
+        <f>ABS(G6-H6)/2</f>
+        <v>8.8299999999998935E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2">
+        <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
+        <v>0.65399999999999903</v>
+      </c>
+      <c r="D7" s="2">
+        <f>$G$2</f>
+        <v>113.2</v>
+      </c>
+      <c r="E7" s="5">
+        <f>$A$2*(1/C7)*(100/D7)/100*$C$14</f>
+        <v>7900.2212532823396</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.767482</v>
+      </c>
+      <c r="G7" s="2">
+        <f>IF(B7="buy",F7+(C7/100),F7-(C7/100))</f>
+        <v>0.76094200000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <f>IF(B7="buy",F7-(C7/100),F7+(C7/100))</f>
+        <v>0.77402199999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <f>ABS(G7-H7)/2</f>
+        <v>6.5399999999999903E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2">
+        <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
+        <v>1.28999999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <f>$D$2</f>
+        <v>114.7</v>
+      </c>
+      <c r="E8" s="5">
+        <f>$A$2*(1/C8)*(100/D8)/100*$C$14</f>
+        <v>3952.8496989112446</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.322505</v>
+      </c>
+      <c r="G8" s="2">
+        <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
+        <v>1.3096050000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
+        <v>1.335405</v>
+      </c>
+      <c r="I8" s="1">
+        <f>ABS(G8-H8)/2</f>
+        <v>1.2899999999999912E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2">
+        <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
+        <v>0.71000000000000796</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="5">
+        <f>$A$2*(1/C9)*(100/D9)/100*$C$14</f>
+        <v>8237.6830985914548</v>
+      </c>
+      <c r="F9" s="2">
+        <v>78.988699999999994</v>
+      </c>
+      <c r="G9" s="2">
+        <f>IF(B9="buy",F9+C9,F9-C9)</f>
+        <v>78.278699999999986</v>
+      </c>
+      <c r="H9" s="2">
+        <f>IF(B9="buy",F9-C9,F9+C9)</f>
+        <v>79.698700000000002</v>
+      </c>
+      <c r="I9" s="1">
+        <f>ABS(G9-H9)/2</f>
+        <v>0.71000000000000796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <f>A12/B12</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <f>A13/B13</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1">
+      <c r="C14" s="1">
+        <f>C12*C13</f>
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A6:H9">
+    <sortCondition ref="A7:A9"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -769,159 +1632,203 @@
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="4">
-        <v>4056802</v>
+        <v>3910980</v>
       </c>
       <c r="B2" s="1">
-        <v>85.24</v>
-      </c>
-      <c r="D2" s="1">
-        <v>114.36</v>
-      </c>
-      <c r="E2" s="1">
-        <v>152.13999999999999</v>
+        <v>87.1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>88.7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>113.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2">
-        <v>0.70700000000000196</v>
+        <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
+        <v>0.70600000000000296</v>
       </c>
       <c r="D6" s="2">
-        <f>$D$2</f>
-        <v>114.36</v>
+        <v>100</v>
       </c>
       <c r="E6" s="5">
-        <f>master!$A$2*(1/C6)*(100/D6)/400</f>
-        <v>12368.198294870677</v>
-      </c>
-      <c r="F6" s="2"/>
+        <f>$A$2*(1/C6)*(100/D6)/100*$C$14</f>
+        <v>8309.4475920679542</v>
+      </c>
+      <c r="F6" s="2">
+        <v>87.183999999999997</v>
+      </c>
       <c r="G6" s="2">
-        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>7.0700000000000198E-3</v>
+        <f>IF(B6="buy",F6+C6,F6-C6)</f>
+        <v>86.477999999999994</v>
       </c>
       <c r="H6" s="2">
-        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>-7.0700000000000198E-3</v>
+        <f>IF(B6="buy",F6-C6,F6+C6)</f>
+        <v>87.89</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C7" s="2">
-        <v>0.91299999999999604</v>
+        <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
+        <v>1.36499999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>100</v>
+        <f>$B$2</f>
+        <v>87.1</v>
       </c>
       <c r="E7" s="5">
-        <f>master!$A$2*(1/C7)*(100/D7)/400</f>
-        <v>10952.902519167626</v>
-      </c>
-      <c r="F7" s="2"/>
+        <f>$A$2*(1/C7)*(100/D7)/100*$C$14</f>
+        <v>4934.3056484273829</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.5444040000000001</v>
+      </c>
       <c r="G7" s="2">
-        <f>IF(B7="buy",F7+C7,F7-C7)</f>
-        <v>-0.91299999999999604</v>
+        <f>IF(B7="buy",F7+(C7/100),F7-(C7/100))</f>
+        <v>1.5580540000000001</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(B7="buy",F7-C7,F7+C7)</f>
-        <v>0.91299999999999604</v>
+        <f>IF(B7="buy",F7-(C7/100),F7+(C7/100))</f>
+        <v>1.5307540000000002</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C8" s="2">
-        <v>0.90099999999999603</v>
+        <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
+        <v>0.74399999999999999</v>
       </c>
       <c r="D8" s="2">
-        <f>$E$2</f>
-        <v>152.13999999999999</v>
+        <f>$G$2</f>
+        <v>113.5</v>
       </c>
       <c r="E8" s="5">
-        <f>master!$A$2*(1/C8)*(100/D8)/400</f>
-        <v>7295.1091983010883</v>
-      </c>
-      <c r="F8" s="2"/>
+        <f>$A$2*(1/C8)*(100/D8)/100*$C$14</f>
+        <v>6947.1720903794212</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.70062400000000002</v>
+      </c>
       <c r="G8" s="2">
         <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
-        <v>-9.0099999999999607E-3</v>
+        <v>0.69318400000000002</v>
       </c>
       <c r="H8" s="2">
         <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
-        <v>9.0099999999999607E-3</v>
+        <v>0.70806400000000003</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2">
-        <v>2.0270000000000001</v>
+        <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
+        <v>1.1000000000000101</v>
       </c>
       <c r="D9" s="2">
-        <f>$B$2</f>
-        <v>85.24</v>
+        <f>$C$2</f>
+        <v>88.7</v>
       </c>
       <c r="E9" s="5">
-        <f>master!$A$2*(1/C9)*(100/D9)/400</f>
-        <v>5787.6573345708111</v>
-      </c>
-      <c r="F9" s="2"/>
+        <f>$A$2*(1/C9)*(100/D9)/100*$C$14</f>
+        <v>6012.5755867581693</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.2744409999999999</v>
+      </c>
       <c r="G9" s="2">
         <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>2.027E-2</v>
+        <v>1.2854410000000001</v>
       </c>
       <c r="H9" s="2">
         <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>-2.027E-2</v>
+        <v>1.2634409999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24" customHeight="1">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <f>A12/B12</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24" customHeight="1">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <f>A13/B13</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24" customHeight="1">
+      <c r="C14" s="1">
+        <f>C12*C13</f>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A6:H9">
     <sortCondition ref="A7:A9"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -930,12 +1837,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -968,13 +1875,13 @@
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="4">
-        <v>4036368</v>
+        <v>3910980</v>
       </c>
       <c r="D2" s="1">
-        <v>114.36</v>
+        <v>114.6</v>
       </c>
       <c r="G2" s="1">
-        <v>113.5</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
@@ -1005,614 +1912,32 @@
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="C6" s="2">
-        <v>0.71499999999999897</v>
-      </c>
-      <c r="D6" s="2">
-        <f>$D$2</f>
-        <v>114.36</v>
-      </c>
-      <c r="E6" s="5">
-        <f>master!$A$2*(1/C6)*(100/D6)/400</f>
-        <v>12229.812859403643</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>-7.1499999999999897E-3</v>
-      </c>
-      <c r="H6" s="2">
-        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>7.1499999999999897E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.89900000000000502</v>
-      </c>
-      <c r="D7" s="2">
-        <f>$G$2</f>
-        <v>113.5</v>
-      </c>
-      <c r="E7" s="5">
-        <f>master!$A$2*(1/C7)*(100/D7)/400</f>
-        <v>9800.4145575357288</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <f>IF(B7="buy",F7+(C7/100),F7-(C7/100))</f>
-        <v>8.99000000000005E-3</v>
-      </c>
-      <c r="H7" s="2">
-        <f>IF(B7="buy",F7-(C7/100),F7+(C7/100))</f>
-        <v>-8.99000000000005E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2">
-        <v>1.8619999999999901</v>
-      </c>
-      <c r="D8" s="2">
-        <v>100</v>
-      </c>
-      <c r="E8" s="5">
-        <f>master!$A$2*(1/C8)*(100/D8)/400</f>
-        <v>5370.569280343745</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
-        <v>-1.8619999999999901E-2</v>
-      </c>
-      <c r="H8" s="2">
-        <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
-        <v>1.8619999999999901E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.97899999999999898</v>
-      </c>
-      <c r="D9" s="2">
-        <v>100</v>
-      </c>
-      <c r="E9" s="5">
-        <f>master!$A$2*(1/C9)*(100/D9)/400</f>
-        <v>10214.504596527078</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <f>IF(B9="buy",F9+C9,F9-C9)</f>
-        <v>0.97899999999999898</v>
-      </c>
-      <c r="H9" s="2">
-        <f>IF(B9="buy",F9-C9,F9+C9)</f>
-        <v>-0.97899999999999898</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <sortState ref="A6:H9">
-    <sortCondition ref="A7:A9"/>
-  </sortState>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="14.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="24" customHeight="1">
-      <c r="A2" s="4">
-        <v>3958178</v>
-      </c>
-      <c r="D2" s="1">
-        <v>114.36</v>
-      </c>
-      <c r="F2" s="1">
-        <v>77.62</v>
-      </c>
-      <c r="G2" s="1">
-        <v>113.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <f>$F$2</f>
-        <v>77.62</v>
-      </c>
-      <c r="E6" s="5">
-        <f>master!$A$2*(1/C6)*(100/D6)/400</f>
-        <v>12328.495220858827</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>-1.0449999999999999E-2</v>
-      </c>
-      <c r="H6" s="2">
-        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>1.0449999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
-        <v>0.73699999999999799</v>
-      </c>
-      <c r="D7" s="2">
-        <f>$G$2</f>
-        <v>113.5</v>
-      </c>
-      <c r="E7" s="5">
-        <f>master!$A$2*(1/C7)*(100/D7)/400</f>
-        <v>11954.644080359149</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <f>IF(B7="buy",F7+(C7/100),F7-(C7/100))</f>
-        <v>-7.3699999999999799E-3</v>
-      </c>
-      <c r="H7" s="2">
-        <f>IF(B7="buy",F7-(C7/100),F7+(C7/100))</f>
-        <v>7.3699999999999799E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2">
-        <v>1.4550000000000001</v>
-      </c>
-      <c r="D8" s="2">
-        <f>$D$2</f>
-        <v>114.36</v>
-      </c>
-      <c r="E8" s="5">
-        <f>master!$A$2*(1/C8)*(100/D8)/400</f>
-        <v>6009.8393089165584</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
-        <v>-1.455E-2</v>
-      </c>
-      <c r="H8" s="2">
-        <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
-        <v>1.455E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
-        <v>0.85500000000000398</v>
-      </c>
-      <c r="D9" s="2">
-        <v>100</v>
-      </c>
-      <c r="E9" s="5">
-        <f>master!$A$2*(1/C9)*(100/D9)/400</f>
-        <v>11695.906432748483</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>-8.5500000000000402E-3</v>
-      </c>
-      <c r="H9" s="2">
-        <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>8.5500000000000402E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <sortState ref="A6:H9">
-    <sortCondition ref="A7:A9"/>
-  </sortState>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="14.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="24" customHeight="1">
-      <c r="A2" s="4">
-        <v>3968238</v>
-      </c>
-      <c r="B2" s="1">
-        <v>85.24</v>
-      </c>
-      <c r="C2" s="1">
-        <v>88.3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>113.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.83700000000000296</v>
+        <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
+        <v>0.81600000000000195</v>
       </c>
       <c r="D6" s="2">
         <v>100</v>
       </c>
       <c r="E6" s="5">
-        <f>master!$A$2*(1/C6)*(100/D6)/400</f>
-        <v>11947.43130226997</v>
-      </c>
-      <c r="F6" s="2"/>
+        <f>$A$2*(1/C6)*(100/D6)/100*$C$14</f>
+        <v>7189.3014705882179</v>
+      </c>
+      <c r="F6" s="2">
+        <v>114.5427</v>
+      </c>
       <c r="G6" s="2">
-        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>8.3700000000000302E-3</v>
+        <f>IF(B6="buy",F6+C6,F6-C6)</f>
+        <v>113.72669999999999</v>
       </c>
       <c r="H6" s="2">
-        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>-8.3700000000000302E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
-        <v>1.427</v>
-      </c>
-      <c r="D7" s="2">
-        <f>$B$2</f>
-        <v>85.24</v>
-      </c>
-      <c r="E7" s="5">
-        <f>master!$A$2*(1/C7)*(100/D7)/400</f>
-        <v>8221.1502573055604</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <f>IF(B7="buy",F7+(C7/100),F7-(C7/100))</f>
-        <v>-1.427E-2</v>
-      </c>
-      <c r="H7" s="2">
-        <f>IF(B7="buy",F7-(C7/100),F7+(C7/100))</f>
-        <v>1.427E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2">
-        <v>0.80599999999999505</v>
-      </c>
-      <c r="D8" s="2">
-        <f>$G$2</f>
-        <v>113.5</v>
-      </c>
-      <c r="E8" s="5">
-        <f>master!$A$2*(1/C8)*(100/D8)/400</f>
-        <v>10931.231621866904</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
-        <v>-8.0599999999999509E-3</v>
-      </c>
-      <c r="H8" s="2">
-        <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
-        <v>8.0599999999999509E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
-        <v>1.07099999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <f>$C$2</f>
-        <v>88.3</v>
-      </c>
-      <c r="E9" s="5">
-        <f>master!$A$2*(1/C9)*(100/D9)/400</f>
-        <v>10574.25612751717</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>-1.07099999999999E-2</v>
-      </c>
-      <c r="H9" s="2">
-        <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>1.07099999999999E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <sortState ref="A6:H9">
-    <sortCondition ref="A7:A9"/>
-  </sortState>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="14.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="24" customHeight="1">
-      <c r="A2" s="4">
-        <v>3978138</v>
-      </c>
-      <c r="D2" s="1">
-        <v>114.36</v>
-      </c>
-      <c r="G2" s="1">
-        <v>113.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
-        <v>0.81700000000000705</v>
-      </c>
-      <c r="D6" s="2">
-        <v>100</v>
-      </c>
-      <c r="E6" s="5">
-        <f>master!$A$2*(1/C6)*(100/D6)/400</f>
-        <v>12239.902080783248</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>-8.1700000000000713E-3</v>
-      </c>
-      <c r="H6" s="2">
-        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>8.1700000000000713E-3</v>
+        <f>IF(B6="buy",F6-C6,F6+C6)</f>
+        <v>115.3587</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
@@ -1620,82 +1945,124 @@
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2">
-        <v>1.143</v>
+        <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
+        <v>1.1459999999999799</v>
       </c>
       <c r="D7" s="2">
         <v>100</v>
       </c>
       <c r="E7" s="5">
-        <f>master!$A$2*(1/C7)*(100/D7)/400</f>
-        <v>8748.906386701663</v>
-      </c>
-      <c r="F7" s="2"/>
+        <f t="shared" ref="E7:E9" si="0">$A$2*(1/C7)*(100/D7)/100*$C$14</f>
+        <v>5119.0837696335975</v>
+      </c>
+      <c r="F7" s="2">
+        <v>134.369</v>
+      </c>
       <c r="G7" s="2">
         <f>IF(B7="buy",F7+C7,F7-C7)</f>
-        <v>1.143</v>
+        <v>133.22300000000001</v>
       </c>
       <c r="H7" s="2">
         <f>IF(B7="buy",F7-C7,F7+C7)</f>
-        <v>-1.143</v>
+        <v>135.51499999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C8" s="2">
-        <v>1.425</v>
+        <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
+        <v>1.32499999999999</v>
       </c>
       <c r="D8" s="2">
         <f>$G$2</f>
-        <v>113.5</v>
+        <v>113.4</v>
       </c>
       <c r="E8" s="5">
-        <f>master!$A$2*(1/C8)*(100/D8)/400</f>
-        <v>6182.8580261225743</v>
-      </c>
-      <c r="F8" s="2"/>
+        <f t="shared" si="0"/>
+        <v>3904.3426175501936</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.337887</v>
+      </c>
       <c r="G8" s="2">
-        <f>IF(B8="buy",F8+C8,F8-C8)</f>
-        <v>-1.425</v>
+        <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
+        <v>1.3246370000000001</v>
       </c>
       <c r="H8" s="2">
-        <f>IF(B8="buy",F8-C8,F8+C8)</f>
-        <v>1.425</v>
+        <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
+        <v>1.351137</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C9" s="2">
-        <v>0.82699999999999996</v>
+        <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
+        <v>0.753000000000003</v>
       </c>
       <c r="D9" s="2">
         <f>$D$2</f>
-        <v>114.36</v>
+        <v>114.6</v>
       </c>
       <c r="E9" s="5">
-        <f>master!$A$2*(1/C9)*(100/D9)/400</f>
-        <v>10573.538324635541</v>
-      </c>
-      <c r="F9" s="2"/>
+        <f t="shared" si="0"/>
+        <v>6798.2520181055597</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.98944200000000004</v>
+      </c>
       <c r="G9" s="2">
         <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>-8.2699999999999996E-3</v>
+        <v>0.98191200000000001</v>
       </c>
       <c r="H9" s="2">
         <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>8.2699999999999996E-3</v>
+        <v>0.99697200000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24" customHeight="1">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <f>A12/B12</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24" customHeight="1">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <f>A13/B13</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24" customHeight="1">
+      <c r="C14" s="1">
+        <f>C12*C13</f>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A6:H9">
     <sortCondition ref="A7:A9"/>
   </sortState>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="-80" windowWidth="33600" windowHeight="20980" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="6180" yWindow="-80" windowWidth="27300" windowHeight="20900" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -190,6 +190,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>buy</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -206,6 +210,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>buy</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -214,27 +226,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>buy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>buy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sell</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -322,6 +322,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,7 +658,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -668,7 +671,7 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>0.93600000000000705</v>
+        <v>0.85099999999999898</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24" customHeight="1">
@@ -676,7 +679,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>1.1459999999999799</v>
+        <v>1.143</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1">
@@ -684,7 +687,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.91899999999998006</v>
+        <v>0.89900000000000502</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24" customHeight="1">
@@ -692,7 +695,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>1.77600000000001</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24" customHeight="1">
@@ -700,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>1.32499999999999</v>
+        <v>1.2509999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="24" customHeight="1">
@@ -708,7 +711,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.878</v>
+        <v>0.78199999999999603</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="24" customHeight="1">
@@ -716,7 +719,7 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>1.1000000000000101</v>
+        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="24" customHeight="1">
@@ -732,7 +735,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.65399999999999903</v>
+        <v>0.63800000000000501</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="24" customHeight="1">
@@ -740,7 +743,7 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>0.753000000000003</v>
+        <v>0.740999999999991</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="24" customHeight="1">
@@ -748,7 +751,7 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>0.74399999999999999</v>
+        <v>0.72699999999999898</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24" customHeight="1">
@@ -764,7 +767,7 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>0.71000000000000796</v>
+        <v>0.67400000000000604</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="24" customHeight="1">
@@ -772,7 +775,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.81600000000000195</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="24" customHeight="1">
@@ -780,7 +783,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.67199999999998306</v>
+        <v>0.65899999999998704</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="24" customHeight="1">
@@ -788,7 +791,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>1.28999999999999</v>
+        <v>1.258</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="24" customHeight="1">
@@ -796,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="B17">
-        <v>0.68200000000000405</v>
+        <v>0.66900000000000803</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="24" customHeight="1">
@@ -804,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>0.88299999999998902</v>
+        <v>0.869999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" customHeight="1">
@@ -839,18 +842,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14.83203125" style="1"/>
+    <col min="1" max="9" width="14.83203125" style="1"/>
+    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1">
+    <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -873,7 +878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24" customHeight="1">
+    <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="4">
         <v>3881697</v>
       </c>
@@ -886,8 +891,11 @@
       <c r="E2" s="1">
         <v>150.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1">
+      <c r="G2" s="1">
+        <v>112.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -913,7 +921,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
+    <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -922,7 +930,7 @@
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
-        <v>0.68200000000000405</v>
+        <v>0.66900000000000803</v>
       </c>
       <c r="D6" s="2">
         <f>$D$2</f>
@@ -930,21 +938,30 @@
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/100*$C$14</f>
-        <v>7495.5722079613552</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.75719499999999995</v>
-      </c>
+        <v>7641.2260774732631</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>0.7503749999999999</v>
+        <f>F6+J6</f>
+        <v>-6.6900000000000804E-3</v>
       </c>
       <c r="H6" s="2">
-        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>0.764015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
+        <f>F6+K6</f>
+        <v>6.6900000000000804E-3</v>
+      </c>
+      <c r="J6" s="7">
+        <f>IF(B6="buy",C6/L6,C6/L6*(-1))</f>
+        <v>-6.6900000000000804E-3</v>
+      </c>
+      <c r="K6" s="7">
+        <f>J6*(-1)</f>
+        <v>6.6900000000000804E-3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -953,33 +970,42 @@
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
-        <v>0.878</v>
+        <v>0.78199999999999603</v>
       </c>
       <c r="D7" s="2">
         <v>100</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>6631.6007972665147</v>
-      </c>
-      <c r="F7" s="2">
-        <v>87.418599999999998</v>
-      </c>
+        <v>7445.7103580563025</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f>IF(B7="buy",F7+C7,F7-C7)</f>
-        <v>88.296599999999998</v>
+        <f t="shared" ref="G7:G9" si="1">F7+J7</f>
+        <v>7.8199999999999607E-3</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(B7="buy",F7-C7,F7+C7)</f>
-        <v>86.540599999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
+        <f t="shared" ref="H7:H9" si="2">F7+K7</f>
+        <v>-7.8199999999999607E-3</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" ref="J7:J9" si="3">IF(B7="buy",C7/L7,C7/L7*(-1))</f>
+        <v>7.8199999999999607E-3</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" ref="K7:K9" si="4">J7*(-1)</f>
+        <v>-7.8199999999999607E-3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
@@ -993,19 +1019,28 @@
         <f t="shared" si="0"/>
         <v>4755.9869014323613</v>
       </c>
-      <c r="F8" s="2">
-        <v>0.88247900000000001</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
-        <v>0.89061900000000005</v>
+        <f t="shared" si="1"/>
+        <v>0.81400000000000305</v>
       </c>
       <c r="H8" s="2">
-        <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
-        <v>0.87433899999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1">
+        <f t="shared" si="2"/>
+        <v>-0.81400000000000305</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="3"/>
+        <v>0.81400000000000305</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="4"/>
+        <v>-0.81400000000000305</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1024,19 +1059,28 @@
         <f t="shared" si="0"/>
         <v>3435.2679045531381</v>
       </c>
-      <c r="F9" s="2">
-        <v>1.7442150000000001</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>1.763855</v>
+        <f t="shared" si="1"/>
+        <v>1.96399999999998</v>
       </c>
       <c r="H9" s="2">
-        <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>1.7245750000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="24" customHeight="1">
+        <f t="shared" si="2"/>
+        <v>-1.96399999999998</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="3"/>
+        <v>1.96399999999998</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.96399999999998</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1048,7 +1092,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24" customHeight="1">
+    <row r="13" spans="1:12" ht="24" customHeight="1">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1060,7 +1104,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24" customHeight="1">
+    <row r="14" spans="1:12" ht="24" customHeight="1">
       <c r="C14" s="1">
         <f>C12*C13</f>
         <v>0.15</v>
@@ -1082,18 +1126,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14.83203125" style="1"/>
+    <col min="1" max="9" width="14.83203125" style="1"/>
+    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1">
+    <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1116,18 +1162,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1">
+    <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="4">
-        <v>3887496</v>
+        <v>3850173</v>
       </c>
       <c r="D2" s="1">
-        <v>114.4</v>
+        <v>115.4</v>
       </c>
       <c r="G2" s="1">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1">
+        <v>112.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -1153,145 +1199,173 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1">
+    <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
-        <v>0.67199999999998306</v>
+        <v>0.65899999999998704</v>
       </c>
       <c r="D6" s="2">
         <f>$D$2</f>
-        <v>114.4</v>
+        <v>115.4</v>
       </c>
       <c r="E6" s="5">
         <f>$A$2*(1/C6)*(100/D6)/100*$C$14</f>
-        <v>7585.1804445556345</v>
+        <v>7594.1693864188337</v>
       </c>
       <c r="F6" s="2">
-        <v>1.162533</v>
+        <v>1.172021</v>
       </c>
       <c r="G6" s="2">
-        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>1.1692529999999999</v>
+        <f>F6+J6</f>
+        <v>1.1654310000000001</v>
       </c>
       <c r="H6" s="2">
-        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>1.1558130000000002</v>
-      </c>
-      <c r="I6" s="1">
-        <f>AVERAGE(G6:H6)</f>
-        <v>1.162533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1">
+        <f>F6+K6</f>
+        <v>1.1786109999999999</v>
+      </c>
+      <c r="J6" s="7">
+        <f>IF(B6="buy",C6/L6,C6/L6*(-1))</f>
+        <v>-6.5899999999998703E-3</v>
+      </c>
+      <c r="K6" s="7">
+        <f>J6*(-1)</f>
+        <v>6.5899999999998703E-3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
-        <v>0.91899999999998006</v>
+        <v>0.89900000000000502</v>
       </c>
       <c r="D7" s="2">
         <f>$G$2</f>
-        <v>112.6</v>
+        <v>112.1</v>
       </c>
       <c r="E7" s="5">
         <f>$A$2*(1/C7)*(100/D7)/100*$C$14</f>
-        <v>5635.1737640536448</v>
+        <v>5730.6805361095703</v>
       </c>
       <c r="F7" s="2">
-        <v>1.181163</v>
+        <v>1.206466</v>
       </c>
       <c r="G7" s="2">
-        <f>IF(B7="buy",F7+(C7/100),F7-(C7/100))</f>
-        <v>1.1719730000000002</v>
+        <f t="shared" ref="G7:G9" si="0">F7+J7</f>
+        <v>1.197476</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(B7="buy",F7-(C7/100),F7+(C7/100))</f>
-        <v>1.1903529999999998</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" ref="I7:I9" si="0">AVERAGE(G7:H7)</f>
-        <v>1.181163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1">
+        <f t="shared" ref="H7:H9" si="1">F7+K7</f>
+        <v>1.2154560000000001</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" ref="J7:J9" si="2">IF(B7="buy",C7/L7,C7/L7*(-1))</f>
+        <v>-8.99000000000005E-3</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" ref="K7:K9" si="3">J7*(-1)</f>
+        <v>8.99000000000005E-3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
-        <v>1.77600000000001</v>
+        <v>1.71</v>
       </c>
       <c r="D8" s="2">
         <v>100</v>
       </c>
       <c r="E8" s="5">
         <f>$A$2*(1/C8)*(100/D8)/100*$C$14</f>
-        <v>3283.3581081080893</v>
+        <v>3377.3447368421048</v>
       </c>
       <c r="F8" s="2">
-        <v>150.48869999999999</v>
+        <v>152.09020000000001</v>
       </c>
       <c r="G8" s="2">
-        <f>IF(B8="buy",F8+C8,F8-C8)</f>
-        <v>148.71269999999998</v>
+        <f t="shared" si="0"/>
+        <v>150.3802</v>
       </c>
       <c r="H8" s="2">
-        <f>IF(B8="buy",F8-C8,F8+C8)</f>
-        <v>152.2647</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>150.48869999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1">
+        <f t="shared" si="1"/>
+        <v>153.80020000000002</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.71</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="3"/>
+        <v>1.71</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
-        <v>0.93600000000000705</v>
+        <v>0.85099999999999898</v>
       </c>
       <c r="D9" s="2">
         <v>100</v>
       </c>
       <c r="E9" s="5">
         <f>$A$2*(1/C9)*(100/D9)/100*$C$14</f>
-        <v>6229.9615384614926</v>
+        <v>6786.4388954171645</v>
       </c>
       <c r="F9" s="2">
-        <v>112.5903</v>
+        <v>112.1474</v>
       </c>
       <c r="G9" s="2">
-        <f>IF(B9="buy",F9+C9,F9-C9)</f>
-        <v>113.52630000000001</v>
+        <f t="shared" si="0"/>
+        <v>112.9984</v>
       </c>
       <c r="H9" s="2">
-        <f>IF(B9="buy",F9-C9,F9+C9)</f>
-        <v>111.65429999999999</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>112.5903</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1">
+        <f t="shared" si="1"/>
+        <v>111.29640000000001</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.85099999999999898</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="3"/>
+        <v>-0.85099999999999898</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1303,7 +1377,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1">
+    <row r="13" spans="1:12" ht="24" customHeight="1">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1315,7 +1389,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1">
+    <row r="14" spans="1:12" ht="24" customHeight="1">
       <c r="C14" s="1">
         <f>C12*C13</f>
         <v>0.15</v>
@@ -1327,6 +1401,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1337,18 +1412,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G6" sqref="G6:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14.83203125" style="1"/>
+    <col min="1" max="9" width="14.83203125" style="1"/>
+    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1">
+    <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1371,21 +1448,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1">
-      <c r="A2" s="4">
-        <v>3899170</v>
+    <row r="2" spans="1:12" ht="24" customHeight="1">
+      <c r="A2" s="5">
+        <v>3850173</v>
       </c>
       <c r="D2" s="1">
-        <v>114.7</v>
+        <v>114.5</v>
       </c>
       <c r="F2" s="1">
-        <v>79</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="G2" s="1">
-        <v>113.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1">
+        <v>112.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -1411,42 +1488,47 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1">
+    <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
-        <v>0.88299999999998902</v>
+        <v>0.869999999999993</v>
       </c>
       <c r="D6" s="2">
         <f>$F$2</f>
-        <v>79</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="E6" s="5">
         <f>$A$2*(1/C6)*(100/D6)/100*$C$14</f>
-        <v>8384.4703757330062</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1.0996729999999999</v>
-      </c>
+        <v>8287.427353738929</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f>IF(B6="buy",F6+(C6/100),F6-(C6/100))</f>
-        <v>1.090843</v>
+        <f>F6+J6</f>
+        <v>-8.69999999999993E-3</v>
       </c>
       <c r="H6" s="2">
-        <f>IF(B6="buy",F6-(C6/100),F6+(C6/100))</f>
-        <v>1.1085029999999998</v>
-      </c>
-      <c r="I6" s="1">
-        <f>ABS(G6-H6)/2</f>
-        <v>8.8299999999998935E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1">
+        <f>F6+K6</f>
+        <v>8.69999999999993E-3</v>
+      </c>
+      <c r="J6" s="7">
+        <f>IF(B6="buy",C6/L6,C6/L6*(-1))</f>
+        <v>-8.69999999999993E-3</v>
+      </c>
+      <c r="K6" s="7">
+        <f>J6*(-1)</f>
+        <v>8.69999999999993E-3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1455,68 +1537,78 @@
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
-        <v>0.65399999999999903</v>
+        <v>0.63800000000000501</v>
       </c>
       <c r="D7" s="2">
         <f>$G$2</f>
-        <v>113.2</v>
+        <v>112.1</v>
       </c>
       <c r="E7" s="5">
         <f>$A$2*(1/C7)*(100/D7)/100*$C$14</f>
-        <v>7900.2212532823396</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.767482</v>
-      </c>
+        <v>8075.0498463361964</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f>IF(B7="buy",F7+(C7/100),F7-(C7/100))</f>
-        <v>0.76094200000000001</v>
+        <f t="shared" ref="G7:G9" si="0">F7+J7</f>
+        <v>-6.3800000000000497E-3</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(B7="buy",F7-(C7/100),F7+(C7/100))</f>
-        <v>0.77402199999999999</v>
-      </c>
-      <c r="I7" s="1">
-        <f>ABS(G7-H7)/2</f>
-        <v>6.5399999999999903E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1">
+        <f t="shared" ref="H7:H9" si="1">F7+K7</f>
+        <v>6.3800000000000497E-3</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" ref="J7:J9" si="2">IF(B7="buy",C7/L7,C7/L7*(-1))</f>
+        <v>-6.3800000000000497E-3</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" ref="K7:K9" si="3">J7*(-1)</f>
+        <v>6.3800000000000497E-3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
-        <v>1.28999999999999</v>
+        <v>1.258</v>
       </c>
       <c r="D8" s="2">
         <f>$D$2</f>
-        <v>114.7</v>
+        <v>114.5</v>
       </c>
       <c r="E8" s="5">
         <f>$A$2*(1/C8)*(100/D8)/100*$C$14</f>
-        <v>3952.8496989112446</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1.322505</v>
-      </c>
+        <v>4009.4552939787977</v>
+      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="2">
-        <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
-        <v>1.3096050000000001</v>
+        <f t="shared" si="0"/>
+        <v>-1.2580000000000001E-2</v>
       </c>
       <c r="H8" s="2">
-        <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
-        <v>1.335405</v>
-      </c>
-      <c r="I8" s="1">
-        <f>ABS(G8-H8)/2</f>
-        <v>1.2899999999999912E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1">
+        <f t="shared" si="1"/>
+        <v>1.2580000000000001E-2</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.2580000000000001E-2</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="3"/>
+        <v>1.2580000000000001E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1525,32 +1617,37 @@
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
-        <v>0.71000000000000796</v>
+        <v>0.67400000000000604</v>
       </c>
       <c r="D9" s="2">
         <v>100</v>
       </c>
       <c r="E9" s="5">
         <f>$A$2*(1/C9)*(100/D9)/100*$C$14</f>
-        <v>8237.6830985914548</v>
-      </c>
-      <c r="F9" s="2">
-        <v>78.988699999999994</v>
-      </c>
+        <v>8568.6342729969547</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <f>IF(B9="buy",F9+C9,F9-C9)</f>
-        <v>78.278699999999986</v>
+        <f t="shared" si="0"/>
+        <v>-0.67400000000000604</v>
       </c>
       <c r="H9" s="2">
-        <f>IF(B9="buy",F9-C9,F9+C9)</f>
-        <v>79.698700000000002</v>
-      </c>
-      <c r="I9" s="1">
-        <f>ABS(G9-H9)/2</f>
-        <v>0.71000000000000796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1">
+        <f t="shared" si="1"/>
+        <v>0.67400000000000604</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.67400000000000604</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="3"/>
+        <v>0.67400000000000604</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1562,7 +1659,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1">
+    <row r="13" spans="1:12" ht="24" customHeight="1">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1574,7 +1671,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1">
+    <row r="14" spans="1:12" ht="24" customHeight="1">
       <c r="C14" s="1">
         <f>C12*C13</f>
         <v>0.15</v>
@@ -1586,6 +1683,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1596,18 +1694,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G1" sqref="G1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14.83203125" style="1"/>
+    <col min="1" max="9" width="14.83203125" style="1"/>
+    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1">
+    <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1630,21 +1730,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24" customHeight="1">
+    <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="4">
-        <v>3910980</v>
+        <v>3862640</v>
       </c>
       <c r="B2" s="1">
-        <v>87.1</v>
+        <v>87.8</v>
       </c>
       <c r="C2" s="1">
-        <v>88.7</v>
+        <v>89.5</v>
       </c>
       <c r="G2" s="1">
-        <v>113.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1">
+        <v>112.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1669,13 +1769,15 @@
       <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
@@ -1686,26 +1788,35 @@
       </c>
       <c r="E6" s="5">
         <f>$A$2*(1/C6)*(100/D6)/100*$C$14</f>
-        <v>8309.4475920679542</v>
-      </c>
-      <c r="F6" s="2">
-        <v>87.183999999999997</v>
-      </c>
+        <v>8206.7422096316932</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f>IF(B6="buy",F6+C6,F6-C6)</f>
-        <v>86.477999999999994</v>
+        <f>F6+J6</f>
+        <v>-0.70600000000000296</v>
       </c>
       <c r="H6" s="2">
-        <f>IF(B6="buy",F6-C6,F6+C6)</f>
-        <v>87.89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
+        <f>F6+K6</f>
+        <v>0.70600000000000296</v>
+      </c>
+      <c r="J6" s="7">
+        <f>IF(B6="buy",C6/L6,C6/L6*(-1))</f>
+        <v>-0.70600000000000296</v>
+      </c>
+      <c r="K6" s="7">
+        <f>J6*(-1)</f>
+        <v>0.70600000000000296</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
@@ -1713,87 +1824,114 @@
       </c>
       <c r="D7" s="2">
         <f>$B$2</f>
-        <v>87.1</v>
+        <v>87.8</v>
       </c>
       <c r="E7" s="5">
         <f>$A$2*(1/C7)*(100/D7)/100*$C$14</f>
-        <v>4934.3056484273829</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.5444040000000001</v>
-      </c>
+        <v>4834.4639415254805</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f>IF(B7="buy",F7+(C7/100),F7-(C7/100))</f>
-        <v>1.5580540000000001</v>
+        <f t="shared" ref="G7:G9" si="0">F7+J7</f>
+        <v>1.36499999999999E-2</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(B7="buy",F7-(C7/100),F7+(C7/100))</f>
-        <v>1.5307540000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
+        <f t="shared" ref="H7:H9" si="1">F7+K7</f>
+        <v>-1.36499999999999E-2</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" ref="J7:J9" si="2">IF(B7="buy",C7/L7,C7/L7*(-1))</f>
+        <v>1.36499999999999E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" ref="K7:K9" si="3">J7*(-1)</f>
+        <v>-1.36499999999999E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
-        <v>0.74399999999999999</v>
+        <v>0.72699999999999898</v>
       </c>
       <c r="D8" s="2">
         <f>$G$2</f>
-        <v>113.5</v>
+        <v>112.8</v>
       </c>
       <c r="E8" s="5">
         <f>$A$2*(1/C8)*(100/D8)/100*$C$14</f>
-        <v>6947.1720903794212</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.70062400000000002</v>
-      </c>
+        <v>7065.3223682285206</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
-        <v>0.69318400000000002</v>
+        <f t="shared" si="0"/>
+        <v>-7.26999999999999E-3</v>
       </c>
       <c r="H8" s="2">
-        <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
-        <v>0.70806400000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1">
+        <f t="shared" si="1"/>
+        <v>7.26999999999999E-3</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="2"/>
+        <v>-7.26999999999999E-3</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="3"/>
+        <v>7.26999999999999E-3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
-        <v>1.1000000000000101</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="D9" s="2">
         <f>$C$2</f>
-        <v>88.7</v>
+        <v>89.5</v>
       </c>
       <c r="E9" s="5">
         <f>$A$2*(1/C9)*(100/D9)/100*$C$14</f>
-        <v>6012.5755867581693</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.2744409999999999</v>
-      </c>
+        <v>6701.5510600645412</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>1.2854410000000001</v>
+        <f t="shared" si="0"/>
+        <v>9.6600000000000002E-3</v>
       </c>
       <c r="H9" s="2">
-        <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>1.2634409999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="24" customHeight="1">
+        <f t="shared" si="1"/>
+        <v>-9.6600000000000002E-3</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="2"/>
+        <v>9.6600000000000002E-3</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="3"/>
+        <v>-9.6600000000000002E-3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1805,7 +1943,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24" customHeight="1">
+    <row r="13" spans="1:12" ht="24" customHeight="1">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1817,7 +1955,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24" customHeight="1">
+    <row r="14" spans="1:12" ht="24" customHeight="1">
       <c r="C14" s="1">
         <f>C12*C13</f>
         <v>0.15</v>
@@ -1829,6 +1967,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1839,18 +1978,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14.83203125" style="1"/>
+    <col min="1" max="9" width="14.83203125" style="1"/>
+    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1">
+    <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1873,7 +2014,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24" customHeight="1">
+    <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="4">
         <v>3910980</v>
       </c>
@@ -1881,10 +2022,10 @@
         <v>114.6</v>
       </c>
       <c r="G2" s="1">
-        <v>113.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1">
+        <v>112.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -1904,113 +2045,142 @@
         <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
-        <v>0.81600000000000195</v>
+        <v>0.75</v>
       </c>
       <c r="D6" s="2">
         <v>100</v>
       </c>
       <c r="E6" s="5">
         <f>$A$2*(1/C6)*(100/D6)/100*$C$14</f>
-        <v>7189.3014705882179</v>
-      </c>
-      <c r="F6" s="2">
-        <v>114.5427</v>
-      </c>
+        <v>7821.96</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f>IF(B6="buy",F6+C6,F6-C6)</f>
-        <v>113.72669999999999</v>
+        <f>F6+J6</f>
+        <v>-0.75</v>
       </c>
       <c r="H6" s="2">
-        <f>IF(B6="buy",F6-C6,F6+C6)</f>
-        <v>115.3587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
+        <f>F6+K6</f>
+        <v>0.75</v>
+      </c>
+      <c r="J6" s="7">
+        <f>IF(B6="buy",C6/L6,C6/L6*(-1))</f>
+        <v>-0.75</v>
+      </c>
+      <c r="K6" s="7">
+        <f>J6*(-1)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
-        <v>1.1459999999999799</v>
+        <v>1.143</v>
       </c>
       <c r="D7" s="2">
         <v>100</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E9" si="0">$A$2*(1/C7)*(100/D7)/100*$C$14</f>
-        <v>5119.0837696335975</v>
-      </c>
-      <c r="F7" s="2">
-        <v>134.369</v>
-      </c>
+        <v>5132.5196850393704</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f>IF(B7="buy",F7+C7,F7-C7)</f>
-        <v>133.22300000000001</v>
+        <f t="shared" ref="G7:G9" si="1">F7+J7</f>
+        <v>-1.143</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(B7="buy",F7-C7,F7+C7)</f>
-        <v>135.51499999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
+        <f t="shared" ref="H7:H9" si="2">F7+K7</f>
+        <v>1.143</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" ref="J7:J9" si="3">IF(B7="buy",C7/L7,C7/L7*(-1))</f>
+        <v>-1.143</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" ref="K7:K9" si="4">J7*(-1)</f>
+        <v>1.143</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
-        <v>1.32499999999999</v>
+        <v>1.2509999999999999</v>
       </c>
       <c r="D8" s="2">
         <f>$G$2</f>
-        <v>113.4</v>
+        <v>112.8</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>3904.3426175501936</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.337887</v>
-      </c>
+        <v>4157.2911883259349</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <f>IF(B8="buy",F8+(C8/100),F8-(C8/100))</f>
-        <v>1.3246370000000001</v>
+        <f t="shared" si="1"/>
+        <v>-1.2509999999999999E-2</v>
       </c>
       <c r="H8" s="2">
-        <f>IF(B8="buy",F8-(C8/100),F8+(C8/100))</f>
-        <v>1.351137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1">
+        <f t="shared" si="2"/>
+        <v>1.2509999999999999E-2</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="3"/>
+        <v>-1.2509999999999999E-2</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="4"/>
+        <v>1.2509999999999999E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
-        <v>0.753000000000003</v>
+        <v>0.740999999999991</v>
       </c>
       <c r="D9" s="2">
         <f>$D$2</f>
@@ -2018,21 +2188,30 @@
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>6798.2520181055597</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.98944200000000004</v>
-      </c>
+        <v>6908.3451681964498</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <f>IF(B9="buy",F9+(C9/100),F9-(C9/100))</f>
-        <v>0.98191200000000001</v>
+        <f t="shared" si="1"/>
+        <v>-7.4099999999999097E-3</v>
       </c>
       <c r="H9" s="2">
-        <f>IF(B9="buy",F9-(C9/100),F9+(C9/100))</f>
-        <v>0.99697200000000008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="24" customHeight="1">
+        <f t="shared" si="2"/>
+        <v>7.4099999999999097E-3</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="3"/>
+        <v>-7.4099999999999097E-3</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="4"/>
+        <v>7.4099999999999097E-3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -2044,7 +2223,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24" customHeight="1">
+    <row r="13" spans="1:12" ht="24" customHeight="1">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -2056,7 +2235,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24" customHeight="1">
+    <row r="14" spans="1:12" ht="24" customHeight="1">
       <c r="C14" s="1">
         <f>C12*C13</f>
         <v>0.15</v>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="-80" windowWidth="27300" windowHeight="20900" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="8800" yWindow="-80" windowWidth="27640" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="59">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
@@ -186,6 +186,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>buy</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -202,6 +206,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>buy</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -222,19 +234,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>sell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>buy</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -679,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>1.143</v>
+        <v>1.1459999999999799</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1">
@@ -695,7 +699,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>1.71</v>
+        <v>1.627</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24" customHeight="1">
@@ -703,7 +707,7 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>1.2509999999999999</v>
+        <v>1.1909999999999801</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="24" customHeight="1">
@@ -735,7 +739,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.63800000000000501</v>
+        <v>0.63799999999999402</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="24" customHeight="1">
@@ -743,7 +747,7 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>0.740999999999991</v>
+        <v>0.753000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="24" customHeight="1">
@@ -751,7 +755,7 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>0.72699999999999898</v>
+        <v>0.755000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24" customHeight="1">
@@ -767,7 +771,7 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>0.67400000000000604</v>
+        <v>0.71000000000000796</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="24" customHeight="1">
@@ -775,7 +779,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.75000999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="24" customHeight="1">
@@ -791,7 +795,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>1.258</v>
+        <v>1.234</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="24" customHeight="1">
@@ -799,7 +803,7 @@
         <v>9</v>
       </c>
       <c r="B17">
-        <v>0.66900000000000803</v>
+        <v>0.68200000000000405</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="24" customHeight="1">
@@ -807,7 +811,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>0.869999999999993</v>
+        <v>0.88299999999998902</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" customHeight="1">
@@ -844,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -880,19 +884,19 @@
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="4">
-        <v>3881697</v>
+        <v>3815052</v>
       </c>
       <c r="B2" s="1">
-        <v>86.3</v>
+        <v>88.6</v>
       </c>
       <c r="D2" s="1">
-        <v>113.9</v>
+        <v>115.6</v>
       </c>
       <c r="E2" s="1">
-        <v>150.4</v>
+        <v>153.1</v>
       </c>
       <c r="G2" s="1">
-        <v>112.1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1">
@@ -930,32 +934,34 @@
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
-        <v>0.66900000000000803</v>
+        <v>0.68200000000000405</v>
       </c>
       <c r="D6" s="2">
         <f>$D$2</f>
-        <v>113.9</v>
+        <v>115.6</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/100*$C$14</f>
-        <v>7641.2260774732631</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>7258.543973048897</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.76588299999999998</v>
+      </c>
       <c r="G6" s="2">
         <f>F6+J6</f>
-        <v>-6.6900000000000804E-3</v>
+        <v>0.75906299999999993</v>
       </c>
       <c r="H6" s="2">
         <f>F6+K6</f>
-        <v>6.6900000000000804E-3</v>
+        <v>0.77270300000000003</v>
       </c>
       <c r="J6" s="7">
         <f>IF(B6="buy",C6/L6,C6/L6*(-1))</f>
-        <v>-6.6900000000000804E-3</v>
+        <v>-6.8200000000000404E-3</v>
       </c>
       <c r="K6" s="7">
         <f>J6*(-1)</f>
-        <v>6.6900000000000804E-3</v>
+        <v>6.8200000000000404E-3</v>
       </c>
       <c r="L6" s="1">
         <v>100</v>
@@ -966,7 +972,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
@@ -977,27 +983,29 @@
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>7445.7103580563025</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>7317.8746803069425</v>
+      </c>
+      <c r="F7" s="2">
+        <v>90.948999999999998</v>
+      </c>
       <c r="G7" s="2">
         <f t="shared" ref="G7:G9" si="1">F7+J7</f>
-        <v>7.8199999999999607E-3</v>
+        <v>90.167000000000002</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ref="H7:H9" si="2">F7+K7</f>
-        <v>-7.8199999999999607E-3</v>
+        <v>91.730999999999995</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ref="J7:J9" si="3">IF(B7="buy",C7/L7,C7/L7*(-1))</f>
-        <v>7.8199999999999607E-3</v>
+        <v>-0.78199999999999603</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ref="K7:K9" si="4">J7*(-1)</f>
-        <v>-7.8199999999999607E-3</v>
+        <v>0.78199999999999603</v>
       </c>
       <c r="L7" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1">
@@ -1005,7 +1013,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
@@ -1013,31 +1021,33 @@
       </c>
       <c r="D8" s="2">
         <f>$E$2</f>
-        <v>150.4</v>
+        <v>153.1</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>4755.9869014323613</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>4591.8968668805201</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.88389799999999996</v>
+      </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>0.81400000000000305</v>
+        <v>0.892038</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>-0.81400000000000305</v>
+        <v>0.87575799999999993</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="3"/>
-        <v>0.81400000000000305</v>
+        <v>8.1400000000000309E-3</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="4"/>
-        <v>-0.81400000000000305</v>
+        <v>-8.1400000000000309E-3</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1">
@@ -1045,7 +1055,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
@@ -1053,31 +1063,33 @@
       </c>
       <c r="D9" s="2">
         <f>$B$2</f>
-        <v>86.3</v>
+        <v>88.6</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>3435.2679045531381</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>3288.6413685619123</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.7299469999999999</v>
+      </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>1.96399999999998</v>
+        <v>1.7495869999999998</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>-1.96399999999998</v>
+        <v>1.710307</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="3"/>
-        <v>1.96399999999998</v>
+        <v>1.96399999999998E-2</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="4"/>
-        <v>-1.96399999999998</v>
+        <v>-1.96399999999998E-2</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="24" customHeight="1">
@@ -1116,6 +1128,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1204,7 +1217,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
@@ -1246,7 +1259,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
@@ -1288,37 +1301,37 @@
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
-        <v>1.71</v>
+        <v>1.627</v>
       </c>
       <c r="D8" s="2">
         <v>100</v>
       </c>
       <c r="E8" s="5">
         <f>$A$2*(1/C8)*(100/D8)/100*$C$14</f>
-        <v>3377.3447368421048</v>
+        <v>3549.6370620774433</v>
       </c>
       <c r="F8" s="2">
         <v>152.09020000000001</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>150.3802</v>
+        <v>150.4632</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="1"/>
-        <v>153.80020000000002</v>
+        <v>153.71720000000002</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
-        <v>-1.71</v>
+        <v>-1.627</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
-        <v>1.71</v>
+        <v>1.627</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -1329,7 +1342,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
@@ -1401,7 +1414,6 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1415,7 +1427,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:L9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1450,16 +1462,16 @@
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="5">
-        <v>3850173</v>
+        <v>3844367</v>
       </c>
       <c r="D2" s="1">
-        <v>114.5</v>
+        <v>115.3</v>
       </c>
       <c r="F2" s="1">
-        <v>80.099999999999994</v>
+        <v>79.8</v>
       </c>
       <c r="G2" s="1">
-        <v>112.1</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1">
@@ -1493,36 +1505,36 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
-        <v>0.869999999999993</v>
+        <v>0.88299999999998902</v>
       </c>
       <c r="D6" s="2">
         <f>$F$2</f>
-        <v>80.099999999999994</v>
+        <v>79.8</v>
       </c>
       <c r="E6" s="5">
         <f>$A$2*(1/C6)*(100/D6)/100*$C$14</f>
-        <v>8287.427353738929</v>
+        <v>8183.7528419010023</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
         <f>F6+J6</f>
-        <v>-8.69999999999993E-3</v>
+        <v>-8.82999999999989E-3</v>
       </c>
       <c r="H6" s="2">
         <f>F6+K6</f>
-        <v>8.69999999999993E-3</v>
+        <v>8.82999999999989E-3</v>
       </c>
       <c r="J6" s="7">
         <f>IF(B6="buy",C6/L6,C6/L6*(-1))</f>
-        <v>-8.69999999999993E-3</v>
+        <v>-8.82999999999989E-3</v>
       </c>
       <c r="K6" s="7">
         <f>J6*(-1)</f>
-        <v>8.69999999999993E-3</v>
+        <v>8.82999999999989E-3</v>
       </c>
       <c r="L6" s="1">
         <v>100</v>
@@ -1537,32 +1549,34 @@
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
-        <v>0.63800000000000501</v>
+        <v>0.63799999999999402</v>
       </c>
       <c r="D7" s="2">
         <f>$G$2</f>
-        <v>112.1</v>
+        <v>112.3</v>
       </c>
       <c r="E7" s="5">
         <f>$A$2*(1/C7)*(100/D7)/100*$C$14</f>
-        <v>8075.0498463361964</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>8048.5132747316075</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.78354199999999996</v>
+      </c>
       <c r="G7" s="2">
         <f t="shared" ref="G7:G9" si="0">F7+J7</f>
-        <v>-6.3800000000000497E-3</v>
+        <v>0.77716200000000002</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ref="H7:H9" si="1">F7+K7</f>
-        <v>6.3800000000000497E-3</v>
+        <v>0.7899219999999999</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ref="J7:J9" si="2">IF(B7="buy",C7/L7,C7/L7*(-1))</f>
-        <v>-6.3800000000000497E-3</v>
+        <v>-6.3799999999999404E-3</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ref="K7:K9" si="3">J7*(-1)</f>
-        <v>6.3800000000000497E-3</v>
+        <v>6.3799999999999404E-3</v>
       </c>
       <c r="L7" s="1">
         <v>100</v>
@@ -1573,36 +1587,36 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
-        <v>1.258</v>
+        <v>1.234</v>
       </c>
       <c r="D8" s="2">
         <f>$D$2</f>
-        <v>114.5</v>
+        <v>115.3</v>
       </c>
       <c r="E8" s="5">
         <f>$A$2*(1/C8)*(100/D8)/100*$C$14</f>
-        <v>4009.4552939787977</v>
+        <v>4052.9536084430574</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>-1.2580000000000001E-2</v>
+        <v>-1.234E-2</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="1"/>
-        <v>1.2580000000000001E-2</v>
+        <v>1.234E-2</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
-        <v>-1.2580000000000001E-2</v>
+        <v>-1.234E-2</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
-        <v>1.2580000000000001E-2</v>
+        <v>1.234E-2</v>
       </c>
       <c r="L8" s="1">
         <v>100</v>
@@ -1617,31 +1631,33 @@
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
-        <v>0.67400000000000604</v>
+        <v>0.71000000000000796</v>
       </c>
       <c r="D9" s="2">
         <v>100</v>
       </c>
       <c r="E9" s="5">
         <f>$A$2*(1/C9)*(100/D9)/100*$C$14</f>
-        <v>8568.6342729969547</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>8121.9021126759653</v>
+      </c>
+      <c r="F9" s="2">
+        <v>79.790400000000005</v>
+      </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>-0.67400000000000604</v>
+        <v>79.080399999999997</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="1"/>
-        <v>0.67400000000000604</v>
+        <v>80.500400000000013</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
-        <v>-0.67400000000000604</v>
+        <v>-0.71000000000000796</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
-        <v>0.67400000000000604</v>
+        <v>0.71000000000000796</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
@@ -1683,7 +1699,6 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1697,7 +1712,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:L1048576"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1732,16 +1747,16 @@
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="4">
-        <v>3862640</v>
+        <v>3825641</v>
       </c>
       <c r="B2" s="1">
-        <v>87.8</v>
+        <v>88.3</v>
       </c>
       <c r="C2" s="1">
-        <v>89.5</v>
+        <v>90</v>
       </c>
       <c r="G2" s="1">
-        <v>112.8</v>
+        <v>112.6</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1">
@@ -1777,7 +1792,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
@@ -1788,16 +1803,18 @@
       </c>
       <c r="E6" s="5">
         <f>$A$2*(1/C6)*(100/D6)/100*$C$14</f>
-        <v>8206.7422096316932</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>8128.1324362605892</v>
+      </c>
+      <c r="F6" s="2">
+        <v>88.326499999999996</v>
+      </c>
       <c r="G6" s="2">
         <f>F6+J6</f>
-        <v>-0.70600000000000296</v>
+        <v>87.620499999999993</v>
       </c>
       <c r="H6" s="2">
         <f>F6+K6</f>
-        <v>0.70600000000000296</v>
+        <v>89.032499999999999</v>
       </c>
       <c r="J6" s="7">
         <f>IF(B6="buy",C6/L6,C6/L6*(-1))</f>
@@ -1816,7 +1833,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
@@ -1824,20 +1841,22 @@
       </c>
       <c r="D7" s="2">
         <f>$B$2</f>
-        <v>87.8</v>
+        <v>88.3</v>
       </c>
       <c r="E7" s="5">
         <f>$A$2*(1/C7)*(100/D7)/100*$C$14</f>
-        <v>4834.4639415254805</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>4761.043147113397</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.5385260000000001</v>
+      </c>
       <c r="G7" s="2">
         <f t="shared" ref="G7:G9" si="0">F7+J7</f>
-        <v>1.36499999999999E-2</v>
+        <v>1.552176</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ref="H7:H9" si="1">F7+K7</f>
-        <v>-1.36499999999999E-2</v>
+        <v>1.5248760000000001</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ref="J7:J9" si="2">IF(B7="buy",C7/L7,C7/L7*(-1))</f>
@@ -1856,36 +1875,38 @@
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
-        <v>0.72699999999999898</v>
+        <v>0.755000000000005</v>
       </c>
       <c r="D8" s="2">
         <f>$G$2</f>
-        <v>112.8</v>
+        <v>112.6</v>
       </c>
       <c r="E8" s="5">
         <f>$A$2*(1/C8)*(100/D8)/100*$C$14</f>
-        <v>7065.3223682285206</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>6750.0988084174915</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.71224600000000005</v>
+      </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>-7.26999999999999E-3</v>
+        <v>0.70469599999999999</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="1"/>
-        <v>7.26999999999999E-3</v>
+        <v>0.7197960000000001</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
-        <v>-7.26999999999999E-3</v>
+        <v>-7.5500000000000497E-3</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
-        <v>7.26999999999999E-3</v>
+        <v>7.5500000000000497E-3</v>
       </c>
       <c r="L8" s="1">
         <v>100</v>
@@ -1896,7 +1917,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
@@ -1904,20 +1925,22 @@
       </c>
       <c r="D9" s="2">
         <f>$C$2</f>
-        <v>89.5</v>
+        <v>90</v>
       </c>
       <c r="E9" s="5">
         <f>$A$2*(1/C9)*(100/D9)/100*$C$14</f>
-        <v>6701.5510600645412</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>6600.4848171152526</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.2524249999999999</v>
+      </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>9.6600000000000002E-3</v>
+        <v>1.2620849999999999</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="1"/>
-        <v>-9.6600000000000002E-3</v>
+        <v>1.2427649999999999</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
@@ -1967,7 +1990,6 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1980,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -2016,13 +2038,13 @@
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="4">
-        <v>3910980</v>
+        <v>3820863</v>
       </c>
       <c r="D2" s="1">
-        <v>114.6</v>
+        <v>115.9</v>
       </c>
       <c r="G2" s="1">
-        <v>112.8</v>
+        <v>113.3</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1">
@@ -2058,35 +2080,37 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
-        <v>0.75</v>
+        <v>0.75000999999999995</v>
       </c>
       <c r="D6" s="2">
         <v>100</v>
       </c>
       <c r="E6" s="5">
         <f>$A$2*(1/C6)*(100/D6)/100*$C$14</f>
-        <v>7821.96</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>7641.6241116785104</v>
+      </c>
+      <c r="F6" s="2">
+        <v>115.8222</v>
+      </c>
       <c r="G6" s="2">
         <f>F6+J6</f>
-        <v>-0.75</v>
+        <v>115.07218999999999</v>
       </c>
       <c r="H6" s="2">
         <f>F6+K6</f>
-        <v>0.75</v>
+        <v>116.57221</v>
       </c>
       <c r="J6" s="7">
         <f>IF(B6="buy",C6/L6,C6/L6*(-1))</f>
-        <v>-0.75</v>
+        <v>-0.75000999999999995</v>
       </c>
       <c r="K6" s="7">
         <f>J6*(-1)</f>
-        <v>0.75</v>
+        <v>0.75000999999999995</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -2097,35 +2121,37 @@
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
-        <v>1.143</v>
+        <v>1.1459999999999799</v>
       </c>
       <c r="D7" s="2">
         <v>100</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E9" si="0">$A$2*(1/C7)*(100/D7)/100*$C$14</f>
-        <v>5132.5196850393704</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>5001.1295811519203</v>
+      </c>
+      <c r="F7" s="2">
+        <v>136.1568</v>
+      </c>
       <c r="G7" s="2">
         <f t="shared" ref="G7:G9" si="1">F7+J7</f>
-        <v>-1.143</v>
+        <v>135.01080000000002</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ref="H7:H9" si="2">F7+K7</f>
-        <v>1.143</v>
+        <v>137.30279999999999</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ref="J7:J9" si="3">IF(B7="buy",C7/L7,C7/L7*(-1))</f>
-        <v>-1.143</v>
+        <v>-1.1459999999999799</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ref="K7:K9" si="4">J7*(-1)</f>
-        <v>1.143</v>
+        <v>1.1459999999999799</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -2136,36 +2162,38 @@
         <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
-        <v>1.2509999999999999</v>
+        <v>1.1909999999999801</v>
       </c>
       <c r="D8" s="2">
         <f>$G$2</f>
-        <v>112.8</v>
+        <v>113.3</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>4157.2911883259349</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>4247.2815756301834</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.355475</v>
+      </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>-1.2509999999999999E-2</v>
+        <v>1.3435650000000001</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>1.2509999999999999E-2</v>
+        <v>1.3673849999999999</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="3"/>
-        <v>-1.2509999999999999E-2</v>
+        <v>-1.1909999999999801E-2</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="4"/>
-        <v>1.2509999999999999E-2</v>
+        <v>1.1909999999999801E-2</v>
       </c>
       <c r="L8" s="1">
         <v>100</v>
@@ -2176,36 +2204,38 @@
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
-        <v>0.740999999999991</v>
+        <v>0.753000000000003</v>
       </c>
       <c r="D9" s="2">
         <f>$D$2</f>
-        <v>114.6</v>
+        <v>115.9</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>6908.3451681964498</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>6567.1103334719519</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.97682199999999997</v>
+      </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>-7.4099999999999097E-3</v>
+        <v>0.984352</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>7.4099999999999097E-3</v>
+        <v>0.96929199999999993</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="3"/>
-        <v>-7.4099999999999097E-3</v>
+        <v>7.5300000000000297E-3</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="4"/>
-        <v>7.4099999999999097E-3</v>
+        <v>-7.5300000000000297E-3</v>
       </c>
       <c r="L9" s="1">
         <v>100</v>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="-80" windowWidth="27640" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7660" yWindow="-80" windowWidth="27640" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="60">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
@@ -182,6 +182,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>buy</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -190,6 +194,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>buy</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -198,10 +214,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>buy</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>sell</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -211,30 +239,6 @@
   </si>
   <si>
     <t>sell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>buy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>buy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>buy</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -661,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
@@ -675,7 +679,7 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>0.85099999999999898</v>
+        <v>0.85800000000000398</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24" customHeight="1">
@@ -683,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>1.1459999999999799</v>
+        <v>1.2710000000000099</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1">
@@ -691,7 +695,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.89900000000000502</v>
+        <v>0.96100000000001096</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24" customHeight="1">
@@ -699,7 +703,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>1.627</v>
+        <v>1.77799999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24" customHeight="1">
@@ -715,7 +719,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.78199999999999603</v>
+        <v>0.89999999999999103</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="24" customHeight="1">
@@ -723,7 +727,7 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.96599999999999997</v>
+        <v>1.1000000000000101</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="24" customHeight="1">
@@ -731,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.70600000000000296</v>
+        <v>0.76600000000000501</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="24" customHeight="1">
@@ -739,7 +743,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.63799999999999402</v>
+        <v>0.65300000000000302</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="24" customHeight="1">
@@ -747,7 +751,7 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>0.753000000000003</v>
+        <v>0.85800000000000298</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="24" customHeight="1">
@@ -755,7 +759,7 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>0.755000000000005</v>
+        <v>0.80299999999999805</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24" customHeight="1">
@@ -763,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.81400000000000305</v>
+        <v>0.79000000000000103</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="24" customHeight="1">
@@ -771,7 +775,7 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>0.71000000000000796</v>
+        <v>0.79000000000000603</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="24" customHeight="1">
@@ -779,7 +783,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.75000999999999995</v>
+        <v>0.83500000000000796</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="24" customHeight="1">
@@ -787,7 +791,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.65899999999998704</v>
+        <v>0.66999999999999205</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="24" customHeight="1">
@@ -803,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="B17">
-        <v>0.68200000000000405</v>
+        <v>0.70700000000000196</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="24" customHeight="1">
@@ -811,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>0.88299999999998902</v>
+        <v>0.869999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" customHeight="1">
@@ -819,7 +823,7 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>1.36499999999999</v>
+        <v>1.427</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="24" customHeight="1">
@@ -848,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -884,19 +888,16 @@
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="4">
-        <v>3815052</v>
+        <v>3780635</v>
       </c>
       <c r="B2" s="1">
-        <v>88.6</v>
+        <v>87.9</v>
       </c>
       <c r="D2" s="1">
-        <v>115.6</v>
+        <v>115.1</v>
       </c>
       <c r="E2" s="1">
-        <v>153.1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>113</v>
+        <v>152.4</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1">
@@ -934,34 +935,34 @@
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
-        <v>0.68200000000000405</v>
+        <v>0.70700000000000196</v>
       </c>
       <c r="D6" s="2">
         <f>$D$2</f>
-        <v>115.6</v>
+        <v>115.1</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:E9" si="0">$A$2*(1/C6)*(100/D6)/100*$C$14</f>
-        <v>7258.543973048897</v>
+        <v>6968.8524952780554</v>
       </c>
       <c r="F6" s="2">
-        <v>0.76588299999999998</v>
+        <v>0.76429899999999995</v>
       </c>
       <c r="G6" s="2">
         <f>F6+J6</f>
-        <v>0.75906299999999993</v>
+        <v>0.75722899999999993</v>
       </c>
       <c r="H6" s="2">
         <f>F6+K6</f>
-        <v>0.77270300000000003</v>
+        <v>0.77136899999999997</v>
       </c>
       <c r="J6" s="7">
         <f>IF(B6="buy",C6/L6,C6/L6*(-1))</f>
-        <v>-6.8200000000000404E-3</v>
+        <v>-7.0700000000000198E-3</v>
       </c>
       <c r="K6" s="7">
         <f>J6*(-1)</f>
-        <v>6.8200000000000404E-3</v>
+        <v>7.0700000000000198E-3</v>
       </c>
       <c r="L6" s="1">
         <v>100</v>
@@ -972,37 +973,37 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
-        <v>0.78199999999999603</v>
+        <v>0.89999999999999103</v>
       </c>
       <c r="D7" s="2">
         <v>100</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>7317.8746803069425</v>
+        <v>6301.0583333333961</v>
       </c>
       <c r="F7" s="2">
-        <v>90.948999999999998</v>
+        <v>88.932500000000005</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ref="G7:G9" si="1">F7+J7</f>
-        <v>90.167000000000002</v>
+        <v>89.832499999999996</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ref="H7:H9" si="2">F7+K7</f>
-        <v>91.730999999999995</v>
+        <v>88.032500000000013</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ref="J7:J9" si="3">IF(B7="buy",C7/L7,C7/L7*(-1))</f>
-        <v>-0.78199999999999603</v>
+        <v>0.89999999999999103</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ref="K7:K9" si="4">J7*(-1)</f>
-        <v>0.78199999999999603</v>
+        <v>-0.89999999999999103</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -1013,38 +1014,38 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
-        <v>0.81400000000000305</v>
+        <v>0.79000000000000103</v>
       </c>
       <c r="D8" s="2">
         <f>$E$2</f>
-        <v>153.1</v>
+        <v>152.4</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>4591.8968668805201</v>
+        <v>4710.2499252466796</v>
       </c>
       <c r="F8" s="2">
-        <v>0.88389799999999996</v>
+        <v>0.889876</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>0.892038</v>
+        <v>0.88197599999999998</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>0.87575799999999993</v>
+        <v>0.89777600000000002</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="3"/>
-        <v>8.1400000000000309E-3</v>
+        <v>-7.9000000000000112E-3</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="4"/>
-        <v>-8.1400000000000309E-3</v>
+        <v>7.9000000000000112E-3</v>
       </c>
       <c r="L8" s="1">
         <v>100</v>
@@ -1055,7 +1056,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
@@ -1063,30 +1064,30 @@
       </c>
       <c r="D9" s="2">
         <f>$B$2</f>
-        <v>88.6</v>
+        <v>87.9</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>3288.6413685619123</v>
+        <v>3284.9264578105895</v>
       </c>
       <c r="F9" s="2">
-        <v>1.7299469999999999</v>
+        <v>1.7331490000000001</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>1.7495869999999998</v>
+        <v>1.7135090000000002</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>1.710307</v>
+        <v>1.7527889999999999</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="3"/>
-        <v>1.96399999999998E-2</v>
+        <v>-1.96399999999998E-2</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="4"/>
-        <v>-1.96399999999998E-2</v>
+        <v>1.96399999999998E-2</v>
       </c>
       <c r="L9" s="1">
         <v>100</v>
@@ -1128,7 +1129,6 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1177,13 +1177,13 @@
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="4">
-        <v>3850173</v>
+        <v>3774636</v>
       </c>
       <c r="D2" s="1">
-        <v>115.4</v>
+        <v>114.8</v>
       </c>
       <c r="G2" s="1">
-        <v>112.1</v>
+        <v>110.8</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1">
@@ -1217,38 +1217,38 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
-        <v>0.65899999999998704</v>
+        <v>0.66999999999999205</v>
       </c>
       <c r="D6" s="2">
         <f>$D$2</f>
-        <v>115.4</v>
+        <v>114.8</v>
       </c>
       <c r="E6" s="5">
         <f>$A$2*(1/C6)*(100/D6)/100*$C$14</f>
-        <v>7594.1693864188337</v>
+        <v>7361.2174320038312</v>
       </c>
       <c r="F6" s="2">
-        <v>1.172021</v>
+        <v>1.179278</v>
       </c>
       <c r="G6" s="2">
         <f>F6+J6</f>
-        <v>1.1654310000000001</v>
+        <v>1.1725780000000001</v>
       </c>
       <c r="H6" s="2">
         <f>F6+K6</f>
-        <v>1.1786109999999999</v>
+        <v>1.185978</v>
       </c>
       <c r="J6" s="7">
         <f>IF(B6="buy",C6/L6,C6/L6*(-1))</f>
-        <v>-6.5899999999998703E-3</v>
+        <v>-6.6999999999999204E-3</v>
       </c>
       <c r="K6" s="7">
         <f>J6*(-1)</f>
-        <v>6.5899999999998703E-3</v>
+        <v>6.6999999999999204E-3</v>
       </c>
       <c r="L6" s="1">
         <v>100</v>
@@ -1259,38 +1259,38 @@
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
-        <v>0.89900000000000502</v>
+        <v>0.96100000000001096</v>
       </c>
       <c r="D7" s="2">
         <f>$G$2</f>
-        <v>112.1</v>
+        <v>110.8</v>
       </c>
       <c r="E7" s="5">
         <f>$A$2*(1/C7)*(100/D7)/100*$C$14</f>
-        <v>5730.6805361095703</v>
+        <v>5317.4472289318956</v>
       </c>
       <c r="F7" s="2">
-        <v>1.206466</v>
+        <v>1.2222660000000001</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ref="G7:G9" si="0">F7+J7</f>
-        <v>1.197476</v>
+        <v>1.212656</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ref="H7:H9" si="1">F7+K7</f>
-        <v>1.2154560000000001</v>
+        <v>1.2318760000000002</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ref="J7:J9" si="2">IF(B7="buy",C7/L7,C7/L7*(-1))</f>
-        <v>-8.99000000000005E-3</v>
+        <v>-9.6100000000001098E-3</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ref="K7:K9" si="3">J7*(-1)</f>
-        <v>8.99000000000005E-3</v>
+        <v>9.6100000000001098E-3</v>
       </c>
       <c r="L7" s="1">
         <v>100</v>
@@ -1301,37 +1301,37 @@
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
-        <v>1.627</v>
+        <v>1.77799999999999</v>
       </c>
       <c r="D8" s="2">
         <v>100</v>
       </c>
       <c r="E8" s="5">
         <f>$A$2*(1/C8)*(100/D8)/100*$C$14</f>
-        <v>3549.6370620774433</v>
+        <v>3184.4510686164408</v>
       </c>
       <c r="F8" s="2">
-        <v>152.09020000000001</v>
+        <v>152.3655</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>150.4632</v>
+        <v>150.58750000000001</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="1"/>
-        <v>153.71720000000002</v>
+        <v>154.14349999999999</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
-        <v>-1.627</v>
+        <v>-1.77799999999999</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
-        <v>1.627</v>
+        <v>1.77799999999999</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -1342,37 +1342,37 @@
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
-        <v>0.85099999999999898</v>
+        <v>0.85800000000000398</v>
       </c>
       <c r="D9" s="2">
         <v>100</v>
       </c>
       <c r="E9" s="5">
         <f>$A$2*(1/C9)*(100/D9)/100*$C$14</f>
-        <v>6786.4388954171645</v>
+        <v>6599.0139860139552</v>
       </c>
       <c r="F9" s="2">
-        <v>112.1474</v>
+        <v>110.7483</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>112.9984</v>
+        <v>111.6063</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="1"/>
-        <v>111.29640000000001</v>
+        <v>109.8903</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
-        <v>0.85099999999999898</v>
+        <v>0.85800000000000398</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
-        <v>-0.85099999999999898</v>
+        <v>-0.85800000000000398</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
@@ -1462,16 +1462,16 @@
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="5">
-        <v>3844367</v>
+        <v>3774780</v>
       </c>
       <c r="D2" s="1">
-        <v>115.3</v>
+        <v>114.9</v>
       </c>
       <c r="F2" s="1">
-        <v>79.8</v>
+        <v>80.5</v>
       </c>
       <c r="G2" s="1">
-        <v>112.3</v>
+        <v>110.8</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1">
@@ -1505,36 +1505,38 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
-        <v>0.88299999999998902</v>
+        <v>0.869999999999993</v>
       </c>
       <c r="D6" s="2">
         <f>$F$2</f>
-        <v>79.8</v>
+        <v>80.5</v>
       </c>
       <c r="E6" s="5">
         <f>$A$2*(1/C6)*(100/D6)/100*$C$14</f>
-        <v>8183.7528419010023</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>8084.7718997644688</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.09677</v>
+      </c>
       <c r="G6" s="2">
         <f>F6+J6</f>
-        <v>-8.82999999999989E-3</v>
+        <v>1.0880700000000001</v>
       </c>
       <c r="H6" s="2">
         <f>F6+K6</f>
-        <v>8.82999999999989E-3</v>
+        <v>1.10547</v>
       </c>
       <c r="J6" s="7">
         <f>IF(B6="buy",C6/L6,C6/L6*(-1))</f>
-        <v>-8.82999999999989E-3</v>
+        <v>-8.69999999999993E-3</v>
       </c>
       <c r="K6" s="7">
         <f>J6*(-1)</f>
-        <v>8.82999999999989E-3</v>
+        <v>8.69999999999993E-3</v>
       </c>
       <c r="L6" s="1">
         <v>100</v>
@@ -1549,34 +1551,34 @@
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
-        <v>0.63799999999999402</v>
+        <v>0.65300000000000302</v>
       </c>
       <c r="D7" s="2">
         <f>$G$2</f>
-        <v>112.3</v>
+        <v>110.8</v>
       </c>
       <c r="E7" s="5">
         <f>$A$2*(1/C7)*(100/D7)/100*$C$14</f>
-        <v>8048.5132747316075</v>
+        <v>7825.8219492373082</v>
       </c>
       <c r="F7" s="2">
-        <v>0.78354199999999996</v>
+        <v>0.79658200000000001</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ref="G7:G9" si="0">F7+J7</f>
-        <v>0.77716200000000002</v>
+        <v>0.79005199999999998</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ref="H7:H9" si="1">F7+K7</f>
-        <v>0.7899219999999999</v>
+        <v>0.80311200000000005</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ref="J7:J9" si="2">IF(B7="buy",C7/L7,C7/L7*(-1))</f>
-        <v>-6.3799999999999404E-3</v>
+        <v>-6.5300000000000306E-3</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ref="K7:K9" si="3">J7*(-1)</f>
-        <v>6.3799999999999404E-3</v>
+        <v>6.5300000000000306E-3</v>
       </c>
       <c r="L7" s="1">
         <v>100</v>
@@ -1587,7 +1589,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
@@ -1595,20 +1597,22 @@
       </c>
       <c r="D8" s="2">
         <f>$D$2</f>
-        <v>115.3</v>
+        <v>114.9</v>
       </c>
       <c r="E8" s="5">
         <f>$A$2*(1/C8)*(100/D8)/100*$C$14</f>
-        <v>4052.9536084430574</v>
-      </c>
-      <c r="F8" s="6"/>
+        <v>3993.4450787309938</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.3299179999999999</v>
+      </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>-1.234E-2</v>
+        <v>1.3175779999999999</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="1"/>
-        <v>1.234E-2</v>
+        <v>1.342258</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
@@ -1631,33 +1635,33 @@
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
-        <v>0.71000000000000796</v>
+        <v>0.79000000000000603</v>
       </c>
       <c r="D9" s="2">
         <v>100</v>
       </c>
       <c r="E9" s="5">
         <f>$A$2*(1/C9)*(100/D9)/100*$C$14</f>
-        <v>8121.9021126759653</v>
+        <v>7167.3037974682993</v>
       </c>
       <c r="F9" s="2">
-        <v>79.790400000000005</v>
+        <v>80.491299999999995</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>79.080399999999997</v>
+        <v>79.701299999999989</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="1"/>
-        <v>80.500400000000013</v>
+        <v>81.281300000000002</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
-        <v>-0.71000000000000796</v>
+        <v>-0.79000000000000603</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
-        <v>0.71000000000000796</v>
+        <v>0.79000000000000603</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
@@ -1712,7 +1716,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1747,16 +1751,16 @@
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="4">
-        <v>3825641</v>
+        <v>3762888</v>
       </c>
       <c r="B2" s="1">
-        <v>88.3</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1">
-        <v>90</v>
+        <v>89.4</v>
       </c>
       <c r="G2" s="1">
-        <v>112.6</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1">
@@ -1792,37 +1796,37 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
-        <v>0.70600000000000296</v>
+        <v>0.76600000000000501</v>
       </c>
       <c r="D6" s="2">
         <v>100</v>
       </c>
       <c r="E6" s="5">
         <f>$A$2*(1/C6)*(100/D6)/100*$C$14</f>
-        <v>8128.1324362605892</v>
+        <v>7368.5796344647024</v>
       </c>
       <c r="F6" s="2">
-        <v>88.326499999999996</v>
+        <v>88.945099999999996</v>
       </c>
       <c r="G6" s="2">
         <f>F6+J6</f>
-        <v>87.620499999999993</v>
+        <v>88.179099999999991</v>
       </c>
       <c r="H6" s="2">
         <f>F6+K6</f>
-        <v>89.032499999999999</v>
+        <v>89.711100000000002</v>
       </c>
       <c r="J6" s="7">
         <f>IF(B6="buy",C6/L6,C6/L6*(-1))</f>
-        <v>-0.70600000000000296</v>
+        <v>-0.76600000000000501</v>
       </c>
       <c r="K6" s="7">
         <f>J6*(-1)</f>
-        <v>0.70600000000000296</v>
+        <v>0.76600000000000501</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -1833,38 +1837,38 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
-        <v>1.36499999999999</v>
+        <v>1.427</v>
       </c>
       <c r="D7" s="2">
         <f>$B$2</f>
-        <v>88.3</v>
+        <v>89</v>
       </c>
       <c r="E7" s="5">
         <f>$A$2*(1/C7)*(100/D7)/100*$C$14</f>
-        <v>4761.043147113397</v>
+        <v>4444.2509232065377</v>
       </c>
       <c r="F7" s="2">
-        <v>1.5385260000000001</v>
+        <v>1.532</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ref="G7:G9" si="0">F7+J7</f>
-        <v>1.552176</v>
+        <v>1.54627</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ref="H7:H9" si="1">F7+K7</f>
-        <v>1.5248760000000001</v>
+        <v>1.51773</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ref="J7:J9" si="2">IF(B7="buy",C7/L7,C7/L7*(-1))</f>
-        <v>1.36499999999999E-2</v>
+        <v>1.427E-2</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ref="K7:K9" si="3">J7*(-1)</f>
-        <v>-1.36499999999999E-2</v>
+        <v>-1.427E-2</v>
       </c>
       <c r="L7" s="1">
         <v>100</v>
@@ -1875,38 +1879,38 @@
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
-        <v>0.755000000000005</v>
+        <v>0.80299999999999805</v>
       </c>
       <c r="D8" s="2">
         <f>$G$2</f>
-        <v>112.6</v>
+        <v>111.2</v>
       </c>
       <c r="E8" s="5">
         <f>$A$2*(1/C8)*(100/D8)/100*$C$14</f>
-        <v>6750.0988084174915</v>
+        <v>6321.0935610167062</v>
       </c>
       <c r="F8" s="2">
-        <v>0.71224600000000005</v>
+        <v>0.73014599999999996</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>0.70469599999999999</v>
+        <v>0.72211599999999998</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="1"/>
-        <v>0.7197960000000001</v>
+        <v>0.73817599999999994</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
-        <v>-7.5500000000000497E-3</v>
+        <v>-8.0299999999999799E-3</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
-        <v>7.5500000000000497E-3</v>
+        <v>8.0299999999999799E-3</v>
       </c>
       <c r="L8" s="1">
         <v>100</v>
@@ -1917,38 +1921,38 @@
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
-        <v>0.96599999999999997</v>
+        <v>1.1000000000000101</v>
       </c>
       <c r="D9" s="2">
         <f>$C$2</f>
-        <v>90</v>
+        <v>89.4</v>
       </c>
       <c r="E9" s="5">
         <f>$A$2*(1/C9)*(100/D9)/100*$C$14</f>
-        <v>6600.4848171152526</v>
+        <v>5739.6095179987269</v>
       </c>
       <c r="F9" s="2">
-        <v>1.2524249999999999</v>
+        <v>1.2442</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>1.2620849999999999</v>
+        <v>1.2552000000000001</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="1"/>
-        <v>1.2427649999999999</v>
+        <v>1.2331999999999999</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
-        <v>9.6600000000000002E-3</v>
+        <v>1.10000000000001E-2</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
-        <v>-9.6600000000000002E-3</v>
+        <v>-1.10000000000001E-2</v>
       </c>
       <c r="L9" s="1">
         <v>100</v>
@@ -1985,6 +1989,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A6:H9">
     <sortCondition ref="A7:A9"/>
   </sortState>
@@ -2003,7 +2008,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -2038,13 +2043,13 @@
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="4">
-        <v>3820863</v>
+        <v>3762879</v>
       </c>
       <c r="D2" s="1">
-        <v>115.9</v>
+        <v>115.6</v>
       </c>
       <c r="G2" s="1">
-        <v>113.3</v>
+        <v>110.8</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1">
@@ -2080,37 +2085,37 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(A6,master!$A$1:$B$20,2,0)</f>
-        <v>0.75000999999999995</v>
+        <v>0.83500000000000796</v>
       </c>
       <c r="D6" s="2">
         <v>100</v>
       </c>
       <c r="E6" s="5">
         <f>$A$2*(1/C6)*(100/D6)/100*$C$14</f>
-        <v>7641.6241116785104</v>
+        <v>6759.6628742514322</v>
       </c>
       <c r="F6" s="2">
-        <v>115.8222</v>
+        <v>115.6018</v>
       </c>
       <c r="G6" s="2">
         <f>F6+J6</f>
-        <v>115.07218999999999</v>
+        <v>114.76679999999999</v>
       </c>
       <c r="H6" s="2">
         <f>F6+K6</f>
-        <v>116.57221</v>
+        <v>116.43680000000001</v>
       </c>
       <c r="J6" s="7">
         <f>IF(B6="buy",C6/L6,C6/L6*(-1))</f>
-        <v>-0.75000999999999995</v>
+        <v>-0.83500000000000796</v>
       </c>
       <c r="K6" s="7">
         <f>J6*(-1)</f>
-        <v>0.75000999999999995</v>
+        <v>0.83500000000000796</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -2121,37 +2126,37 @@
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(A7,master!$A$1:$B$20,2,0)</f>
-        <v>1.1459999999999799</v>
+        <v>1.2710000000000099</v>
       </c>
       <c r="D7" s="2">
         <v>100</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E9" si="0">$A$2*(1/C7)*(100/D7)/100*$C$14</f>
-        <v>5001.1295811519203</v>
+        <v>4440.8485444531516</v>
       </c>
       <c r="F7" s="2">
-        <v>136.1568</v>
+        <v>135.85919999999999</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ref="G7:G9" si="1">F7+J7</f>
-        <v>135.01080000000002</v>
+        <v>134.58819999999997</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ref="H7:H9" si="2">F7+K7</f>
-        <v>137.30279999999999</v>
+        <v>137.1302</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ref="J7:J9" si="3">IF(B7="buy",C7/L7,C7/L7*(-1))</f>
-        <v>-1.1459999999999799</v>
+        <v>-1.2710000000000099</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ref="K7:K9" si="4">J7*(-1)</f>
-        <v>1.1459999999999799</v>
+        <v>1.2710000000000099</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -2162,7 +2167,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(A8,master!$A$1:$B$20,2,0)</f>
@@ -2170,22 +2175,22 @@
       </c>
       <c r="D8" s="2">
         <f>$G$2</f>
-        <v>113.3</v>
+        <v>110.8</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>4247.2815756301834</v>
+        <v>4277.2042575635669</v>
       </c>
       <c r="F8" s="2">
-        <v>1.355475</v>
+        <v>1.3886400000000001</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>1.3435650000000001</v>
+        <v>1.3767300000000002</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>1.3673849999999999</v>
+        <v>1.40055</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="3"/>
@@ -2204,38 +2209,38 @@
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP(A9,master!$A$1:$B$20,2,0)</f>
-        <v>0.753000000000003</v>
+        <v>0.85800000000000298</v>
       </c>
       <c r="D9" s="2">
         <f>$D$2</f>
-        <v>115.9</v>
+        <v>115.6</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>6567.1103334719519</v>
+        <v>5690.709161081114</v>
       </c>
       <c r="F9" s="2">
-        <v>0.97682199999999997</v>
+        <v>0.95826</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>0.984352</v>
+        <v>0.96684000000000003</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>0.96929199999999993</v>
+        <v>0.94967999999999997</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="3"/>
-        <v>7.5300000000000297E-3</v>
+        <v>8.5800000000000303E-3</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="4"/>
-        <v>-7.5300000000000297E-3</v>
+        <v>-8.5800000000000303E-3</v>
       </c>
       <c r="L9" s="1">
         <v>100</v>
@@ -2272,6 +2277,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A6:H9">
     <sortCondition ref="A7:A9"/>
   </sortState>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="-80" windowWidth="27220" windowHeight="21140" tabRatio="742" firstSheet="4" activeTab="20"/>
+    <workbookView xWindow="3300" yWindow="-80" windowWidth="31180" windowHeight="21140" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -660,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -842,12 +842,12 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A6:H25">
     <sortCondition descending="1" ref="C7:C25"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -861,7 +861,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -914,7 +914,7 @@
         <v>14442.591623036649</v>
       </c>
       <c r="F3" s="9">
-        <v>82.31</v>
+        <v>100</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -939,15 +939,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3-J3</f>
-        <v>80.972999999999999</v>
+        <v>98.662999999999997</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>82.31</v>
+        <v>100</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>79.635999999999996</v>
+        <v>97.325999999999993</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -964,24 +964,22 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3+J3</f>
-        <v>83.647000000000006</v>
+        <v>101.337</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>82.31</v>
+        <v>100</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>84.984000000000009</v>
+        <v>102.67400000000001</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -995,7 +993,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1048,7 +1046,7 @@
         <v>14292.927461140001</v>
       </c>
       <c r="F3" s="9">
-        <v>85.63</v>
+        <v>100</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1073,15 +1071,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3-J3</f>
-        <v>84.279000000000011</v>
+        <v>98.649000000000015</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>85.63</v>
+        <v>100</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>82.928000000000026</v>
+        <v>97.29800000000003</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1098,24 +1096,22 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3+J3</f>
-        <v>86.98099999999998</v>
+        <v>101.35099999999998</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>85.63</v>
+        <v>100</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>88.331999999999965</v>
+        <v>102.70199999999997</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1129,7 +1125,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1182,7 +1178,7 @@
         <v>17179.488434163701</v>
       </c>
       <c r="F3" s="9">
-        <v>111.93</v>
+        <v>100</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1207,15 +1203,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3-J3</f>
-        <v>110.80600000000001</v>
+        <v>98.876000000000005</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>111.93</v>
+        <v>100</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>109.68200000000002</v>
+        <v>97.75200000000001</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1232,24 +1228,22 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3+J3</f>
-        <v>113.054</v>
+        <v>101.124</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>111.93</v>
+        <v>100</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>114.178</v>
+        <v>102.24799999999999</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1263,7 +1257,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1316,7 +1310,7 @@
         <v>10364.865807836877</v>
       </c>
       <c r="F3" s="9">
-        <v>128.72999999999999</v>
+        <v>100</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1341,15 +1335,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3-J3</f>
-        <v>126.867</v>
+        <v>98.137000000000015</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>128.72999999999999</v>
+        <v>100</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>125.00400000000002</v>
+        <v>96.274000000000029</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1366,24 +1360,22 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3+J3</f>
-        <v>130.59299999999999</v>
+        <v>101.86299999999999</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>128.72999999999999</v>
+        <v>100</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>132.45599999999999</v>
+        <v>103.72599999999997</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1397,7 +1389,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1450,7 +1442,7 @@
         <v>10569.099616858295</v>
       </c>
       <c r="F3" s="9">
-        <v>144.69999999999999</v>
+        <v>100</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1475,15 +1467,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3-J3</f>
-        <v>142.87299999999999</v>
+        <v>98.173000000000016</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>144.69999999999999</v>
+        <v>100</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>141.04599999999999</v>
+        <v>96.346000000000032</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1500,24 +1492,22 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3+J3</f>
-        <v>146.52699999999999</v>
+        <v>101.82699999999998</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>144.69999999999999</v>
+        <v>100</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>148.35399999999998</v>
+        <v>103.65399999999997</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1531,7 +1521,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1584,7 +1574,7 @@
         <v>16968.141476274166</v>
       </c>
       <c r="F3" s="9">
-        <v>75.08</v>
+        <v>100</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1609,15 +1599,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3-J3</f>
-        <v>73.941999999999993</v>
+        <v>98.861999999999995</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>75.08</v>
+        <v>100</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>72.803999999999988</v>
+        <v>97.72399999999999</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1634,24 +1624,22 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3+J3</f>
-        <v>76.218000000000004</v>
+        <v>101.13800000000001</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>75.08</v>
+        <v>100</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>77.356000000000009</v>
+        <v>102.27600000000001</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1665,7 +1653,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1718,7 +1706,7 @@
         <v>15840.643970467725</v>
       </c>
       <c r="F3" s="9">
-        <v>111.28</v>
+        <v>100</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1743,15 +1731,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3-J3</f>
-        <v>110.06100000000001</v>
+        <v>98.781000000000006</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>111.28</v>
+        <v>100</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>108.84200000000001</v>
+        <v>97.562000000000012</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1768,24 +1756,22 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3+J3</f>
-        <v>112.499</v>
+        <v>101.21899999999999</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>111.28</v>
+        <v>100</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>113.71799999999999</v>
+        <v>102.43799999999999</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1795,6 +1781,1201 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:L5"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="1" max="9" width="14.83203125" style="1"/>
+    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <v>0.878000000000001</v>
+      </c>
+      <c r="D3" s="5">
+        <v>75</v>
+      </c>
+      <c r="E3" s="6">
+        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
+        <v>29323.834472285456</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="8">
+        <f>C3/L3</f>
+        <v>8.78000000000001E-3</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5">
+        <f>F3-J3</f>
+        <v>0.99121999999999999</v>
+      </c>
+      <c r="G4" s="5">
+        <f>F4+J3</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <f>F4-J3</f>
+        <v>0.98243999999999998</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5">
+        <f>F3+J3</f>
+        <v>1.00878</v>
+      </c>
+      <c r="G5" s="5">
+        <f>F5-J3</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <f>F5+J3</f>
+        <v>1.01756</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:L5"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="1" max="9" width="14.83203125" style="1"/>
+    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <v>1.0579999999999901</v>
+      </c>
+      <c r="D3" s="5">
+        <v>111</v>
+      </c>
+      <c r="E3" s="6">
+        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
+        <v>16442.501575299462</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="8">
+        <f>C3/L3</f>
+        <v>1.05799999999999E-2</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5">
+        <f>F3-J3</f>
+        <v>0.98942000000000008</v>
+      </c>
+      <c r="G4" s="5">
+        <f>F4+J3</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <f>F4-J3</f>
+        <v>0.97884000000000015</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5">
+        <f>F3+J3</f>
+        <v>1.0105799999999998</v>
+      </c>
+      <c r="G5" s="5">
+        <f>F5-J3</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H5" s="5">
+        <f>F5+J3</f>
+        <v>1.0211599999999996</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:L5"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="1" max="9" width="14.83203125" style="1"/>
+    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <v>1.2970000000000099</v>
+      </c>
+      <c r="D3" s="5">
+        <v>111</v>
+      </c>
+      <c r="E3" s="6">
+        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
+        <v>13412.618864045131</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="8">
+        <f>C3/L3</f>
+        <v>1.29700000000001E-2</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5">
+        <f>F3-J3</f>
+        <v>0.98702999999999985</v>
+      </c>
+      <c r="G4" s="5">
+        <f>F4+J3</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <f>F4-J3</f>
+        <v>0.9740599999999997</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5">
+        <f>F3+J3</f>
+        <v>1.0129700000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <f>F5-J3</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <f>F5+J3</f>
+        <v>1.0259400000000003</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:L5"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="14.83203125" style="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
+    <col min="6" max="9" width="14.83203125" style="1"/>
+    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <v>1.59899999999999</v>
+      </c>
+      <c r="D3" s="5">
+        <v>82</v>
+      </c>
+      <c r="E3" s="6">
+        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
+        <v>14726.997818758768</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="8">
+        <f>C3/L3</f>
+        <v>1.59899999999999E-2</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5">
+        <f>F3-J3</f>
+        <v>0.98401000000000005</v>
+      </c>
+      <c r="G4" s="5">
+        <f>F4+J3</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <f>F4-J3</f>
+        <v>0.9680200000000001</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5">
+        <f>F3+J3</f>
+        <v>1.0159899999999999</v>
+      </c>
+      <c r="G5" s="5">
+        <f>F5-J3</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <f>F5+J3</f>
+        <v>1.0319799999999999</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:L5"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="1" max="9" width="14.83203125" style="1"/>
+    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <v>1.57499999999999</v>
+      </c>
+      <c r="D3" s="5">
+        <v>111</v>
+      </c>
+      <c r="E3" s="6">
+        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
+        <v>11045.185185185257</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="8">
+        <f>C3/L3</f>
+        <v>1.5749999999999899E-2</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5">
+        <f>F3-J3</f>
+        <v>0.98425000000000007</v>
+      </c>
+      <c r="G4" s="5">
+        <f>F4+J3</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <f>F4-J3</f>
+        <v>0.96850000000000014</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5">
+        <f>F3+J3</f>
+        <v>1.0157499999999999</v>
+      </c>
+      <c r="G5" s="5">
+        <f>F5-J3</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <f>F5+J3</f>
+        <v>1.0314999999999999</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:L5"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="1" max="9" width="14.83203125" style="1"/>
+    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <v>0.864999999999993</v>
+      </c>
+      <c r="D3" s="5">
+        <v>111</v>
+      </c>
+      <c r="E3" s="6">
+        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
+        <v>20111.175337187062</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="8">
+        <f>C3/L3</f>
+        <v>8.6499999999999303E-3</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5">
+        <f>F3-J3</f>
+        <v>0.99135000000000006</v>
+      </c>
+      <c r="G4" s="5">
+        <f>F4+J3</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <f>F4-J3</f>
+        <v>0.98270000000000013</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5">
+        <f>F3+J3</f>
+        <v>1.0086499999999998</v>
+      </c>
+      <c r="G5" s="5">
+        <f>F5-J3</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H5" s="5">
+        <f>F5+J3</f>
+        <v>1.0172999999999996</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:L5"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="14.83203125" style="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
+    <col min="6" max="9" width="14.83203125" style="1"/>
+    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <v>2.0329999999999901</v>
+      </c>
+      <c r="D3" s="5">
+        <v>82</v>
+      </c>
+      <c r="E3" s="6">
+        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
+        <v>11583.113385241139</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="8">
+        <f>C3/L3</f>
+        <v>2.03299999999999E-2</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5">
+        <f>F3-J3</f>
+        <v>0.97967000000000015</v>
+      </c>
+      <c r="G4" s="5">
+        <f>F4+J3</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <f>F4-J3</f>
+        <v>0.9593400000000003</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5">
+        <f>F3+J3</f>
+        <v>1.02033</v>
+      </c>
+      <c r="G5" s="5">
+        <f>F5-J3</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <f>F5+J3</f>
+        <v>1.0406599999999999</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:L5"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="1" max="9" width="14.83203125" style="1"/>
+    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <v>1.526</v>
+      </c>
+      <c r="D3" s="5">
+        <v>86</v>
+      </c>
+      <c r="E3" s="6">
+        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
+        <v>14713.756133987627</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="8">
+        <f>C3/L3</f>
+        <v>1.5260000000000001E-2</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5">
+        <f>F3-J3</f>
+        <v>0.98473999999999995</v>
+      </c>
+      <c r="G4" s="5">
+        <f>F4+J3</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <f>F4-J3</f>
+        <v>0.9694799999999999</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5">
+        <f>F3+J3</f>
+        <v>1.0152600000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <f>F5-J3</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <f>F5+J3</f>
+        <v>1.0305200000000001</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:L5"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="1" max="9" width="14.83203125" style="1"/>
+    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
+        <v>0.94900000000001095</v>
+      </c>
+      <c r="D3" s="5">
+        <v>112</v>
+      </c>
+      <c r="E3" s="6">
+        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
+        <v>18167.380136986092</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="8">
+        <f>C3/L3</f>
+        <v>9.4900000000001095E-3</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5">
+        <f>F3-J3</f>
+        <v>0.99050999999999989</v>
+      </c>
+      <c r="G4" s="5">
+        <f>F4+J3</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <f>F4-J3</f>
+        <v>0.98101999999999978</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5">
+        <f>F3+J3</f>
+        <v>1.00949</v>
+      </c>
+      <c r="G5" s="5">
+        <f>F5-J3</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H5" s="5">
+        <f>F5+J3</f>
+        <v>1.01898</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
@@ -1837,28 +3018,28 @@
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.878000000000001</v>
+        <v>1.0859999999999801</v>
       </c>
       <c r="D3" s="5">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>29323.834472285456</v>
+        <v>15875.546731123679</v>
       </c>
       <c r="F3" s="9">
-        <v>1.0961000000000001</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="J3" s="8">
         <f>C3/L3</f>
-        <v>8.78000000000001E-3</v>
+        <v>1.08599999999998E-2</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="7">
@@ -1867,7 +3048,7 @@
     </row>
     <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>31</v>
@@ -1877,22 +3058,22 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3-J3</f>
-        <v>1.0873200000000001</v>
+        <v>0.98914000000000024</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1.0961000000000001</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>1.0785400000000001</v>
+        <v>0.97828000000000048</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>32</v>
@@ -1902,419 +3083,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3+J3</f>
-        <v>1.1048800000000001</v>
+        <v>1.0108599999999999</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1.0961000000000001</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.1136600000000001</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-  </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:L5"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
-  <cols>
-    <col min="1" max="9" width="14.83203125" style="1"/>
-    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="20" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.0579999999999901</v>
-      </c>
-      <c r="D3" s="5">
-        <v>111</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>16442.501575299462</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.73960000000000004</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
-        <f>C3/L3</f>
-        <v>1.05799999999999E-2</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>0.72902000000000011</v>
-      </c>
-      <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>0.73960000000000004</v>
-      </c>
-      <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0.71844000000000019</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>0.75017999999999996</v>
-      </c>
-      <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>0.73960000000000004</v>
-      </c>
-      <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0.76075999999999988</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-  </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:L5"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
-  <cols>
-    <col min="1" max="9" width="14.83203125" style="1"/>
-    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="20" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.2970000000000099</v>
-      </c>
-      <c r="D3" s="5">
-        <v>111</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>13412.618864045131</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1.1568000000000001</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
-        <f>C3/L3</f>
-        <v>1.29700000000001E-2</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>1.1438299999999999</v>
-      </c>
-      <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>1.1568000000000001</v>
-      </c>
-      <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>1.1308599999999998</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.1697700000000002</v>
-      </c>
-      <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>1.1568000000000001</v>
-      </c>
-      <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>1.1827400000000003</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-  </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:L5"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="14.83203125" style="1"/>
-    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
-    <col min="6" max="9" width="14.83203125" style="1"/>
-    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="20" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.59899999999999</v>
-      </c>
-      <c r="D3" s="5">
-        <v>82</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>14726.997818758768</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1.5638000000000001</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
-        <f>C3/L3</f>
-        <v>1.59899999999999E-2</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>1.5478100000000001</v>
-      </c>
-      <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>1.5638000000000001</v>
-      </c>
-      <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>1.5318200000000002</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.57979</v>
-      </c>
-      <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>1.5638000000000001</v>
-      </c>
-      <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>1.59578</v>
+        <v>1.0217199999999997</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2322,812 +3099,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:L5"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
-  <cols>
-    <col min="1" max="9" width="14.83203125" style="1"/>
-    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="20" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.57499999999999</v>
-      </c>
-      <c r="D3" s="5">
-        <v>111</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>11045.185185185257</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1.3002</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
-        <f>C3/L3</f>
-        <v>1.5749999999999899E-2</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>1.2844500000000001</v>
-      </c>
-      <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>1.3002</v>
-      </c>
-      <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>1.2687000000000002</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.31595</v>
-      </c>
-      <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>1.3002</v>
-      </c>
-      <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>1.3316999999999999</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-  </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:L5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
-  <cols>
-    <col min="1" max="9" width="14.83203125" style="1"/>
-    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="20" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.864999999999993</v>
-      </c>
-      <c r="D3" s="5">
-        <v>111</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>20111.175337187062</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.67459999999999998</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
-        <f>C3/L3</f>
-        <v>8.6499999999999303E-3</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>0.66595000000000004</v>
-      </c>
-      <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>0.67459999999999998</v>
-      </c>
-      <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0.65730000000000011</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>0.68324999999999991</v>
-      </c>
-      <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>0.67459999999999998</v>
-      </c>
-      <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0.69189999999999985</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-  </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:L5"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="14.83203125" style="1"/>
-    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
-    <col min="6" max="9" width="14.83203125" style="1"/>
-    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="20" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>2.0329999999999901</v>
-      </c>
-      <c r="D3" s="5">
-        <v>82</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>11583.113385241139</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1.7578</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
-        <f>C3/L3</f>
-        <v>2.03299999999999E-2</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>1.7374700000000001</v>
-      </c>
-      <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>1.7578</v>
-      </c>
-      <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>1.7171400000000001</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.77813</v>
-      </c>
-      <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>1.7578</v>
-      </c>
-      <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>1.7984599999999999</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:L5"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
-  <cols>
-    <col min="1" max="9" width="14.83203125" style="1"/>
-    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="20" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.526</v>
-      </c>
-      <c r="D3" s="5">
-        <v>86</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>14713.756133987627</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1.2991999999999999</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
-        <f>C3/L3</f>
-        <v>1.5260000000000001E-2</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>1.2839399999999999</v>
-      </c>
-      <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>1.2991999999999999</v>
-      </c>
-      <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>1.2686799999999998</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.31446</v>
-      </c>
-      <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>1.2991999999999999</v>
-      </c>
-      <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>1.32972</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-  </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:L5"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
-  <cols>
-    <col min="1" max="9" width="14.83203125" style="1"/>
-    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="20" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.94900000000001095</v>
-      </c>
-      <c r="D3" s="5">
-        <v>112</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>18167.380136986092</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
-        <f>C3/L3</f>
-        <v>9.4900000000001095E-3</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>0.72550999999999988</v>
-      </c>
-      <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0.71601999999999977</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>0.7444900000000001</v>
-      </c>
-      <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0.75398000000000021</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-  </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:L5"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
-  <cols>
-    <col min="1" max="9" width="14.83203125" style="1"/>
-    <col min="10" max="12" width="10.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="20" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.0859999999999801</v>
-      </c>
-      <c r="D3" s="5">
-        <v>112</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>15875.546731123679</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1.1498999999999999</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
-        <f>C3/L3</f>
-        <v>1.08599999999998E-2</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>1.1390400000000001</v>
-      </c>
-      <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>1.1498999999999999</v>
-      </c>
-      <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>1.1281800000000002</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.1607599999999998</v>
-      </c>
-      <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>1.1498999999999999</v>
-      </c>
-      <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>1.1716199999999997</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-  </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3141,7 +3112,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3194,7 +3165,7 @@
         <v>13629.125494071362</v>
       </c>
       <c r="F3" s="9">
-        <v>1.2925</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -3219,15 +3190,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3-J3</f>
-        <v>1.2798500000000002</v>
+        <v>0.98735000000000017</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1.2925</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>1.2672000000000003</v>
+        <v>0.97470000000000034</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3244,24 +3215,22 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3+J3</f>
-        <v>1.3051499999999998</v>
+        <v>1.0126499999999998</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1.2925</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.3177999999999996</v>
+        <v>1.0252999999999997</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3275,7 +3244,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3328,7 +3297,7 @@
         <v>19481.179378531029</v>
       </c>
       <c r="F3" s="9">
-        <v>0.99399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -3353,15 +3322,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3-J3</f>
-        <v>0.98514999999999997</v>
+        <v>0.99114999999999998</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>0.99399999999999999</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.97629999999999995</v>
+        <v>0.98229999999999995</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3378,24 +3347,22 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3+J3</f>
-        <v>1.00285</v>
+        <v>1.00885</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>0.99399999999999999</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.0117</v>
+        <v>1.0177</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3409,7 +3376,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3462,7 +3429,7 @@
         <v>16102.860359421258</v>
       </c>
       <c r="F3" s="9">
-        <v>0.88959999999999995</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -3487,15 +3454,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3-J3</f>
-        <v>0.88132999999999995</v>
+        <v>0.99173</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>0.88959999999999995</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.87305999999999995</v>
+        <v>0.98346</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3512,24 +3479,22 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3+J3</f>
-        <v>0.89786999999999995</v>
+        <v>1.00827</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>0.88959999999999995</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>0.90613999999999995</v>
+        <v>1.01654</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="-80" windowWidth="31180" windowHeight="21140" tabRatio="742"/>
+    <workbookView xWindow="500" yWindow="-80" windowWidth="31180" windowHeight="21140" tabRatio="742" firstSheet="1" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -660,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -842,7 +842,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A6:H25">
     <sortCondition descending="1" ref="C7:C25"/>
   </sortState>
@@ -861,7 +860,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -914,7 +913,7 @@
         <v>14442.591623036649</v>
       </c>
       <c r="F3" s="9">
-        <v>100</v>
+        <v>82.3</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -938,16 +937,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>98.662999999999997</v>
+        <f>F3+J3</f>
+        <v>83.637</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>100</v>
+        <v>84.974000000000004</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>97.325999999999993</v>
+        <v>82.3</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -963,23 +962,25 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>101.337</v>
+        <f>F3-J3</f>
+        <v>80.962999999999994</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>100</v>
+        <v>79.625999999999991</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>102.67400000000001</v>
+        <v>82.3</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -993,7 +994,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1046,7 +1047,7 @@
         <v>14292.927461140001</v>
       </c>
       <c r="F3" s="9">
-        <v>100</v>
+        <v>85.6</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1070,16 +1071,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>98.649000000000015</v>
+        <f>F3+J3</f>
+        <v>86.950999999999979</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>100</v>
+        <v>88.301999999999964</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>97.29800000000003</v>
+        <v>85.6</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1095,23 +1096,25 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>101.35099999999998</v>
+        <f>F3-J3</f>
+        <v>84.249000000000009</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>100</v>
+        <v>82.898000000000025</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>102.70199999999997</v>
+        <v>85.6</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1125,7 +1128,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1178,7 +1181,7 @@
         <v>17179.488434163701</v>
       </c>
       <c r="F3" s="9">
-        <v>100</v>
+        <v>111.9</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1202,16 +1205,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>98.876000000000005</v>
+        <f>F3+J3</f>
+        <v>113.024</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>100</v>
+        <v>114.148</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>97.75200000000001</v>
+        <v>111.9</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1227,23 +1230,25 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>101.124</v>
+        <f>F3-J3</f>
+        <v>110.77600000000001</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>100</v>
+        <v>109.65200000000002</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>102.24799999999999</v>
+        <v>111.9</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1257,7 +1262,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1310,7 +1315,7 @@
         <v>10364.865807836877</v>
       </c>
       <c r="F3" s="9">
-        <v>100</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1334,16 +1339,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>98.137000000000015</v>
+        <f>F3+J3</f>
+        <v>130.56299999999999</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>100</v>
+        <v>132.42599999999999</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>96.274000000000029</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1359,23 +1364,25 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>101.86299999999999</v>
+        <f>F3-J3</f>
+        <v>126.837</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>100</v>
+        <v>124.97400000000002</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>103.72599999999997</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1389,7 +1396,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1442,7 +1449,7 @@
         <v>10569.099616858295</v>
       </c>
       <c r="F3" s="9">
-        <v>100</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1466,16 +1473,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>98.173000000000016</v>
+        <f>F3+J3</f>
+        <v>146.52699999999999</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>100</v>
+        <v>148.35399999999998</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>96.346000000000032</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1491,23 +1498,25 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>101.82699999999998</v>
+        <f>F3-J3</f>
+        <v>142.87299999999999</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>100</v>
+        <v>141.04599999999999</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>103.65399999999997</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1521,7 +1530,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1574,7 +1583,7 @@
         <v>16968.141476274166</v>
       </c>
       <c r="F3" s="9">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1598,16 +1607,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>98.861999999999995</v>
+        <f>F3+J3</f>
+        <v>76.138000000000005</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>100</v>
+        <v>77.27600000000001</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>97.72399999999999</v>
+        <v>75</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1623,23 +1632,25 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>101.13800000000001</v>
+        <f>F3-J3</f>
+        <v>73.861999999999995</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>100</v>
+        <v>72.72399999999999</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>102.27600000000001</v>
+        <v>75</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1653,7 +1664,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1706,7 +1717,7 @@
         <v>15840.643970467725</v>
       </c>
       <c r="F3" s="9">
-        <v>100</v>
+        <v>111.3</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1730,16 +1741,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>98.781000000000006</v>
+        <f>F3+J3</f>
+        <v>112.51899999999999</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>100</v>
+        <v>113.73799999999999</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>97.562000000000012</v>
+        <v>111.3</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1755,23 +1766,25 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>101.21899999999999</v>
+        <f>F3-J3</f>
+        <v>110.081</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>100</v>
+        <v>108.86200000000001</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>102.43799999999999</v>
+        <v>111.3</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1785,7 +1798,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1838,7 +1851,7 @@
         <v>29323.834472285456</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1862,16 +1875,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>0.99121999999999999</v>
+        <f>F3+J3</f>
+        <v>1.1047800000000001</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1</v>
+        <v>1.1135600000000001</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.98243999999999998</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1887,23 +1900,25 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.00878</v>
+        <f>F3-J3</f>
+        <v>1.0872200000000001</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1</v>
+        <v>1.0784400000000001</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.01756</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1917,7 +1932,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1970,7 +1985,7 @@
         <v>16442.501575299462</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1994,16 +2009,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>0.98942000000000008</v>
+        <f>F3+J3</f>
+        <v>0.75057999999999991</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1</v>
+        <v>0.76115999999999984</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.97884000000000015</v>
+        <v>0.74</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2019,23 +2034,25 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.0105799999999998</v>
+        <f>F3-J3</f>
+        <v>0.72942000000000007</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>0.99999999999999989</v>
+        <v>0.71884000000000015</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.0211599999999996</v>
+        <v>0.74</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2049,7 +2066,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2102,7 +2119,7 @@
         <v>13412.618864045131</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>1.1559999999999999</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2126,16 +2143,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>0.98702999999999985</v>
+        <f>F3+J3</f>
+        <v>1.1689700000000001</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1</v>
+        <v>1.1819400000000002</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.9740599999999997</v>
+        <v>1.1559999999999999</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2151,23 +2168,25 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.0129700000000001</v>
+        <f>F3-J3</f>
+        <v>1.1430299999999998</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1</v>
+        <v>1.1300599999999996</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.0259400000000003</v>
+        <v>1.1559999999999999</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2181,7 +2200,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2229,14 +2248,14 @@
         <v>1.59899999999999</v>
       </c>
       <c r="D3" s="5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>14726.997818758768</v>
+        <v>14549.564110099025</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>1.5629999999999999</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2260,16 +2279,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>0.98401000000000005</v>
+        <f>F3+J3</f>
+        <v>1.5789899999999999</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1</v>
+        <v>1.5949799999999998</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.9680200000000001</v>
+        <v>1.5629999999999999</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2285,24 +2304,24 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.0159899999999999</v>
+        <f>F3-J3</f>
+        <v>1.54701</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1</v>
+        <v>1.53102</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.0319799999999999</v>
+        <v>1.5629999999999999</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2316,7 +2335,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2369,7 +2388,7 @@
         <v>11045.185185185257</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2393,16 +2412,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>0.98425000000000007</v>
+        <f>F3+J3</f>
+        <v>1.31575</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1</v>
+        <v>1.3314999999999999</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.96850000000000014</v>
+        <v>1.3</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2418,23 +2437,25 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.0157499999999999</v>
+        <f>F3-J3</f>
+        <v>1.2842500000000001</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1</v>
+        <v>1.2685000000000002</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.0314999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2447,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2501,7 +2522,7 @@
         <v>20111.175337187062</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2525,16 +2546,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>0.99135000000000006</v>
+        <f>F3+J3</f>
+        <v>0.68364999999999998</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1</v>
+        <v>0.69229999999999992</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.98270000000000013</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2550,23 +2571,25 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.0086499999999998</v>
+        <f>F3-J3</f>
+        <v>0.66635000000000011</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>0.99999999999999989</v>
+        <v>0.65770000000000017</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.0172999999999996</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2580,7 +2603,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2628,14 +2651,14 @@
         <v>2.0329999999999901</v>
       </c>
       <c r="D3" s="5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>11583.113385241139</v>
+        <v>11443.557802286428</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>1.758</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2659,16 +2682,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>0.97967000000000015</v>
+        <f>F3+J3</f>
+        <v>1.77833</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1</v>
+        <v>1.7986599999999999</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.9593400000000003</v>
+        <v>1.758</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2684,24 +2707,24 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.02033</v>
+        <f>F3-J3</f>
+        <v>1.73767</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1</v>
+        <v>1.7173400000000001</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.0406599999999999</v>
+        <v>1.758</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2715,7 +2738,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2768,7 +2791,7 @@
         <v>14713.756133987627</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2792,16 +2815,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>0.98473999999999995</v>
+        <f>F3+J3</f>
+        <v>1.31426</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1</v>
+        <v>1.32952</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.9694799999999999</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2817,24 +2840,24 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.0152600000000001</v>
+        <f>F3-J3</f>
+        <v>1.2837399999999999</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1</v>
+        <v>1.2684799999999998</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.0305200000000001</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2848,7 +2871,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2901,7 +2924,7 @@
         <v>18167.380136986092</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2925,16 +2948,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>0.99050999999999989</v>
+        <f>F3+J3</f>
+        <v>0.7444900000000001</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1</v>
+        <v>0.75398000000000021</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.98101999999999978</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2950,16 +2973,16 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.00949</v>
+        <f>F3-J3</f>
+        <v>0.72550999999999988</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>0.99999999999999989</v>
+        <v>0.71601999999999977</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.01898</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2967,6 +2990,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2980,7 +3004,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3033,7 +3057,7 @@
         <v>15875.546731123679</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -3057,16 +3081,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>0.98914000000000024</v>
+        <f>F3+J3</f>
+        <v>1.1608599999999998</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1</v>
+        <v>1.1717199999999997</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.97828000000000048</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3082,23 +3106,25 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.0108599999999999</v>
+        <f>F3-J3</f>
+        <v>1.13914</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1</v>
+        <v>1.1282800000000002</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.0217199999999997</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3112,7 +3138,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3165,7 +3191,7 @@
         <v>13629.125494071362</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>1.2929999999999999</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -3189,16 +3215,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>0.98735000000000017</v>
+        <f>F3+J3</f>
+        <v>1.3056499999999998</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1</v>
+        <v>1.3182999999999996</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.97470000000000034</v>
+        <v>1.2929999999999999</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3214,23 +3240,25 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.0126499999999998</v>
+        <f>F3-J3</f>
+        <v>1.2803500000000001</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1</v>
+        <v>1.2677000000000003</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.0252999999999997</v>
+        <v>1.2929999999999999</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3244,7 +3272,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3297,7 +3325,7 @@
         <v>19481.179378531029</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -3321,16 +3349,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>0.99114999999999998</v>
+        <f>F3+J3</f>
+        <v>1.00285</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1</v>
+        <v>1.0117</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.98229999999999995</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3346,23 +3374,25 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.00885</v>
+        <f>F3-J3</f>
+        <v>0.98514999999999997</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1</v>
+        <v>0.97629999999999995</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.0177</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3376,7 +3406,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3422,14 +3452,14 @@
         <v>0.82699999999999996</v>
       </c>
       <c r="D3" s="5">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>16102.860359421258</v>
+        <v>16214.685778583902</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -3453,16 +3483,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5">
-        <f>F3-J3</f>
-        <v>0.99173</v>
+        <f>F3+J3</f>
+        <v>0.89727000000000001</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1</v>
+        <v>0.90554000000000001</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.98346</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3478,23 +3508,25 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="5">
-        <f>F3+J3</f>
-        <v>1.00827</v>
+        <f>F3-J3</f>
+        <v>0.88073000000000001</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1</v>
+        <v>0.87246000000000001</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.01654</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="-80" windowWidth="31180" windowHeight="21140" tabRatio="742" firstSheet="1" activeTab="20"/>
+    <workbookView xWindow="1600" yWindow="-80" windowWidth="26480" windowHeight="21140" tabRatio="742" firstSheet="5" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="58">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
@@ -226,6 +226,30 @@
   </si>
   <si>
     <t>NZDUSD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AUD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GBP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NZD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USD</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -658,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -669,7 +693,7 @@
     <col min="1" max="16384" width="14.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1">
+    <row r="1" spans="1:9" ht="24" customHeight="1">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -682,8 +706,14 @@
       <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1">
+      <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -696,40 +726,70 @@
       <c r="F2" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1">
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3">
         <v>1.2970000000000099</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1">
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
         <v>1.82699999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1">
+      <c r="H4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5">
         <v>1.57499999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1">
+      <c r="H5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
         <v>1.35099999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1">
+      <c r="H6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -737,7 +797,7 @@
         <v>1.526</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1">
+    <row r="8" spans="1:9" ht="24" customHeight="1">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -745,7 +805,7 @@
         <v>1.337</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1">
+    <row r="9" spans="1:9" ht="24" customHeight="1">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -753,7 +813,7 @@
         <v>1.0579999999999901</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1">
+    <row r="10" spans="1:9" ht="24" customHeight="1">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -761,7 +821,7 @@
         <v>0.88500000000000201</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1">
+    <row r="11" spans="1:9" ht="24" customHeight="1">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -769,7 +829,7 @@
         <v>0.864999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1">
+    <row r="12" spans="1:9" ht="24" customHeight="1">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -777,7 +837,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1">
+    <row r="13" spans="1:9" ht="24" customHeight="1">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -785,7 +845,7 @@
         <v>1.1379999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1">
+    <row r="14" spans="1:9" ht="24" customHeight="1">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -793,7 +853,7 @@
         <v>1.1240000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1">
+    <row r="15" spans="1:9" ht="24" customHeight="1">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -801,7 +861,7 @@
         <v>1.0859999999999801</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1">
+    <row r="16" spans="1:9" ht="24" customHeight="1">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -860,7 +920,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -913,7 +973,7 @@
         <v>14442.591623036649</v>
       </c>
       <c r="F3" s="9">
-        <v>82.3</v>
+        <v>80.959800000000001</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -938,15 +998,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>83.637</v>
+        <v>82.296800000000005</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>84.974000000000004</v>
+        <v>83.633800000000008</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>82.3</v>
+        <v>80.959800000000001</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -963,21 +1023,20 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>80.962999999999994</v>
+        <v>79.622799999999998</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>79.625999999999991</v>
+        <v>78.285799999999995</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>82.3</v>
+        <v>80.959800000000001</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -994,7 +1053,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1047,7 +1106,7 @@
         <v>14292.927461140001</v>
       </c>
       <c r="F3" s="9">
-        <v>85.6</v>
+        <v>84.248500000000007</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1072,15 +1131,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>86.950999999999979</v>
+        <v>85.599499999999992</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>88.301999999999964</v>
+        <v>86.950499999999977</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>85.6</v>
+        <v>84.248500000000007</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1097,21 +1156,20 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>84.249000000000009</v>
+        <v>82.897500000000022</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>82.898000000000025</v>
+        <v>81.546500000000037</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>85.6</v>
+        <v>84.248500000000007</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1245,10 +1303,8 @@
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1262,7 +1318,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1315,7 +1371,7 @@
         <v>10364.865807836877</v>
       </c>
       <c r="F3" s="9">
-        <v>128.69999999999999</v>
+        <v>126.837</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1340,15 +1396,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>130.56299999999999</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>132.42599999999999</v>
+        <v>130.56299999999999</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>128.69999999999999</v>
+        <v>126.837</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1365,21 +1421,20 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>126.837</v>
+        <v>124.97400000000002</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>124.97400000000002</v>
+        <v>123.11100000000003</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>128.69999999999999</v>
+        <v>126.837</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1513,10 +1568,8 @@
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1530,7 +1583,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1583,7 +1636,7 @@
         <v>16968.141476274166</v>
       </c>
       <c r="F3" s="9">
-        <v>75</v>
+        <v>73.861500000000007</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1608,15 +1661,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>76.138000000000005</v>
+        <v>74.999500000000012</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>77.27600000000001</v>
+        <v>76.137500000000017</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>75</v>
+        <v>73.861500000000007</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1633,21 +1686,20 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>73.861999999999995</v>
+        <v>72.723500000000001</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>72.72399999999999</v>
+        <v>71.585499999999996</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>75</v>
+        <v>73.861500000000007</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1781,10 +1833,8 @@
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1798,7 +1848,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1844,11 +1894,12 @@
         <v>0.878000000000001</v>
       </c>
       <c r="D3" s="5">
-        <v>75</v>
+        <f>master!$I$5</f>
+        <v>73</v>
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>29323.834472285456</v>
+        <v>30127.227197553551</v>
       </c>
       <c r="F3" s="9">
         <v>1.0960000000000001</v>
@@ -1932,7 +1983,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B3" sqref="B3:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1978,6 +2029,7 @@
         <v>1.0579999999999901</v>
       </c>
       <c r="D3" s="5">
+        <f>master!$I$6</f>
         <v>111</v>
       </c>
       <c r="E3" s="6">
@@ -1985,7 +2037,7 @@
         <v>16442.501575299462</v>
       </c>
       <c r="F3" s="9">
-        <v>0.74</v>
+        <v>0.72938899999999995</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2010,15 +2062,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>0.75057999999999991</v>
+        <v>0.73996899999999988</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>0.76115999999999984</v>
+        <v>0.7505489999999998</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.74</v>
+        <v>0.72938899999999995</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2035,15 +2087,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>0.72942000000000007</v>
+        <v>0.71880900000000003</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>0.71884000000000015</v>
+        <v>0.70822900000000011</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>0.74</v>
+        <v>0.72938899999999995</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2066,7 +2118,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B3" sqref="B3:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2112,6 +2164,7 @@
         <v>1.2970000000000099</v>
       </c>
       <c r="D3" s="5">
+        <f>master!$I$6</f>
         <v>111</v>
       </c>
       <c r="E3" s="6">
@@ -2119,7 +2172,7 @@
         <v>13412.618864045131</v>
       </c>
       <c r="F3" s="9">
-        <v>1.1559999999999999</v>
+        <v>0.72938899999999995</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2144,15 +2197,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>1.1689700000000001</v>
+        <v>0.7423590000000001</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1.1819400000000002</v>
+        <v>0.75532900000000025</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>1.1559999999999999</v>
+        <v>0.72938899999999995</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2169,15 +2222,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>1.1430299999999998</v>
+        <v>0.71641899999999981</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1.1300599999999996</v>
+        <v>0.70344899999999966</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.1559999999999999</v>
+        <v>0.72938899999999995</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2200,7 +2253,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2248,11 +2301,12 @@
         <v>1.59899999999999</v>
       </c>
       <c r="D3" s="5">
-        <v>83</v>
+        <f>master!$I$1</f>
+        <v>81</v>
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>14549.564110099025</v>
+        <v>14908.812606644677</v>
       </c>
       <c r="F3" s="9">
         <v>1.5629999999999999</v>
@@ -2335,7 +2389,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B3" sqref="B3:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2381,6 +2435,7 @@
         <v>1.57499999999999</v>
       </c>
       <c r="D3" s="5">
+        <f>master!$I$6</f>
         <v>111</v>
       </c>
       <c r="E3" s="6">
@@ -2388,7 +2443,7 @@
         <v>11045.185185185257</v>
       </c>
       <c r="F3" s="9">
-        <v>1.3</v>
+        <v>0.72938899999999995</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2413,15 +2468,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>1.31575</v>
+        <v>0.74513899999999988</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1.3314999999999999</v>
+        <v>0.76088899999999982</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>1.3</v>
+        <v>0.72938899999999995</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2438,15 +2493,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>1.2842500000000001</v>
+        <v>0.71363900000000002</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1.2685000000000002</v>
+        <v>0.69788900000000009</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.3</v>
+        <v>0.72938899999999995</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2469,7 +2524,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2515,6 +2570,7 @@
         <v>0.864999999999993</v>
       </c>
       <c r="D3" s="5">
+        <f>master!$I$6</f>
         <v>111</v>
       </c>
       <c r="E3" s="6">
@@ -2522,7 +2578,7 @@
         <v>20111.175337187062</v>
       </c>
       <c r="F3" s="9">
-        <v>0.67500000000000004</v>
+        <v>0.72938899999999995</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2547,15 +2603,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>0.68364999999999998</v>
+        <v>0.73803899999999989</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>0.69229999999999992</v>
+        <v>0.74668899999999983</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.67500000000000004</v>
+        <v>0.72938899999999995</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2572,15 +2628,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>0.66635000000000011</v>
+        <v>0.72073900000000002</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>0.65770000000000017</v>
+        <v>0.71208900000000008</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>0.67500000000000004</v>
+        <v>0.72938899999999995</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2603,7 +2659,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2651,14 +2707,15 @@
         <v>2.0329999999999901</v>
       </c>
       <c r="D3" s="5">
-        <v>83</v>
+        <f>master!$I$1</f>
+        <v>81</v>
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>11443.557802286428</v>
+        <v>11726.114785058931</v>
       </c>
       <c r="F3" s="9">
-        <v>1.758</v>
+        <v>1.7376579999999999</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2683,15 +2740,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>1.77833</v>
+        <v>1.7579879999999999</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1.7986599999999999</v>
+        <v>1.7783179999999998</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>1.758</v>
+        <v>1.7376579999999999</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2708,15 +2765,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>1.73767</v>
+        <v>1.717328</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1.7173400000000001</v>
+        <v>1.696998</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.758</v>
+        <v>1.7376579999999999</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2738,7 +2795,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2784,14 +2841,15 @@
         <v>1.526</v>
       </c>
       <c r="D3" s="5">
-        <v>86</v>
+        <f>master!$I$2</f>
+        <v>85</v>
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>14713.756133987627</v>
+        <v>14886.859147328658</v>
       </c>
       <c r="F3" s="9">
-        <v>1.2989999999999999</v>
+        <v>1.31426</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2816,15 +2874,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>1.31426</v>
+        <v>1.32952</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1.32952</v>
+        <v>1.3447800000000001</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>1.2989999999999999</v>
+        <v>1.31426</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2841,15 +2899,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>1.2837399999999999</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1.2684799999999998</v>
+        <v>1.2837399999999999</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.2989999999999999</v>
+        <v>1.31426</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2871,7 +2929,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2917,14 +2975,15 @@
         <v>0.94900000000001095</v>
       </c>
       <c r="D3" s="5">
-        <v>112</v>
+        <f>master!$I$3</f>
+        <v>111</v>
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>18167.380136986092</v>
+        <v>18331.050228310291</v>
       </c>
       <c r="F3" s="9">
-        <v>0.73499999999999999</v>
+        <v>0.72550700000000001</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2949,15 +3008,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>0.7444900000000001</v>
+        <v>0.73499700000000012</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>0.75398000000000021</v>
+        <v>0.74448700000000023</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.73499999999999999</v>
+        <v>0.72550700000000001</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2974,15 +3033,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>0.72550999999999988</v>
+        <v>0.7160169999999999</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>0.71601999999999977</v>
+        <v>0.70652699999999979</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>0.73499999999999999</v>
+        <v>0.72550700000000001</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -3004,7 +3063,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3050,14 +3109,15 @@
         <v>1.0859999999999801</v>
       </c>
       <c r="D3" s="5">
-        <v>112</v>
+        <f>master!$I$3</f>
+        <v>111</v>
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>15875.546731123679</v>
+        <v>16018.569674647319</v>
       </c>
       <c r="F3" s="9">
-        <v>1.1499999999999999</v>
+        <v>1.13913</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -3082,15 +3142,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>1.1608599999999998</v>
+        <v>1.1499899999999998</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1.1717199999999997</v>
+        <v>1.1608499999999997</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>1.1499999999999999</v>
+        <v>1.13913</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3107,21 +3167,20 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>1.13914</v>
+        <v>1.1282700000000001</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1.1282800000000002</v>
+        <v>1.1174100000000002</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.1499999999999999</v>
+        <v>1.13913</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3138,7 +3197,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3184,11 +3243,12 @@
         <v>1.2649999999999799</v>
       </c>
       <c r="D3" s="5">
-        <v>112</v>
+        <f>master!$I$3</f>
+        <v>111</v>
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>13629.125494071362</v>
+        <v>13751.910408432364</v>
       </c>
       <c r="F3" s="9">
         <v>1.2929999999999999</v>
@@ -3255,10 +3315,8 @@
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3272,7 +3330,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3318,11 +3376,12 @@
         <v>0.88500000000000201</v>
       </c>
       <c r="D3" s="5">
-        <v>112</v>
+        <f>master!$I$3</f>
+        <v>111</v>
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>19481.179378531029</v>
+        <v>19656.685499058334</v>
       </c>
       <c r="F3" s="9">
         <v>0.99399999999999999</v>
@@ -3389,7 +3448,6 @@
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3406,7 +3464,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3452,14 +3510,15 @@
         <v>0.82699999999999996</v>
       </c>
       <c r="D3" s="5">
-        <v>144</v>
+        <f>master!$I$4</f>
+        <v>142</v>
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>16214.685778583902</v>
+        <v>16443.061634620295</v>
       </c>
       <c r="F3" s="9">
-        <v>0.88900000000000001</v>
+        <v>0.89736099999999996</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -3484,15 +3543,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>0.89727000000000001</v>
+        <v>0.90563099999999996</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>0.90554000000000001</v>
+        <v>0.91390099999999996</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.88900000000000001</v>
+        <v>0.89736099999999996</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3509,21 +3568,20 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>0.88073000000000001</v>
+        <v>0.88909099999999996</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>0.87246000000000001</v>
+        <v>0.88082099999999997</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>0.88900000000000001</v>
+        <v>0.89736099999999996</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="-80" windowWidth="26480" windowHeight="21140" tabRatio="742" firstSheet="5" activeTab="20"/>
+    <workbookView xWindow="340" yWindow="-80" windowWidth="26480" windowHeight="21140" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -718,7 +718,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>1.86299999999999</v>
+        <v>2.1039999999999899</v>
       </c>
       <c r="D2" s="4">
         <v>3861949</v>
@@ -738,7 +738,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>1.2970000000000099</v>
+        <v>1.31499999999999</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>54</v>
@@ -752,7 +752,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>1.82699999999999</v>
+        <v>1.80699999999998</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>55</v>
@@ -766,7 +766,7 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>1.57499999999999</v>
+        <v>1.4790000000000001</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>56</v>
@@ -780,7 +780,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.35099999999999</v>
+        <v>1.325</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>57</v>
@@ -802,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1.337</v>
+        <v>1.367</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1">
@@ -826,7 +826,7 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>0.864999999999993</v>
+        <v>0.91599999999999404</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1">
@@ -834,7 +834,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.82699999999999996</v>
+        <v>0.78099999999999803</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1">
@@ -858,7 +858,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1.0859999999999801</v>
+        <v>1.1040000000000101</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1">
@@ -866,7 +866,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>1.2649999999999799</v>
+        <v>1.224</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="24" customHeight="1">
@@ -882,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>0.878000000000001</v>
+        <v>0.90600000000000602</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" customHeight="1">
@@ -898,7 +898,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2.0329999999999901</v>
+        <v>2.0139999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -963,23 +963,23 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.337</v>
+        <v>1.367</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>14442.591623036649</v>
+        <v>14125.636430138991</v>
       </c>
       <c r="F3" s="9">
-        <v>80.959800000000001</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="J3" s="8">
         <f>C3/L3</f>
-        <v>1.337</v>
+        <v>1.367</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="7">
@@ -998,15 +998,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>82.296800000000005</v>
+        <v>1.367</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>83.633800000000008</v>
+        <v>2.734</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>80.959800000000001</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1023,23 +1023,23 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>79.622799999999998</v>
+        <v>-1.367</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>78.285799999999995</v>
+        <v>-2.734</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>80.959800000000001</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1096,23 +1096,23 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.35099999999999</v>
+        <v>1.325</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>14292.927461140001</v>
+        <v>14573.39245283019</v>
       </c>
       <c r="F3" s="9">
-        <v>84.248500000000007</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="J3" s="8">
         <f>C3/L3</f>
-        <v>1.35099999999999</v>
+        <v>1.325</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="7">
@@ -1131,15 +1131,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>85.599499999999992</v>
+        <v>1.325</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>86.950499999999977</v>
+        <v>2.65</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>84.248500000000007</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1156,23 +1156,23 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>82.897500000000022</v>
+        <v>-1.325</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>81.546500000000037</v>
+        <v>-2.65</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>84.248500000000007</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1186,7 +1186,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1239,7 +1239,7 @@
         <v>17179.488434163701</v>
       </c>
       <c r="F3" s="9">
-        <v>111.9</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1264,15 +1264,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>113.024</v>
+        <v>1.1240000000000001</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>114.148</v>
+        <v>2.2480000000000002</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>111.9</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1289,20 +1289,21 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>110.77600000000001</v>
+        <v>-1.1240000000000001</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>109.65200000000002</v>
+        <v>-2.2480000000000002</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>111.9</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1318,7 +1319,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1361,23 +1362,23 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.86299999999999</v>
+        <v>2.1039999999999899</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>10364.865807836877</v>
+        <v>9177.6354562738088</v>
       </c>
       <c r="F3" s="9">
-        <v>126.837</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="J3" s="8">
         <f>C3/L3</f>
-        <v>1.86299999999999</v>
+        <v>2.1039999999999899</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="7">
@@ -1396,15 +1397,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>128.69999999999999</v>
+        <v>2.1039999999999899</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>130.56299999999999</v>
+        <v>4.2079999999999798</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>126.837</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1421,23 +1422,23 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>124.97400000000002</v>
+        <v>-2.1039999999999899</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>123.11100000000003</v>
+        <v>-4.2079999999999798</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>126.837</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1451,7 +1452,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1494,23 +1495,23 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.82699999999999</v>
+        <v>1.80699999999998</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>10569.099616858295</v>
+        <v>10686.079136690767</v>
       </c>
       <c r="F3" s="9">
-        <v>144.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="J3" s="8">
         <f>C3/L3</f>
-        <v>1.82699999999999</v>
+        <v>1.80699999999998</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="7">
@@ -1529,15 +1530,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>146.52699999999999</v>
+        <v>1.80699999999998</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>148.35399999999998</v>
+        <v>3.6139999999999599</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>144.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1554,20 +1555,21 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>142.87299999999999</v>
+        <v>-1.80699999999998</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>141.04599999999999</v>
+        <v>-3.6139999999999599</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>144.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1636,7 +1638,7 @@
         <v>16968.141476274166</v>
       </c>
       <c r="F3" s="9">
-        <v>73.861500000000007</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1661,15 +1663,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>74.999500000000012</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>76.137500000000017</v>
+        <v>2.2759999999999998</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>73.861500000000007</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1686,23 +1688,23 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>72.723500000000001</v>
+        <v>-1.1379999999999999</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>71.585499999999996</v>
+        <v>-2.2759999999999998</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>73.861500000000007</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1716,7 +1718,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1769,7 +1771,7 @@
         <v>15840.643970467725</v>
       </c>
       <c r="F3" s="9">
-        <v>111.3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1794,15 +1796,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>112.51899999999999</v>
+        <v>1.2189999999999901</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>113.73799999999999</v>
+        <v>2.4379999999999802</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>111.3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1819,20 +1821,21 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>110.081</v>
+        <v>-1.2189999999999901</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>108.86200000000001</v>
+        <v>-2.4379999999999802</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>111.3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1848,7 +1851,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1891,7 +1894,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.878000000000001</v>
+        <v>0.90600000000000602</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$5</f>
@@ -1899,16 +1902,16 @@
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>30127.227197553551</v>
+        <v>29196.142913302294</v>
       </c>
       <c r="F3" s="9">
-        <v>1.0960000000000001</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="J3" s="8">
         <f>C3/L3</f>
-        <v>8.78000000000001E-3</v>
+        <v>9.0600000000000611E-3</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="7">
@@ -1927,15 +1930,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>1.1047800000000001</v>
+        <v>9.0600000000000611E-3</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1.1135600000000001</v>
+        <v>1.8120000000000122E-2</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>1.0960000000000001</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1952,15 +1955,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>1.0872200000000001</v>
+        <v>-9.0600000000000611E-3</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1.0784400000000001</v>
+        <v>-1.8120000000000122E-2</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.0960000000000001</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1969,7 +1972,6 @@
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1983,7 +1985,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:L5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2037,7 +2039,7 @@
         <v>16442.501575299462</v>
       </c>
       <c r="F3" s="9">
-        <v>0.72938899999999995</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2062,15 +2064,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>0.73996899999999988</v>
+        <v>1.05799999999999E-2</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>0.7505489999999998</v>
+        <v>2.11599999999998E-2</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.72938899999999995</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2087,15 +2089,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>0.71880900000000003</v>
+        <v>-1.05799999999999E-2</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>0.70822900000000011</v>
+        <v>-2.11599999999998E-2</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>0.72938899999999995</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2104,7 +2106,6 @@
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2118,7 +2119,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:L5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2161,7 +2162,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.2970000000000099</v>
+        <v>1.31499999999999</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$6</f>
@@ -2169,16 +2170,16 @@
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>13412.618864045131</v>
+        <v>13229.024081115436</v>
       </c>
       <c r="F3" s="9">
-        <v>0.72938899999999995</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="J3" s="8">
         <f>C3/L3</f>
-        <v>1.29700000000001E-2</v>
+        <v>1.31499999999999E-2</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="7">
@@ -2197,15 +2198,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>0.7423590000000001</v>
+        <v>1.31499999999999E-2</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>0.75532900000000025</v>
+        <v>2.6299999999999799E-2</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.72938899999999995</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2222,15 +2223,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>0.71641899999999981</v>
+        <v>-1.31499999999999E-2</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>0.70344899999999966</v>
+        <v>-2.6299999999999799E-2</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>0.72938899999999995</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2239,7 +2240,6 @@
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2253,7 +2253,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2309,7 +2309,7 @@
         <v>14908.812606644677</v>
       </c>
       <c r="F3" s="9">
-        <v>1.5629999999999999</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2334,15 +2334,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>1.5789899999999999</v>
+        <v>1.59899999999999E-2</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1.5949799999999998</v>
+        <v>3.19799999999998E-2</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>1.5629999999999999</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2359,15 +2359,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>1.54701</v>
+        <v>-1.59899999999999E-2</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1.53102</v>
+        <v>-3.19799999999998E-2</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.5629999999999999</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2389,7 +2389,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:L5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2432,7 +2432,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.57499999999999</v>
+        <v>1.4790000000000001</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$6</f>
@@ -2440,16 +2440,16 @@
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>11045.185185185257</v>
+        <v>11762.114041018707</v>
       </c>
       <c r="F3" s="9">
-        <v>0.72938899999999995</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="J3" s="8">
         <f>C3/L3</f>
-        <v>1.5749999999999899E-2</v>
+        <v>1.4790000000000001E-2</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="7">
@@ -2468,15 +2468,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>0.74513899999999988</v>
+        <v>1.4790000000000001E-2</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>0.76088899999999982</v>
+        <v>2.9580000000000002E-2</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.72938899999999995</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2493,15 +2493,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>0.71363900000000002</v>
+        <v>-1.4790000000000001E-2</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>0.69788900000000009</v>
+        <v>-2.9580000000000002E-2</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>0.72938899999999995</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2510,7 +2510,6 @@
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2523,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2567,7 +2566,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.864999999999993</v>
+        <v>0.91599999999999404</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$6</f>
@@ -2575,16 +2574,16 @@
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>20111.175337187062</v>
+        <v>18991.448326055441</v>
       </c>
       <c r="F3" s="9">
-        <v>0.72938899999999995</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="J3" s="8">
         <f>C3/L3</f>
-        <v>8.6499999999999303E-3</v>
+        <v>9.1599999999999408E-3</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="7">
@@ -2603,15 +2602,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>0.73803899999999989</v>
+        <v>9.1599999999999408E-3</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>0.74668899999999983</v>
+        <v>1.8319999999999882E-2</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.72938899999999995</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2628,15 +2627,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>0.72073900000000002</v>
+        <v>-9.1599999999999408E-3</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>0.71208900000000008</v>
+        <v>-1.8319999999999882E-2</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>0.72938899999999995</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2645,7 +2644,6 @@
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2659,7 +2657,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2704,7 +2702,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>2.0329999999999901</v>
+        <v>2.0139999999999998</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$1</f>
@@ -2712,16 +2710,16 @@
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>11726.114785058931</v>
+        <v>11836.738509446224</v>
       </c>
       <c r="F3" s="9">
-        <v>1.7376579999999999</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="J3" s="8">
         <f>C3/L3</f>
-        <v>2.03299999999999E-2</v>
+        <v>2.0139999999999998E-2</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="7">
@@ -2740,15 +2738,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>1.7579879999999999</v>
+        <v>2.0139999999999998E-2</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1.7783179999999998</v>
+        <v>4.0279999999999996E-2</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>1.7376579999999999</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2765,15 +2763,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>1.717328</v>
+        <v>-2.0139999999999998E-2</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1.696998</v>
+        <v>-4.0279999999999996E-2</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.7376579999999999</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2795,7 +2793,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2849,7 +2847,7 @@
         <v>14886.859147328658</v>
       </c>
       <c r="F3" s="9">
-        <v>1.31426</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2874,15 +2872,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>1.32952</v>
+        <v>1.5260000000000001E-2</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1.3447800000000001</v>
+        <v>3.0520000000000002E-2</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>1.31426</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -2899,15 +2897,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>1.2989999999999999</v>
+        <v>-1.5260000000000001E-2</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1.2837399999999999</v>
+        <v>-3.0520000000000002E-2</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.31426</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2929,7 +2927,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2983,7 +2981,7 @@
         <v>18331.050228310291</v>
       </c>
       <c r="F3" s="9">
-        <v>0.72550700000000001</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -3008,15 +3006,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>0.73499700000000012</v>
+        <v>9.4900000000001095E-3</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>0.74448700000000023</v>
+        <v>1.8980000000000219E-2</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.72550700000000001</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3033,15 +3031,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>0.7160169999999999</v>
+        <v>-9.4900000000001095E-3</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>0.70652699999999979</v>
+        <v>-1.8980000000000219E-2</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>0.72550700000000001</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -3063,7 +3061,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3106,7 +3104,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.0859999999999801</v>
+        <v>1.1040000000000101</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$3</f>
@@ -3114,16 +3112,16 @@
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>16018.569674647319</v>
+        <v>15757.397342995026</v>
       </c>
       <c r="F3" s="9">
-        <v>1.13913</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="J3" s="8">
         <f>C3/L3</f>
-        <v>1.08599999999998E-2</v>
+        <v>1.10400000000001E-2</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="7">
@@ -3142,15 +3140,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>1.1499899999999998</v>
+        <v>1.10400000000001E-2</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1.1608499999999997</v>
+        <v>2.20800000000002E-2</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>1.13913</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3167,15 +3165,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>1.1282700000000001</v>
+        <v>-1.10400000000001E-2</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1.1174100000000002</v>
+        <v>-2.20800000000002E-2</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.13913</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -3197,7 +3195,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3240,7 +3238,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.2649999999999799</v>
+        <v>1.224</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$3</f>
@@ -3248,16 +3246,16 @@
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>13751.910408432364</v>
+        <v>14212.554466230937</v>
       </c>
       <c r="F3" s="9">
-        <v>1.2929999999999999</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="J3" s="8">
         <f>C3/L3</f>
-        <v>1.2649999999999799E-2</v>
+        <v>1.2239999999999999E-2</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="7">
@@ -3276,15 +3274,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>1.3056499999999998</v>
+        <v>1.2239999999999999E-2</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1.3182999999999996</v>
+        <v>2.4479999999999998E-2</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>1.2929999999999999</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3301,15 +3299,15 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>1.2803500000000001</v>
+        <v>-1.2239999999999999E-2</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>1.2677000000000003</v>
+        <v>-2.4479999999999998E-2</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>1.2929999999999999</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -3317,6 +3315,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3330,7 +3329,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3384,7 +3383,7 @@
         <v>19656.685499058334</v>
       </c>
       <c r="F3" s="9">
-        <v>0.99399999999999999</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -3409,15 +3408,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>1.00285</v>
+        <v>8.8500000000000193E-3</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>1.0117</v>
+        <v>1.7700000000000039E-2</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.99399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3434,23 +3433,23 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>0.98514999999999997</v>
+        <v>-8.8500000000000193E-3</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>0.97629999999999995</v>
+        <v>-1.7700000000000039E-2</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>0.99399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3464,7 +3463,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3507,7 +3506,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5">
         <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.82699999999999996</v>
+        <v>0.78099999999999803</v>
       </c>
       <c r="D3" s="5">
         <f>master!$I$4</f>
@@ -3515,16 +3514,16 @@
       </c>
       <c r="E3" s="6">
         <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>16443.061634620295</v>
+        <v>17411.539016428964</v>
       </c>
       <c r="F3" s="9">
-        <v>0.89736099999999996</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="J3" s="8">
         <f>C3/L3</f>
-        <v>8.2699999999999996E-3</v>
+        <v>7.8099999999999802E-3</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="7">
@@ -3543,15 +3542,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5">
         <f>F3+J3</f>
-        <v>0.90563099999999996</v>
+        <v>7.8099999999999802E-3</v>
       </c>
       <c r="G4" s="5">
         <f>F4+J3</f>
-        <v>0.91390099999999996</v>
+        <v>1.561999999999996E-2</v>
       </c>
       <c r="H4" s="5">
         <f>F4-J3</f>
-        <v>0.89736099999999996</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3568,23 +3567,23 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5">
         <f>F3-J3</f>
-        <v>0.88909099999999996</v>
+        <v>-7.8099999999999802E-3</v>
       </c>
       <c r="G5" s="5">
         <f>F5-J3</f>
-        <v>0.88082099999999997</v>
+        <v>-1.561999999999996E-2</v>
       </c>
       <c r="H5" s="5">
         <f>F5+J3</f>
-        <v>0.89736099999999996</v>
+        <v>0</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="-80" windowWidth="26480" windowHeight="21140" tabRatio="742"/>
+    <workbookView xWindow="5800" yWindow="-80" windowWidth="26480" windowHeight="21140" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="60">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
@@ -250,6 +250,14 @@
   </si>
   <si>
     <t>USD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -324,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -341,9 +349,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -352,6 +357,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,223 +693,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="14.83203125" style="1"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="14.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="24" customHeight="1">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1">
-        <v>1.2189999999999901</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="10">
+        <v>1.121</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1">
-      <c r="A2" t="s">
+      <c r="J1" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2">
-        <v>2.1039999999999899</v>
-      </c>
-      <c r="D2" s="4">
-        <v>3861949</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="10">
+        <v>1.4159999999999899</v>
+      </c>
+      <c r="E2" s="4">
+        <v>400</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1">
-      <c r="A3" t="s">
+      <c r="J2" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>1.31499999999999</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="C3" s="10">
+        <v>1.1789999999999901</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1">
-      <c r="A4" t="s">
+      <c r="J3" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>1.80699999999998</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="C4" s="10">
+        <v>2.5389999999999802</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="2">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1">
-      <c r="A5" t="s">
+      <c r="J4" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="24" customHeight="1">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>1.4790000000000001</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="C5" s="10">
+        <v>2.0739999999999901</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="24" customHeight="1">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1.171</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J6" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:14" ht="24" customHeight="1">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1.3459999999999801</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="24" customHeight="1">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1.373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="24" customHeight="1">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.95899999999999797</v>
+      </c>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="24" customHeight="1">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.98500000000000199</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" ht="24" customHeight="1">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.98199999999999399</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f>VLOOKUP(F11,$A$1:$B$20,2,0)</f>
+        <v>USDJPY</v>
+      </c>
+      <c r="H11" s="5">
+        <f>IF(L11="JPY",M11,M11/100)</f>
+        <v>1.121</v>
+      </c>
+      <c r="I11" s="5">
+        <f>VLOOKUP(L11,$I$1:$J$7,2,0)</f>
+        <v>100</v>
+      </c>
+      <c r="J11" s="5">
+        <f>ROUNDDOWN($E$2*10000*(1/M11)*(100/I11)/100*$G$2,0)</f>
+        <v>4281</v>
+      </c>
+      <c r="L11" s="9" t="str">
+        <f>MID(G11,4,3)</f>
+        <v>JPY</v>
+      </c>
+      <c r="M11" s="7">
+        <f>VLOOKUP(G11,$B$1:$C$20,2,0)</f>
+        <v>1.121</v>
+      </c>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" ht="24" customHeight="1">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f>VLOOKUP(F12,$A$1:$B$20,2,0)</f>
+        <v>EURUSD</v>
+      </c>
+      <c r="H12" s="5">
+        <f>IF(L12="JPY",M12,M12/100)</f>
+        <v>1.1789999999999901E-2</v>
+      </c>
+      <c r="I12" s="5">
+        <f>VLOOKUP(L12,$I$1:$J$7,2,0)</f>
+        <v>109</v>
+      </c>
+      <c r="J12" s="5">
+        <f>ROUNDDOWN($E$2*10000*(1/M12)*(100/I12)/100*$G$2,0)</f>
+        <v>3735</v>
+      </c>
+      <c r="L12" s="9" t="str">
+        <f>MID(G12,4,3)</f>
+        <v>USD</v>
+      </c>
+      <c r="M12" s="7">
+        <f>VLOOKUP(G12,$B$1:$C$20,2,0)</f>
+        <v>1.1789999999999901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="24" customHeight="1">
+      <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>1.325</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>1.526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1">
-      <c r="A8" t="s">
+      <c r="B13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1.17</v>
+      </c>
+      <c r="F13" s="5">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5" t="str">
+        <f>VLOOKUP(F13,$A$1:$B$20,2,0)</f>
+        <v>USDCAD</v>
+      </c>
+      <c r="H13" s="5">
+        <f>IF(L13="JPY",M13,M13/100)</f>
+        <v>1.34599999999998E-2</v>
+      </c>
+      <c r="I13" s="5">
+        <f>VLOOKUP(L13,$I$1:$J$7,2,0)</f>
+        <v>80</v>
+      </c>
+      <c r="J13" s="5">
+        <f>ROUNDDOWN($E$2*10000*(1/M13)*(100/I13)/100*$G$2,0)</f>
+        <v>4457</v>
+      </c>
+      <c r="L13" s="9" t="str">
+        <f>MID(G13,4,3)</f>
+        <v>CAD</v>
+      </c>
+      <c r="M13" s="7">
+        <f>VLOOKUP(G13,$B$1:$C$20,2,0)</f>
+        <v>1.3459999999999801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="24" customHeight="1">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="F14" s="5">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>1.367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>1.0579999999999901</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>0.88500000000000201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>0.91599999999999404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1">
-      <c r="A12" t="s">
+      <c r="G14" s="5" t="str">
+        <f>VLOOKUP(F14,$A$1:$B$20,2,0)</f>
+        <v>USDCHF</v>
+      </c>
+      <c r="H14" s="5">
+        <f>IF(L14="JPY",M14,M14/100)</f>
+        <v>9.8500000000000202E-3</v>
+      </c>
+      <c r="I14" s="5">
+        <f>VLOOKUP(L14,$I$1:$J$7,2,0)</f>
+        <v>110</v>
+      </c>
+      <c r="J14" s="5">
+        <f>ROUNDDOWN($E$2*10000*(1/M14)*(100/I14)/100*$G$2,0)</f>
+        <v>4430</v>
+      </c>
+      <c r="L14" s="9" t="str">
+        <f>MID(G14,4,3)</f>
+        <v>CHF</v>
+      </c>
+      <c r="M14" s="7">
+        <f>VLOOKUP(G14,$B$1:$C$20,2,0)</f>
+        <v>0.98500000000000199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="24" customHeight="1">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.85999999999999399</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f>VLOOKUP(F15,$A$1:$B$20,2,0)</f>
+        <v>USDJPY</v>
+      </c>
+      <c r="H15" s="5">
+        <f>IF(L15="JPY",M15,M15/100)</f>
+        <v>1.121</v>
+      </c>
+      <c r="I15" s="5">
+        <f>VLOOKUP(L15,$I$1:$J$7,2,0)</f>
+        <v>100</v>
+      </c>
+      <c r="J15" s="5">
+        <f>ROUNDDOWN($E$2*10000*(1/M15)*(100/I15)/100*$G$2,0)</f>
+        <v>4281</v>
+      </c>
+      <c r="L15" s="9" t="str">
+        <f>MID(G15,4,3)</f>
+        <v>JPY</v>
+      </c>
+      <c r="M15" s="7">
+        <f>VLOOKUP(G15,$B$1:$C$20,2,0)</f>
+        <v>1.121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="24" customHeight="1">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1.8359999999999901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1">
+      <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>0.78099999999999803</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>1.1379999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>1.1240000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>1.1040000000000101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>1.224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="24" customHeight="1">
-      <c r="A17" t="s">
+      <c r="B17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B17">
-        <v>0.94900000000001095</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="24" customHeight="1">
-      <c r="A18" t="s">
+      <c r="C17" s="10">
+        <v>1.036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B18">
-        <v>0.90600000000000602</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="24" customHeight="1">
-      <c r="A19" t="s">
+      <c r="C18" s="10">
+        <v>0.83900000000001196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B19">
-        <v>1.59899999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="24" customHeight="1">
-      <c r="A20" t="s">
+      <c r="C19" s="10">
+        <v>2.0270000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>2.0139999999999998</v>
+      <c r="B20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2.6519999999999802</v>
       </c>
     </row>
   </sheetData>
@@ -907,6 +1140,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -919,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -956,37 +1190,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.367</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>1.373</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>14125.636430138991</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)</f>
+        <v>100</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.367</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <v>1.373</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -995,23 +1234,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>1.367</v>
+        <f>ROUNDDOWN(F3+J3,2)</f>
+        <v>101.37</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>2.734</v>
+        <f>ROUNDDOWN(F4+J3,2)</f>
+        <v>102.74</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,2)</f>
+        <v>99.99</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
@@ -1020,24 +1259,23 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-1.367</v>
+        <f>ROUNDDOWN(F3-J3,2)</f>
+        <v>98.62</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-2.734</v>
+        <f>ROUNDDOWN(F5-J3,2)</f>
+        <v>97.24</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,2)</f>
+        <v>99.99</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1052,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1089,37 +1327,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.325</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>1.171</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>14573.39245283019</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)</f>
+        <v>100</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.325</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <v>1.171</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -1128,23 +1371,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>1.325</v>
+        <f>ROUNDDOWN(F3+J3,2)</f>
+        <v>101.17</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>2.65</v>
+        <f>ROUNDDOWN(F4+J3,2)</f>
+        <v>102.34</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,2)</f>
+        <v>99.99</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -1153,24 +1396,23 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-1.325</v>
+        <f>ROUNDDOWN(F3-J3,2)</f>
+        <v>98.82</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-2.65</v>
+        <f>ROUNDDOWN(F5-J3,2)</f>
+        <v>97.64</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,2)</f>
+        <v>99.99</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1185,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1222,37 +1464,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.1240000000000001</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>1.0189999999999999</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>17179.488434163701</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)</f>
+        <v>100</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -1261,23 +1508,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>1.1240000000000001</v>
+        <f>ROUNDDOWN(F3+J3,2)</f>
+        <v>101.01</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>2.2480000000000002</v>
+        <f>ROUNDDOWN(F4+J3,2)</f>
+        <v>102.02</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,2)</f>
+        <v>99.99</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -1286,24 +1533,23 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-1.1240000000000001</v>
+        <f>ROUNDDOWN(F3-J3,2)</f>
+        <v>98.98</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-2.2480000000000002</v>
+        <f>ROUNDDOWN(F5-J3,2)</f>
+        <v>97.96</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,2)</f>
+        <v>99.99</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1318,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1355,37 +1601,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>2.1039999999999899</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>1.4159999999999899</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>9177.6354562738088</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)</f>
+        <v>100</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>2.1039999999999899</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <v>1.4159999999999899</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
@@ -1394,23 +1645,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>2.1039999999999899</v>
+        <f>ROUNDDOWN(F3+J3,2)</f>
+        <v>101.41</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>4.2079999999999798</v>
+        <f>ROUNDDOWN(F4+J3,2)</f>
+        <v>102.82</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,2)</f>
+        <v>99.99</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -1419,24 +1670,23 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-2.1039999999999899</v>
+        <f>ROUNDDOWN(F3-J3,2)</f>
+        <v>98.58</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-4.2079999999999798</v>
+        <f>ROUNDDOWN(F5-J3,2)</f>
+        <v>97.16</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,2)</f>
+        <v>99.99</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1451,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1488,37 +1738,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.80699999999998</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>2.5389999999999802</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>10686.079136690767</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)</f>
+        <v>100</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.80699999999998</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <v>2.5389999999999802</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -1527,23 +1782,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>1.80699999999998</v>
+        <f>ROUNDDOWN(F3+J3,2)</f>
+        <v>102.53</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>3.6139999999999599</v>
+        <f>ROUNDDOWN(F4+J3,2)</f>
+        <v>105.06</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,2)</f>
+        <v>99.99</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -1552,24 +1807,23 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-1.80699999999998</v>
+        <f>ROUNDDOWN(F3-J3,2)</f>
+        <v>97.46</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-3.6139999999999599</v>
+        <f>ROUNDDOWN(F5-J3,2)</f>
+        <v>94.92</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,2)</f>
+        <v>99.99</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1584,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1621,37 +1875,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.1379999999999999</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>1.17</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>16968.141476274166</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)</f>
+        <v>100</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.1379999999999999</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <v>1.17</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -1660,23 +1919,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>1.1379999999999999</v>
+        <f>ROUNDDOWN(F3+J3,2)</f>
+        <v>101.17</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>2.2759999999999998</v>
+        <f>ROUNDDOWN(F4+J3,2)</f>
+        <v>102.34</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,2)</f>
+        <v>100</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
@@ -1685,24 +1944,23 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-1.1379999999999999</v>
+        <f>ROUNDDOWN(F3-J3,2)</f>
+        <v>98.83</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-2.2759999999999998</v>
+        <f>ROUNDDOWN(F5-J3,2)</f>
+        <v>97.66</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,2)</f>
+        <v>100</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1717,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1754,37 +2012,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.2189999999999901</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>1.121</v>
       </c>
       <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>15840.643970467725</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)</f>
+        <v>100</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.2189999999999901</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <v>1.121</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -1793,23 +2056,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>1.2189999999999901</v>
+        <f>ROUNDDOWN(F3+J3,2)</f>
+        <v>101.12</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>2.4379999999999802</v>
+        <f>ROUNDDOWN(F4+J3,2)</f>
+        <v>102.24</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,2)</f>
+        <v>99.99</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
@@ -1818,24 +2081,23 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-1.2189999999999901</v>
+        <f>ROUNDDOWN(F3-J3,2)</f>
+        <v>98.87</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-2.4379999999999802</v>
+        <f>ROUNDDOWN(F5-J3,2)</f>
+        <v>97.74</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,2)</f>
+        <v>99.99</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1850,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1887,38 +2149,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.90600000000000602</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>0.83900000000001196</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$5</f>
-        <v>73</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>29196.142913302294</v>
-      </c>
-      <c r="F3" s="9">
+        <f>master!$J$5</f>
+        <v>100</v>
+      </c>
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)/100</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>9.0600000000000611E-3</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
+        <v>8.3900000000001196E-3</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -1927,23 +2194,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>9.0600000000000611E-3</v>
+        <f>ROUNDDOWN(F3+J3,4)</f>
+        <v>1.0083</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>1.8120000000000122E-2</v>
+        <f>ROUNDDOWN(F4+J3,4)</f>
+        <v>1.0165999999999999</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
@@ -1952,24 +2219,23 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-9.0600000000000611E-3</v>
+        <f>ROUNDDOWN(F3-J3,4)</f>
+        <v>0.99160000000000004</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-1.8120000000000122E-2</v>
+        <f>ROUNDDOWN(F5-J3,4)</f>
+        <v>0.98319999999999996</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -1984,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2021,38 +2287,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.0579999999999901</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>0.95899999999999797</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$6</f>
-        <v>111</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>16442.501575299462</v>
-      </c>
-      <c r="F3" s="9">
+        <f>master!$J$6</f>
+        <v>73</v>
+      </c>
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)/100</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.05799999999999E-2</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
+        <v>9.5899999999999805E-3</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
@@ -2061,23 +2332,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>1.05799999999999E-2</v>
+        <f>ROUNDDOWN(F3+J3,4)</f>
+        <v>1.0095000000000001</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>2.11599999999998E-2</v>
+        <f>ROUNDDOWN(F4+J3,4)</f>
+        <v>1.0189999999999999</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -2086,24 +2357,23 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-1.05799999999999E-2</v>
+        <f>ROUNDDOWN(F3-J3,4)</f>
+        <v>0.99039999999999995</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-2.11599999999998E-2</v>
+        <f>ROUNDDOWN(F5-J3,4)</f>
+        <v>0.98080000000000001</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2118,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2155,38 +2425,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.31499999999999</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>1.1789999999999901</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$6</f>
-        <v>111</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>13229.024081115436</v>
-      </c>
-      <c r="F3" s="9">
+        <f>master!$J$6</f>
+        <v>73</v>
+      </c>
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)/100</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.31499999999999E-2</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
+        <v>1.1789999999999901E-2</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -2195,23 +2470,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>1.31499999999999E-2</v>
+        <f>ROUNDDOWN(F3+J3,4)</f>
+        <v>1.0117</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>2.6299999999999799E-2</v>
+        <f>ROUNDDOWN(F4+J3,4)</f>
+        <v>1.0234000000000001</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -2220,24 +2495,23 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-1.31499999999999E-2</v>
+        <f>ROUNDDOWN(F3-J3,4)</f>
+        <v>0.98819999999999997</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-2.6299999999999799E-2</v>
+        <f>ROUNDDOWN(F5-J3,4)</f>
+        <v>0.97640000000000005</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2252,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2291,38 +2565,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.59899999999999</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>2.0270000000000001</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$1</f>
-        <v>81</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>14908.812606644677</v>
-      </c>
-      <c r="F3" s="9">
+        <f>master!$J$1</f>
+        <v>76</v>
+      </c>
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)/100</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.59899999999999E-2</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
+        <v>2.027E-2</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -2331,23 +2610,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>1.59899999999999E-2</v>
+        <f>ROUNDDOWN(F3+J3,4)</f>
+        <v>1.0202</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>3.19799999999998E-2</v>
+        <f>ROUNDDOWN(F4+J3,4)</f>
+        <v>1.0404</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -2356,26 +2635,25 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-1.59899999999999E-2</v>
+        <f>ROUNDDOWN(F3-J3,4)</f>
+        <v>0.97970000000000002</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-3.19799999999998E-2</v>
+        <f>ROUNDDOWN(F5-J3,4)</f>
+        <v>0.95940000000000003</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2388,8 +2666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2425,38 +2703,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.4790000000000001</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>2.0739999999999901</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$6</f>
-        <v>111</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>11762.114041018707</v>
-      </c>
-      <c r="F3" s="9">
+        <f>master!$J$6</f>
+        <v>73</v>
+      </c>
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)/100</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.4790000000000001E-2</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
+        <v>2.0739999999999901E-2</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -2465,23 +2748,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>1.4790000000000001E-2</v>
+        <f>ROUNDDOWN(F3+J3,4)</f>
+        <v>1.0206999999999999</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>2.9580000000000002E-2</v>
+        <f>ROUNDDOWN(F4+J3,4)</f>
+        <v>1.0414000000000001</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -2490,24 +2773,23 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-1.4790000000000001E-2</v>
+        <f>ROUNDDOWN(F3-J3,4)</f>
+        <v>0.97919999999999996</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-2.9580000000000002E-2</v>
+        <f>ROUNDDOWN(F5-J3,4)</f>
+        <v>0.95840000000000003</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2522,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2559,38 +2841,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.91599999999999404</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>0.98199999999999399</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$6</f>
-        <v>111</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>18991.448326055441</v>
-      </c>
-      <c r="F3" s="9">
+        <f>master!$J$6</f>
+        <v>73</v>
+      </c>
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)/100</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>9.1599999999999408E-3</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
+        <v>9.8199999999999399E-3</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
@@ -2599,23 +2886,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>9.1599999999999408E-3</v>
+        <f>ROUNDDOWN(F3+J3,4)</f>
+        <v>1.0098</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>1.8319999999999882E-2</v>
+        <f>ROUNDDOWN(F4+J3,4)</f>
+        <v>1.0196000000000001</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -2624,24 +2911,23 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-9.1599999999999408E-3</v>
+        <f>ROUNDDOWN(F3-J3,4)</f>
+        <v>0.99009999999999998</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-1.8319999999999882E-2</v>
+        <f>ROUNDDOWN(F5-J3,4)</f>
+        <v>0.98019999999999996</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2656,8 +2942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2695,38 +2981,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>2.0139999999999998</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>2.6519999999999802</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$1</f>
-        <v>81</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>11836.738509446224</v>
-      </c>
-      <c r="F3" s="9">
+        <f>master!$J$1</f>
+        <v>76</v>
+      </c>
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)/100</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>2.0139999999999998E-2</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
+        <v>2.6519999999999801E-2</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -2735,23 +3026,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>2.0139999999999998E-2</v>
+        <f>ROUNDDOWN(F3+J3,4)</f>
+        <v>1.0265</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>4.0279999999999996E-2</v>
+        <f>ROUNDDOWN(F4+J3,4)</f>
+        <v>1.0529999999999999</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -2760,26 +3051,25 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-2.0139999999999998E-2</v>
+        <f>ROUNDDOWN(F3-J3,4)</f>
+        <v>0.97340000000000004</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-4.0279999999999996E-2</v>
+        <f>ROUNDDOWN(F5-J3,4)</f>
+        <v>0.94679999999999997</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2792,8 +3082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2829,38 +3119,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.526</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>1.3459999999999801</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$2</f>
-        <v>85</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>14886.859147328658</v>
-      </c>
-      <c r="F3" s="9">
+        <f>master!$J$2</f>
+        <v>80</v>
+      </c>
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)/100</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.5260000000000001E-2</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
+        <v>1.34599999999998E-2</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -2869,23 +3164,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>1.5260000000000001E-2</v>
+        <f>ROUNDDOWN(F3+J3,4)</f>
+        <v>1.0134000000000001</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>3.0520000000000002E-2</v>
+        <f>ROUNDDOWN(F4+J3,4)</f>
+        <v>1.0267999999999999</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -2894,26 +3189,25 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-1.5260000000000001E-2</v>
+        <f>ROUNDDOWN(F3-J3,4)</f>
+        <v>0.98650000000000004</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-3.0520000000000002E-2</v>
+        <f>ROUNDDOWN(F5-J3,4)</f>
+        <v>0.97299999999999998</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2926,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -2963,38 +3257,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.94900000000001095</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>1.036</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$3</f>
-        <v>111</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>18331.050228310291</v>
-      </c>
-      <c r="F3" s="9">
+        <f>master!$J$3</f>
+        <v>110</v>
+      </c>
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)/100</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>9.4900000000001095E-3</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
+        <v>1.0360000000000001E-2</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -3003,23 +3302,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>9.4900000000001095E-3</v>
+        <f>ROUNDDOWN(F3+J3,4)</f>
+        <v>1.0103</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>1.8980000000000219E-2</v>
+        <f>ROUNDDOWN(F4+J3,4)</f>
+        <v>1.0206</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -3028,26 +3327,25 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-9.4900000000001095E-3</v>
+        <f>ROUNDDOWN(F3-J3,4)</f>
+        <v>0.98960000000000004</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-1.8980000000000219E-2</v>
+        <f>ROUNDDOWN(F5-J3,4)</f>
+        <v>0.97919999999999996</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3060,8 +3358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3097,38 +3395,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.1040000000000101</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>0.85999999999999399</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$3</f>
-        <v>111</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>15757.397342995026</v>
-      </c>
-      <c r="F3" s="9">
+        <f>master!$J$3</f>
+        <v>110</v>
+      </c>
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)/100</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.10400000000001E-2</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
+        <v>8.5999999999999393E-3</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -3137,23 +3440,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>1.10400000000001E-2</v>
+        <f>ROUNDDOWN(F3+J3,4)</f>
+        <v>1.0085999999999999</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>2.20800000000002E-2</v>
+        <f>ROUNDDOWN(F4+J3,4)</f>
+        <v>1.0172000000000001</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,4)</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -3162,26 +3465,25 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-1.10400000000001E-2</v>
+        <f>ROUNDDOWN(F3-J3,4)</f>
+        <v>0.99139999999999995</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-2.20800000000002E-2</v>
+        <f>ROUNDDOWN(F5-J3,4)</f>
+        <v>0.98280000000000001</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,4)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3194,8 +3496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3231,38 +3533,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>1.224</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>1.8359999999999901</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$3</f>
-        <v>111</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>14212.554466230937</v>
-      </c>
-      <c r="F3" s="9">
+        <f>master!$J$3</f>
+        <v>110</v>
+      </c>
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)/100</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>1.2239999999999999E-2</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
+        <v>1.8359999999999901E-2</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -3271,23 +3578,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>1.2239999999999999E-2</v>
+        <f>ROUNDDOWN(F3+J3,4)</f>
+        <v>1.0183</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>2.4479999999999998E-2</v>
+        <f>ROUNDDOWN(F4+J3,4)</f>
+        <v>1.0366</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -3296,26 +3603,25 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-1.2239999999999999E-2</v>
+        <f>ROUNDDOWN(F3-J3,4)</f>
+        <v>0.98160000000000003</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-2.4479999999999998E-2</v>
+        <f>ROUNDDOWN(F5-J3,4)</f>
+        <v>0.96319999999999995</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3328,8 +3634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3365,38 +3671,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.88500000000000201</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>0.98500000000000199</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$3</f>
-        <v>111</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>19656.685499058334</v>
-      </c>
-      <c r="F3" s="9">
+        <f>master!$J$3</f>
+        <v>110</v>
+      </c>
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)/100</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>8.8500000000000193E-3</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
+        <v>9.8500000000000202E-3</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -3405,23 +3716,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>8.8500000000000193E-3</v>
+        <f>ROUNDDOWN(F3+J3,4)</f>
+        <v>1.0098</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>1.7700000000000039E-2</v>
+        <f>ROUNDDOWN(F4+J3,4)</f>
+        <v>1.0196000000000001</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
@@ -3430,24 +3741,23 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-8.8500000000000193E-3</v>
+        <f>ROUNDDOWN(F3-J3,4)</f>
+        <v>0.99009999999999998</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-1.7700000000000039E-2</v>
+        <f>ROUNDDOWN(F5-J3,4)</f>
+        <v>0.98019999999999996</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -3462,8 +3772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -3499,38 +3809,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <f>VLOOKUP(A3,master!$A$1:$B$20,2,0)</f>
-        <v>0.78099999999999803</v>
+        <f>VLOOKUP(A3,master!$B$1:$C$20,2,0)</f>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D3" s="5">
-        <f>master!$I$4</f>
-        <v>142</v>
-      </c>
-      <c r="E3" s="6">
-        <f>master!$D$2*(1/C3)*(100/D3)/100*master!$F$2</f>
-        <v>17411.539016428964</v>
-      </c>
-      <c r="F3" s="9">
+        <f>master!$J$4</f>
+        <v>138</v>
+      </c>
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(master!$E$2*(1/C3)*(100/D3)/100*master!$G$2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="8">
+      <c r="F3" s="5">
+        <f>AVERAGE(G3:H3)/100</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>99</v>
+      </c>
+      <c r="H3" s="8">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
         <f>C3/L3</f>
-        <v>7.8099999999999802E-3</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7">
+        <v>1.0029999999999999E-2</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
@@ -3539,23 +3854,23 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <f>F3+J3</f>
-        <v>7.8099999999999802E-3</v>
+        <f>ROUNDDOWN(F3+J3,4)</f>
+        <v>1.01</v>
       </c>
       <c r="G4" s="5">
-        <f>F4+J3</f>
-        <v>1.561999999999996E-2</v>
+        <f>ROUNDDOWN(F4+J3,4)</f>
+        <v>1.02</v>
       </c>
       <c r="H4" s="5">
-        <f>F4-J3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+        <f>ROUNDDOWN(F4-J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -3564,21 +3879,21 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f>F3-J3</f>
-        <v>-7.8099999999999802E-3</v>
+        <f>ROUNDDOWN(F3-J3,4)</f>
+        <v>0.9899</v>
       </c>
       <c r="G5" s="5">
-        <f>F5-J3</f>
-        <v>-1.561999999999996E-2</v>
+        <f>ROUNDDOWN(F5-J3,4)</f>
+        <v>0.9798</v>
       </c>
       <c r="H5" s="5">
-        <f>F5+J3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+        <f>ROUNDDOWN(F5+J3,4)</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="-80" windowWidth="26480" windowHeight="21140" tabRatio="742"/>
+    <workbookView xWindow="3480" yWindow="-80" windowWidth="26480" windowHeight="21140" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -693,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -1090,7 +1090,7 @@
         <v>1.8359999999999901</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1">
+    <row r="17" spans="1:7" ht="24" customHeight="1">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1">
+    <row r="18" spans="1:7" ht="24" customHeight="1">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>0.83900000000001196</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1">
+    <row r="19" spans="1:7" ht="24" customHeight="1">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1122,8 +1122,16 @@
       <c r="C19" s="10">
         <v>2.0270000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1">
+      <c r="F19" s="1">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24" customHeight="1">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -1132,6 +1140,44 @@
       </c>
       <c r="C20" s="10">
         <v>2.6519999999999802</v>
+      </c>
+      <c r="F20" s="1">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ref="G20:G23" ca="1" si="0">RANDBETWEEN(1,20)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="24" customHeight="1">
+      <c r="F21" s="1">
+        <f t="shared" ref="F21:F23" ca="1" si="1">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24" customHeight="1">
+      <c r="F22" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24" customHeight="1">
+      <c r="F23" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2098,6 +2144,7 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -2236,6 +2283,7 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>
@@ -3896,7 +3944,6 @@
       <c r="K5" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="-80" windowWidth="26480" windowHeight="21140" tabRatio="742"/>
+    <workbookView xWindow="5560" yWindow="-80" windowWidth="26480" windowHeight="21140" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
@@ -42,61 +42,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AUDCHF</t>
-  </si>
-  <si>
     <t>AUDJPY</t>
   </si>
   <si>
-    <t>AUDNZD</t>
-  </si>
-  <si>
-    <t>AUDUSD</t>
-  </si>
-  <si>
     <t>CADJPY</t>
   </si>
   <si>
     <t>CHFJPY</t>
   </si>
   <si>
-    <t>EURAUD</t>
-  </si>
-  <si>
-    <t>EURCHF</t>
-  </si>
-  <si>
-    <t>EURGBP</t>
-  </si>
-  <si>
     <t>EURJPY</t>
   </si>
   <si>
-    <t>EURUSD</t>
-  </si>
-  <si>
-    <t>GBPAUD</t>
-  </si>
-  <si>
-    <t>GBPCHF</t>
-  </si>
-  <si>
     <t>GBPJPY</t>
   </si>
   <si>
-    <t>GBPUSD</t>
-  </si>
-  <si>
     <t>NZDJPY</t>
-  </si>
-  <si>
-    <t>NZDUSD</t>
-  </si>
-  <si>
-    <t>USDCAD</t>
-  </si>
-  <si>
-    <t>USDCHF</t>
   </si>
   <si>
     <t>USDJPY</t>
@@ -565,7 +526,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -579,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C1" s="8">
         <v>1.121</v>
@@ -588,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J1" s="2">
         <v>78</v>
@@ -602,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="8">
         <v>1.5269999999999799</v>
@@ -614,7 +575,7 @@
         <v>0.12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J2" s="2">
         <v>83</v>
@@ -625,13 +586,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2.7429999999999901</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1.1830000000000001</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="J3" s="2">
         <v>110</v>
@@ -642,13 +603,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C4" s="8">
-        <v>2.7429999999999901</v>
+        <v>1.1799999999999899</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2">
         <v>142</v>
@@ -659,13 +620,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.4489999999999901</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2.4990000000000001</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="J5" s="2">
         <v>100</v>
@@ -676,13 +637,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="8">
-        <v>1.1799999999999899</v>
+        <v>1.349</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J6" s="2">
         <v>75</v>
@@ -693,53 +654,32 @@
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C7" s="8">
-        <v>1.4690000000000001</v>
+        <v>1.22199999999999</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J7" s="2">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="24" customHeight="1">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1.4489999999999901</v>
-      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1.2509999999999999</v>
-      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" ht="24" customHeight="1">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1.15499999999999</v>
-      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -758,28 +698,21 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="24" customHeight="1">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1.0369999999999899</v>
-      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G11" s="5" t="str">
         <f>VLOOKUP(F11,$A$1:$B$20,2,0)</f>
-        <v>EURJPY</v>
+        <v>CHFJPY</v>
       </c>
       <c r="H11" s="5">
         <f>IF(L11="JPY",M11,M11/100)</f>
-        <v>1.5269999999999799</v>
+        <v>1.22199999999999</v>
       </c>
       <c r="I11" s="5">
         <f>VLOOKUP(L11,$I$1:$J$7,2,0)</f>
@@ -787,7 +720,7 @@
       </c>
       <c r="J11" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M11)*(100/I11)/100*$G$2,0)</f>
-        <v>7858</v>
+        <v>9819</v>
       </c>
       <c r="L11" s="7" t="str">
         <f>MID(G11,4,3)</f>
@@ -795,276 +728,234 @@
       </c>
       <c r="M11" s="6">
         <f>VLOOKUP(G11,$B$1:$C$20,2,0)</f>
-        <v>1.5269999999999799</v>
+        <v>1.22199999999999</v>
       </c>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="24" customHeight="1">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1.2929999999999899</v>
-      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="5" t="str">
         <f>VLOOKUP(F12,$A$1:$B$20,2,0)</f>
-        <v>EURUSD</v>
+        <v>EURJPY</v>
       </c>
       <c r="H12" s="5">
         <f>IF(L12="JPY",M12,M12/100)</f>
-        <v>1.183E-2</v>
+        <v>1.5269999999999799</v>
       </c>
       <c r="I12" s="5">
         <f>VLOOKUP(L12,$I$1:$J$7,2,0)</f>
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J12" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M12)*(100/I12)/100*$G$2,0)</f>
-        <v>9138</v>
+        <v>7858</v>
       </c>
       <c r="L12" s="7" t="str">
         <f>MID(G12,4,3)</f>
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="M12" s="6">
         <f>VLOOKUP(G12,$B$1:$C$20,2,0)</f>
-        <v>1.1830000000000001</v>
+        <v>1.5269999999999799</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="24" customHeight="1">
-      <c r="A13" s="1">
-        <v>13</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1.349</v>
-      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
       <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="5">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G13" s="5" t="str">
         <f>VLOOKUP(F13,$A$1:$B$20,2,0)</f>
-        <v>EURAUD</v>
+        <v>CADJPY</v>
       </c>
       <c r="H13" s="5">
         <f>IF(L13="JPY",M13,M13/100)</f>
-        <v>2.49299999999998E-2</v>
+        <v>1.1799999999999899</v>
       </c>
       <c r="I13" s="5">
         <f>VLOOKUP(L13,$I$1:$J$7,2,0)</f>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J13" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M13)*(100/I13)/100*$G$2,0)</f>
-        <v>6171</v>
+        <v>10169</v>
       </c>
       <c r="L13" s="7" t="str">
         <f>MID(G13,4,3)</f>
-        <v>AUD</v>
+        <v>JPY</v>
       </c>
       <c r="M13" s="6">
         <f>VLOOKUP(G13,$B$1:$C$20,2,0)</f>
-        <v>2.4929999999999799</v>
+        <v>1.1799999999999899</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="24" customHeight="1">
-      <c r="A14" s="1">
-        <v>14</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1.22199999999999</v>
-      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G14" s="5" t="str">
         <f>VLOOKUP(F14,$A$1:$B$20,2,0)</f>
-        <v>NZDUSD</v>
+        <v>NZDJPY</v>
       </c>
       <c r="H14" s="5">
         <f>IF(L14="JPY",M14,M14/100)</f>
-        <v>1.03699999999999E-2</v>
+        <v>1.349</v>
       </c>
       <c r="I14" s="5">
         <f>VLOOKUP(L14,$I$1:$J$7,2,0)</f>
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J14" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M14)*(100/I14)/100*$G$2,0)</f>
-        <v>10425</v>
+        <v>8895</v>
       </c>
       <c r="L14" s="7" t="str">
         <f>MID(G14,4,3)</f>
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="M14" s="6">
         <f>VLOOKUP(G14,$B$1:$C$20,2,0)</f>
-        <v>1.0369999999999899</v>
+        <v>1.349</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="24" customHeight="1">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0.85999999999999399</v>
-      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5" t="str">
         <f>VLOOKUP(F15,$A$1:$B$20,2,0)</f>
-        <v>AUDCHF</v>
+        <v>USDJPY</v>
       </c>
       <c r="H15" s="5">
         <f>IF(L15="JPY",M15,M15/100)</f>
-        <v>1.2329999999999902E-2</v>
+        <v>1.121</v>
       </c>
       <c r="I15" s="5">
         <f>VLOOKUP(L15,$I$1:$J$7,2,0)</f>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J15" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M15)*(100/I15)/100*$G$2,0)</f>
-        <v>8847</v>
+        <v>10704</v>
       </c>
       <c r="L15" s="7" t="str">
         <f>MID(G15,4,3)</f>
-        <v>CHF</v>
+        <v>JPY</v>
       </c>
       <c r="M15" s="6">
         <f>VLOOKUP(G15,$B$1:$C$20,2,0)</f>
-        <v>1.2329999999999901</v>
+        <v>1.121</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="24" customHeight="1">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1.889</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="24" customHeight="1">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1.2329999999999901</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="24" customHeight="1">
-      <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0.95099999999998996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="24" customHeight="1">
-      <c r="A19" s="1">
-        <v>19</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="8">
-        <v>2.4929999999999799</v>
-      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="2:8" ht="24" customHeight="1">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="2:8" ht="24" customHeight="1">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="2:8" ht="24" customHeight="1">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="F19" s="1">
         <f ca="1">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="24" customHeight="1">
-      <c r="A20" s="1">
-        <v>20</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="8">
-        <v>3.1019999999999999</v>
-      </c>
+        <f ca="1">RANDBETWEEN(1,7)</f>
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
+        <f ca="1">COUNTIF($G$19:$G$23,G19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="F20" s="1">
         <f ca="1">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20:G23" ca="1" si="0">RANDBETWEEN(1,20)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="24" customHeight="1">
+        <f t="shared" ref="G20:G23" ca="1" si="0">RANDBETWEEN(1,7)</f>
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ref="H20:H23" ca="1" si="1">COUNTIF($G$19:$G$23,G20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="24" customHeight="1">
       <c r="F21" s="1">
-        <f t="shared" ref="F21:F23" ca="1" si="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <f t="shared" ref="F21:F23" ca="1" si="2">RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="24" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="24" customHeight="1">
       <c r="F22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="24" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="24" customHeight="1">
       <c r="F23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A6:H25">
     <sortCondition descending="1" ref="C7:C25"/>
   </sortState>
@@ -1091,10 +982,10 @@
   <sheetData>
     <row r="3" spans="1:6" ht="21" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -1157,7 +1048,6 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -523,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F15"/>
+      <selection activeCell="B1" sqref="B1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -566,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="8">
-        <v>1.5269999999999799</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="E2" s="4">
         <v>1000</v>
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="8">
-        <v>2.7429999999999901</v>
+        <v>2.649</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>15</v>
@@ -623,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="8">
-        <v>1.4489999999999901</v>
+        <v>1.484</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>19</v>
@@ -640,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="8">
-        <v>1.349</v>
+        <v>1.4369999999999901</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>17</v>
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="8">
-        <v>1.22199999999999</v>
+        <v>1.236</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>18</v>
@@ -712,7 +712,7 @@
       </c>
       <c r="H11" s="5">
         <f>IF(L11="JPY",M11,M11/100)</f>
-        <v>1.22199999999999</v>
+        <v>1.236</v>
       </c>
       <c r="I11" s="5">
         <f>VLOOKUP(L11,$I$1:$J$7,2,0)</f>
@@ -720,7 +720,7 @@
       </c>
       <c r="J11" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M11)*(100/I11)/100*$G$2,0)</f>
-        <v>9819</v>
+        <v>9708</v>
       </c>
       <c r="L11" s="7" t="str">
         <f>MID(G11,4,3)</f>
@@ -728,7 +728,7 @@
       </c>
       <c r="M11" s="6">
         <f>VLOOKUP(G11,$B$1:$C$20,2,0)</f>
-        <v>1.22199999999999</v>
+        <v>1.236</v>
       </c>
       <c r="N11" s="7"/>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="H12" s="5">
         <f>IF(L12="JPY",M12,M12/100)</f>
-        <v>1.5269999999999799</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="I12" s="5">
         <f>VLOOKUP(L12,$I$1:$J$7,2,0)</f>
@@ -755,7 +755,7 @@
       </c>
       <c r="J12" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M12)*(100/I12)/100*$G$2,0)</f>
-        <v>7858</v>
+        <v>8236</v>
       </c>
       <c r="L12" s="7" t="str">
         <f>MID(G12,4,3)</f>
@@ -763,7 +763,7 @@
       </c>
       <c r="M12" s="6">
         <f>VLOOKUP(G12,$B$1:$C$20,2,0)</f>
-        <v>1.5269999999999799</v>
+        <v>1.4570000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="24" customHeight="1">
@@ -815,7 +815,7 @@
       </c>
       <c r="H14" s="5">
         <f>IF(L14="JPY",M14,M14/100)</f>
-        <v>1.349</v>
+        <v>1.4369999999999901</v>
       </c>
       <c r="I14" s="5">
         <f>VLOOKUP(L14,$I$1:$J$7,2,0)</f>
@@ -823,7 +823,7 @@
       </c>
       <c r="J14" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M14)*(100/I14)/100*$G$2,0)</f>
-        <v>8895</v>
+        <v>8350</v>
       </c>
       <c r="L14" s="7" t="str">
         <f>MID(G14,4,3)</f>
@@ -831,7 +831,7 @@
       </c>
       <c r="M14" s="6">
         <f>VLOOKUP(G14,$B$1:$C$20,2,0)</f>
-        <v>1.349</v>
+        <v>1.4369999999999901</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="24" customHeight="1">
@@ -872,96 +872,28 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="2:8" ht="24" customHeight="1">
+    <row r="17" spans="2:3" ht="24" customHeight="1">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="2:8" ht="24" customHeight="1">
+    <row r="18" spans="2:3" ht="24" customHeight="1">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="2:8" ht="24" customHeight="1">
+    <row r="19" spans="2:3" ht="24" customHeight="1">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="F19" s="1">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
-      </c>
-      <c r="H19" s="1">
-        <f ca="1">COUNTIF($G$19:$G$23,G19)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="24" customHeight="1">
+    </row>
+    <row r="20" spans="2:3" ht="24" customHeight="1">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="F20" s="1">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" ref="G20:G23" ca="1" si="0">RANDBETWEEN(1,7)</f>
-        <v>5</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" ref="H20:H23" ca="1" si="1">COUNTIF($G$19:$G$23,G20)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="24" customHeight="1">
-      <c r="F21" s="1">
-        <f t="shared" ref="F21:F23" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="24" customHeight="1">
-      <c r="F22" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="24" customHeight="1">
-      <c r="F23" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A6:H25">
     <sortCondition descending="1" ref="C7:C25"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="-80" windowWidth="26480" windowHeight="21140" tabRatio="742"/>
+    <workbookView xWindow="8300" yWindow="-80" windowWidth="26480" windowHeight="21140" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
@@ -100,6 +100,14 @@
   </si>
   <si>
     <t>sell/buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buy flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lots</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -526,7 +534,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C7"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -678,8 +686,11 @@
     <row r="10" spans="1:14" ht="24" customHeight="1">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -700,19 +711,19 @@
     <row r="11" spans="1:14" ht="24" customHeight="1">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="E11" s="1">
-        <v>1</v>
+      <c r="E11" s="5">
+        <v>2</v>
       </c>
       <c r="F11" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5" t="str">
-        <f>VLOOKUP(F11,$A$1:$B$20,2,0)</f>
-        <v>CHFJPY</v>
+        <f>VLOOKUP(E11,$A$1:$B$7,2,0)</f>
+        <v>EURJPY</v>
       </c>
       <c r="H11" s="5">
         <f>IF(L11="JPY",M11,M11/100)</f>
-        <v>1.236</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="I11" s="5">
         <f>VLOOKUP(L11,$I$1:$J$7,2,0)</f>
@@ -720,7 +731,7 @@
       </c>
       <c r="J11" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M11)*(100/I11)/100*$G$2,0)</f>
-        <v>9708</v>
+        <v>8236</v>
       </c>
       <c r="L11" s="7" t="str">
         <f>MID(G11,4,3)</f>
@@ -728,26 +739,26 @@
       </c>
       <c r="M11" s="6">
         <f>VLOOKUP(G11,$B$1:$C$20,2,0)</f>
-        <v>1.236</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="24" customHeight="1">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="E12" s="1">
+      <c r="E12" s="5">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="5">
-        <v>2</v>
-      </c>
       <c r="G12" s="5" t="str">
-        <f>VLOOKUP(F12,$A$1:$B$20,2,0)</f>
-        <v>EURJPY</v>
+        <f>VLOOKUP(E12,$A$1:$B$7,2,0)</f>
+        <v>CADJPY</v>
       </c>
       <c r="H12" s="5">
         <f>IF(L12="JPY",M12,M12/100)</f>
-        <v>1.4570000000000001</v>
+        <v>1.1799999999999899</v>
       </c>
       <c r="I12" s="5">
         <f>VLOOKUP(L12,$I$1:$J$7,2,0)</f>
@@ -755,7 +766,7 @@
       </c>
       <c r="J12" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M12)*(100/I12)/100*$G$2,0)</f>
-        <v>8236</v>
+        <v>10169</v>
       </c>
       <c r="L12" s="7" t="str">
         <f>MID(G12,4,3)</f>
@@ -763,25 +774,25 @@
       </c>
       <c r="M12" s="6">
         <f>VLOOKUP(G12,$B$1:$C$20,2,0)</f>
-        <v>1.4570000000000001</v>
+        <v>1.1799999999999899</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="24" customHeight="1">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="E13" s="1">
-        <v>0</v>
+      <c r="E13" s="5">
+        <v>1</v>
       </c>
       <c r="F13" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5" t="str">
-        <f>VLOOKUP(F13,$A$1:$B$20,2,0)</f>
-        <v>CADJPY</v>
+        <f>VLOOKUP(E13,$A$1:$B$7,2,0)</f>
+        <v>USDJPY</v>
       </c>
       <c r="H13" s="5">
         <f>IF(L13="JPY",M13,M13/100)</f>
-        <v>1.1799999999999899</v>
+        <v>1.121</v>
       </c>
       <c r="I13" s="5">
         <f>VLOOKUP(L13,$I$1:$J$7,2,0)</f>
@@ -789,7 +800,7 @@
       </c>
       <c r="J13" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M13)*(100/I13)/100*$G$2,0)</f>
-        <v>10169</v>
+        <v>10704</v>
       </c>
       <c r="L13" s="7" t="str">
         <f>MID(G13,4,3)</f>
@@ -797,25 +808,25 @@
       </c>
       <c r="M13" s="6">
         <f>VLOOKUP(G13,$B$1:$C$20,2,0)</f>
-        <v>1.1799999999999899</v>
+        <v>1.121</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="24" customHeight="1">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="E14" s="1">
+      <c r="E14" s="5">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5">
         <v>0</v>
       </c>
-      <c r="F14" s="5">
-        <v>6</v>
-      </c>
       <c r="G14" s="5" t="str">
-        <f>VLOOKUP(F14,$A$1:$B$20,2,0)</f>
-        <v>NZDJPY</v>
+        <f>VLOOKUP(E14,$A$1:$B$7,2,0)</f>
+        <v>CHFJPY</v>
       </c>
       <c r="H14" s="5">
         <f>IF(L14="JPY",M14,M14/100)</f>
-        <v>1.4369999999999901</v>
+        <v>1.236</v>
       </c>
       <c r="I14" s="5">
         <f>VLOOKUP(L14,$I$1:$J$7,2,0)</f>
@@ -823,7 +834,7 @@
       </c>
       <c r="J14" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M14)*(100/I14)/100*$G$2,0)</f>
-        <v>8350</v>
+        <v>9708</v>
       </c>
       <c r="L14" s="7" t="str">
         <f>MID(G14,4,3)</f>
@@ -831,25 +842,25 @@
       </c>
       <c r="M14" s="6">
         <f>VLOOKUP(G14,$B$1:$C$20,2,0)</f>
-        <v>1.4369999999999901</v>
+        <v>1.236</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="24" customHeight="1">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="E15" s="1">
-        <v>1</v>
+      <c r="E15" s="5">
+        <v>3</v>
       </c>
       <c r="F15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="5" t="str">
-        <f>VLOOKUP(F15,$A$1:$B$20,2,0)</f>
-        <v>USDJPY</v>
+        <f>VLOOKUP(E15,$A$1:$B$7,2,0)</f>
+        <v>GBPJPY</v>
       </c>
       <c r="H15" s="5">
         <f>IF(L15="JPY",M15,M15/100)</f>
-        <v>1.121</v>
+        <v>2.649</v>
       </c>
       <c r="I15" s="5">
         <f>VLOOKUP(L15,$I$1:$J$7,2,0)</f>
@@ -857,7 +868,7 @@
       </c>
       <c r="J15" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M15)*(100/I15)/100*$G$2,0)</f>
-        <v>10704</v>
+        <v>4530</v>
       </c>
       <c r="L15" s="7" t="str">
         <f>MID(G15,4,3)</f>
@@ -865,28 +876,68 @@
       </c>
       <c r="M15" s="6">
         <f>VLOOKUP(G15,$B$1:$C$20,2,0)</f>
-        <v>1.121</v>
+        <v>2.649</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="24" customHeight="1">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="2:3" ht="24" customHeight="1">
+    <row r="17" spans="2:10" ht="24" customHeight="1">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="2:3" ht="24" customHeight="1">
+      <c r="E17" s="2">
+        <v>127.21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="24" customHeight="1">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="2:3" ht="24" customHeight="1">
+    <row r="19" spans="2:10" ht="24" customHeight="1">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="2:3" ht="24" customHeight="1">
+      <c r="E19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="2:10" ht="24" customHeight="1">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
+      <c r="E20" s="5">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="str">
+        <f>VLOOKUP(E20,$A$1:$B$7,2,0)</f>
+        <v>CADJPY</v>
+      </c>
+      <c r="G20" s="5">
+        <f>VLOOKUP(E20,$E$11:$J$15,6,0)</f>
+        <v>10169</v>
+      </c>
+      <c r="H20" s="5">
+        <f>VLOOKUP(E20,$A$1:$C$7,3,0)</f>
+        <v>1.1799999999999899</v>
+      </c>
+      <c r="I20" s="5">
+        <f>E17+H20</f>
+        <v>128.38999999999999</v>
+      </c>
+      <c r="J20" s="5">
+        <f>E17-H20</f>
+        <v>126.03</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A6:H25">
@@ -894,6 +945,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -973,7 +1025,6 @@
       <c r="F8" s="5"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
@@ -103,11 +103,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>buy flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Lots</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Buy Flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Price</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -531,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -690,7 +694,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -738,7 +742,7 @@
         <v>JPY</v>
       </c>
       <c r="M11" s="6">
-        <f>VLOOKUP(G11,$B$1:$C$20,2,0)</f>
+        <f>VLOOKUP(G11,$B$1:$C$21,2,0)</f>
         <v>1.4570000000000001</v>
       </c>
       <c r="N11" s="7"/>
@@ -773,7 +777,7 @@
         <v>JPY</v>
       </c>
       <c r="M12" s="6">
-        <f>VLOOKUP(G12,$B$1:$C$20,2,0)</f>
+        <f>VLOOKUP(G12,$B$1:$C$21,2,0)</f>
         <v>1.1799999999999899</v>
       </c>
     </row>
@@ -784,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5" t="str">
         <f>VLOOKUP(E13,$A$1:$B$7,2,0)</f>
@@ -807,7 +811,7 @@
         <v>JPY</v>
       </c>
       <c r="M13" s="6">
-        <f>VLOOKUP(G13,$B$1:$C$20,2,0)</f>
+        <f>VLOOKUP(G13,$B$1:$C$21,2,0)</f>
         <v>1.121</v>
       </c>
     </row>
@@ -818,7 +822,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5" t="str">
         <f>VLOOKUP(E14,$A$1:$B$7,2,0)</f>
@@ -841,7 +845,7 @@
         <v>JPY</v>
       </c>
       <c r="M14" s="6">
-        <f>VLOOKUP(G14,$B$1:$C$20,2,0)</f>
+        <f>VLOOKUP(G14,$B$1:$C$21,2,0)</f>
         <v>1.236</v>
       </c>
     </row>
@@ -875,7 +879,7 @@
         <v>JPY</v>
       </c>
       <c r="M15" s="6">
-        <f>VLOOKUP(G15,$B$1:$C$20,2,0)</f>
+        <f>VLOOKUP(G15,$B$1:$C$21,2,0)</f>
         <v>2.649</v>
       </c>
     </row>
@@ -886,57 +890,75 @@
     <row r="17" spans="2:10" ht="24" customHeight="1">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="E17" s="2">
-        <v>127.21</v>
+      <c r="D17" s="8"/>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="24" customHeight="1">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="2:10" ht="24" customHeight="1">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="E19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10" ht="24" customHeight="1">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="E20" s="5">
+      <c r="D20" s="6"/>
+      <c r="E20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="5" t="str">
-        <f>VLOOKUP(E20,$A$1:$B$7,2,0)</f>
-        <v>CADJPY</v>
-      </c>
-      <c r="G20" s="5">
-        <f>VLOOKUP(E20,$E$11:$J$15,6,0)</f>
-        <v>10169</v>
-      </c>
-      <c r="H20" s="5">
-        <f>VLOOKUP(E20,$A$1:$C$7,3,0)</f>
-        <v>1.1799999999999899</v>
-      </c>
-      <c r="I20" s="5">
-        <f>E17+H20</f>
-        <v>128.38999999999999</v>
-      </c>
-      <c r="J20" s="5">
-        <f>E17-H20</f>
-        <v>126.03</v>
+      <c r="G20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:10" ht="24" customHeight="1">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5">
+        <f>VLOOKUP(E18,$E$11:$J$15,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <f>VLOOKUP(E18,$A$1:$B$7,2,0)</f>
+        <v>EURJPY</v>
+      </c>
+      <c r="G21" s="5">
+        <f>VLOOKUP(E18,$E$11:$J$15,6,0)</f>
+        <v>8236</v>
+      </c>
+      <c r="H21" s="5">
+        <f>VLOOKUP(E18,$A$1:$C$7,3,0)</f>
+        <v>1.4570000000000001</v>
+      </c>
+      <c r="I21" s="5">
+        <f>IF(D1="1",F18+H21,F18-H21)</f>
+        <v>98.543000000000006</v>
+      </c>
+      <c r="J21" s="5">
+        <f>IF(D1="1",F18-H21,F18+H21)</f>
+        <v>101.45699999999999</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +967,6 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -139,7 +139,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -205,6 +211,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,7 +547,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -584,7 +593,7 @@
         <v>1000</v>
       </c>
       <c r="G2" s="2">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>14</v>
@@ -715,10 +724,10 @@
     <row r="11" spans="1:14" ht="24" customHeight="1">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="E11" s="5">
+      <c r="E11" s="9">
         <v>2</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="9">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="str">
@@ -735,7 +744,7 @@
       </c>
       <c r="J11" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M11)*(100/I11)/100*$G$2,0)</f>
-        <v>8236</v>
+        <v>13726</v>
       </c>
       <c r="L11" s="7" t="str">
         <f>MID(G11,4,3)</f>
@@ -750,10 +759,10 @@
     <row r="12" spans="1:14" ht="24" customHeight="1">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="E12" s="5">
+      <c r="E12" s="9">
         <v>4</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="9">
         <v>1</v>
       </c>
       <c r="G12" s="5" t="str">
@@ -770,7 +779,7 @@
       </c>
       <c r="J12" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M12)*(100/I12)/100*$G$2,0)</f>
-        <v>10169</v>
+        <v>16949</v>
       </c>
       <c r="L12" s="7" t="str">
         <f>MID(G12,4,3)</f>
@@ -784,10 +793,10 @@
     <row r="13" spans="1:14" ht="24" customHeight="1">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="E13" s="5">
+      <c r="E13" s="9">
         <v>1</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="9">
         <v>0</v>
       </c>
       <c r="G13" s="5" t="str">
@@ -804,7 +813,7 @@
       </c>
       <c r="J13" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M13)*(100/I13)/100*$G$2,0)</f>
-        <v>10704</v>
+        <v>17841</v>
       </c>
       <c r="L13" s="7" t="str">
         <f>MID(G13,4,3)</f>
@@ -818,10 +827,10 @@
     <row r="14" spans="1:14" ht="24" customHeight="1">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="E14" s="5">
+      <c r="E14" s="9">
         <v>7</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="9">
         <v>1</v>
       </c>
       <c r="G14" s="5" t="str">
@@ -838,7 +847,7 @@
       </c>
       <c r="J14" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M14)*(100/I14)/100*$G$2,0)</f>
-        <v>9708</v>
+        <v>16181</v>
       </c>
       <c r="L14" s="7" t="str">
         <f>MID(G14,4,3)</f>
@@ -852,10 +861,10 @@
     <row r="15" spans="1:14" ht="24" customHeight="1">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="E15" s="5">
+      <c r="E15" s="9">
         <v>3</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="9">
         <v>0</v>
       </c>
       <c r="G15" s="5" t="str">
@@ -872,7 +881,7 @@
       </c>
       <c r="J15" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M15)*(100/I15)/100*$G$2,0)</f>
-        <v>4530</v>
+        <v>7550</v>
       </c>
       <c r="L15" s="7" t="str">
         <f>MID(G15,4,3)</f>
@@ -902,10 +911,10 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="5">
+      <c r="E18" s="9">
         <v>2</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="9">
         <v>100</v>
       </c>
     </row>
@@ -946,7 +955,7 @@
       </c>
       <c r="G21" s="5">
         <f>VLOOKUP(E18,$E$11:$J$15,6,0)</f>
-        <v>8236</v>
+        <v>13726</v>
       </c>
       <c r="H21" s="5">
         <f>VLOOKUP(E18,$A$1:$C$7,3,0)</f>
@@ -962,6 +971,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A6:H25">
     <sortCondition descending="1" ref="C7:C25"/>
   </sortState>
@@ -1046,6 +1056,7 @@
       <c r="F8" s="5"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -912,7 +912,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F18" s="9">
         <v>100</v>
@@ -947,31 +947,30 @@
       <c r="D21" s="6"/>
       <c r="E21" s="5">
         <f>VLOOKUP(E18,$E$11:$J$15,2,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5" t="str">
         <f>VLOOKUP(E18,$A$1:$B$7,2,0)</f>
-        <v>EURJPY</v>
+        <v>CHFJPY</v>
       </c>
       <c r="G21" s="5">
         <f>VLOOKUP(E18,$E$11:$J$15,6,0)</f>
-        <v>13726</v>
+        <v>16181</v>
       </c>
       <c r="H21" s="5">
         <f>VLOOKUP(E18,$A$1:$C$7,3,0)</f>
-        <v>1.4570000000000001</v>
+        <v>1.236</v>
       </c>
       <c r="I21" s="5">
-        <f>IF(D1="1",F18+H21,F18-H21)</f>
-        <v>98.543000000000006</v>
+        <f>IF(E21=1,F18+H21,F18-H21)</f>
+        <v>101.236</v>
       </c>
       <c r="J21" s="5">
-        <f>IF(D1="1",F18-H21,F18+H21)</f>
-        <v>101.45699999999999</v>
+        <f>IF(E21=1,F18-H21,F18+H21)</f>
+        <v>98.763999999999996</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A6:H25">
     <sortCondition descending="1" ref="C7:C25"/>
   </sortState>
@@ -1056,7 +1055,6 @@
       <c r="F8" s="5"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -564,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="8">
-        <v>1.121</v>
+        <v>1.90299999999999</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="8">
-        <v>1.4570000000000001</v>
+        <v>3.0369999999999702</v>
       </c>
       <c r="E2" s="4">
         <v>1000</v>
@@ -610,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="8">
-        <v>2.649</v>
+        <v>4.4819999999999904</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>15</v>
@@ -627,7 +627,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="8">
-        <v>1.1799999999999899</v>
+        <v>2.28599999999998</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>16</v>
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="8">
-        <v>1.484</v>
+        <v>2.8369999999999802</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>19</v>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="8">
-        <v>1.4369999999999901</v>
+        <v>2.4489999999999901</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>17</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="8">
-        <v>1.236</v>
+        <v>2.1839999999999899</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>18</v>
@@ -736,7 +736,7 @@
       </c>
       <c r="H11" s="5">
         <f>IF(L11="JPY",M11,M11/100)</f>
-        <v>1.4570000000000001</v>
+        <v>3.0369999999999702</v>
       </c>
       <c r="I11" s="5">
         <f>VLOOKUP(L11,$I$1:$J$7,2,0)</f>
@@ -744,7 +744,7 @@
       </c>
       <c r="J11" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M11)*(100/I11)/100*$G$2,0)</f>
-        <v>13726</v>
+        <v>6585</v>
       </c>
       <c r="L11" s="7" t="str">
         <f>MID(G11,4,3)</f>
@@ -752,7 +752,7 @@
       </c>
       <c r="M11" s="6">
         <f>VLOOKUP(G11,$B$1:$C$21,2,0)</f>
-        <v>1.4570000000000001</v>
+        <v>3.0369999999999702</v>
       </c>
       <c r="N11" s="7"/>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="H12" s="5">
         <f>IF(L12="JPY",M12,M12/100)</f>
-        <v>1.1799999999999899</v>
+        <v>2.28599999999998</v>
       </c>
       <c r="I12" s="5">
         <f>VLOOKUP(L12,$I$1:$J$7,2,0)</f>
@@ -779,7 +779,7 @@
       </c>
       <c r="J12" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M12)*(100/I12)/100*$G$2,0)</f>
-        <v>16949</v>
+        <v>8748</v>
       </c>
       <c r="L12" s="7" t="str">
         <f>MID(G12,4,3)</f>
@@ -787,7 +787,7 @@
       </c>
       <c r="M12" s="6">
         <f>VLOOKUP(G12,$B$1:$C$21,2,0)</f>
-        <v>1.1799999999999899</v>
+        <v>2.28599999999998</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="24" customHeight="1">
@@ -805,7 +805,7 @@
       </c>
       <c r="H13" s="5">
         <f>IF(L13="JPY",M13,M13/100)</f>
-        <v>1.121</v>
+        <v>1.90299999999999</v>
       </c>
       <c r="I13" s="5">
         <f>VLOOKUP(L13,$I$1:$J$7,2,0)</f>
@@ -813,7 +813,7 @@
       </c>
       <c r="J13" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M13)*(100/I13)/100*$G$2,0)</f>
-        <v>17841</v>
+        <v>10509</v>
       </c>
       <c r="L13" s="7" t="str">
         <f>MID(G13,4,3)</f>
@@ -821,7 +821,7 @@
       </c>
       <c r="M13" s="6">
         <f>VLOOKUP(G13,$B$1:$C$21,2,0)</f>
-        <v>1.121</v>
+        <v>1.90299999999999</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="24" customHeight="1">
@@ -839,7 +839,7 @@
       </c>
       <c r="H14" s="5">
         <f>IF(L14="JPY",M14,M14/100)</f>
-        <v>1.236</v>
+        <v>2.1839999999999899</v>
       </c>
       <c r="I14" s="5">
         <f>VLOOKUP(L14,$I$1:$J$7,2,0)</f>
@@ -847,7 +847,7 @@
       </c>
       <c r="J14" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M14)*(100/I14)/100*$G$2,0)</f>
-        <v>16181</v>
+        <v>9157</v>
       </c>
       <c r="L14" s="7" t="str">
         <f>MID(G14,4,3)</f>
@@ -855,7 +855,7 @@
       </c>
       <c r="M14" s="6">
         <f>VLOOKUP(G14,$B$1:$C$21,2,0)</f>
-        <v>1.236</v>
+        <v>2.1839999999999899</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="24" customHeight="1">
@@ -873,7 +873,7 @@
       </c>
       <c r="H15" s="5">
         <f>IF(L15="JPY",M15,M15/100)</f>
-        <v>2.649</v>
+        <v>4.4819999999999904</v>
       </c>
       <c r="I15" s="5">
         <f>VLOOKUP(L15,$I$1:$J$7,2,0)</f>
@@ -881,7 +881,7 @@
       </c>
       <c r="J15" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/M15)*(100/I15)/100*$G$2,0)</f>
-        <v>7550</v>
+        <v>4462</v>
       </c>
       <c r="L15" s="7" t="str">
         <f>MID(G15,4,3)</f>
@@ -889,7 +889,7 @@
       </c>
       <c r="M15" s="6">
         <f>VLOOKUP(G15,$B$1:$C$21,2,0)</f>
-        <v>2.649</v>
+        <v>4.4819999999999904</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="24" customHeight="1">
@@ -955,19 +955,19 @@
       </c>
       <c r="G21" s="5">
         <f>VLOOKUP(E18,$E$11:$J$15,6,0)</f>
-        <v>16181</v>
+        <v>9157</v>
       </c>
       <c r="H21" s="5">
         <f>VLOOKUP(E18,$A$1:$C$7,3,0)</f>
-        <v>1.236</v>
+        <v>2.1839999999999899</v>
       </c>
       <c r="I21" s="5">
         <f>IF(E21=1,F18+H21,F18-H21)</f>
-        <v>101.236</v>
+        <v>102.18399999999998</v>
       </c>
       <c r="J21" s="5">
         <f>IF(E21=1,F18-H21,F18+H21)</f>
-        <v>98.763999999999996</v>
+        <v>97.816000000000017</v>
       </c>
     </row>
   </sheetData>
@@ -1055,6 +1055,7 @@
       <c r="F8" s="5"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="-80" windowWidth="26480" windowHeight="21140" tabRatio="742"/>
+    <workbookView xWindow="11080" yWindow="-80" windowWidth="16720" windowHeight="21140" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
@@ -67,34 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AUD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CAD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CHF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GBP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NZD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JPY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -108,10 +80,6 @@
   </si>
   <si>
     <t>Buy Flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Price</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -547,7 +515,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -572,12 +540,6 @@
       <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2">
-        <v>78</v>
-      </c>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1">
       <c r="A2" s="1">
@@ -595,12 +557,6 @@
       <c r="G2" s="2">
         <v>0.2</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2">
-        <v>83</v>
-      </c>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1">
       <c r="A3" s="1">
@@ -612,12 +568,6 @@
       <c r="C3" s="8">
         <v>4.4819999999999904</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2">
-        <v>110</v>
-      </c>
     </row>
     <row r="4" spans="1:14" ht="24" customHeight="1">
       <c r="A4" s="1">
@@ -629,12 +579,6 @@
       <c r="C4" s="8">
         <v>2.28599999999998</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="2">
-        <v>142</v>
-      </c>
     </row>
     <row r="5" spans="1:14" ht="24" customHeight="1">
       <c r="A5" s="1">
@@ -646,12 +590,6 @@
       <c r="C5" s="8">
         <v>2.8369999999999802</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="2">
-        <v>100</v>
-      </c>
     </row>
     <row r="6" spans="1:14" ht="24" customHeight="1">
       <c r="A6" s="1">
@@ -663,12 +601,6 @@
       <c r="C6" s="8">
         <v>2.4489999999999901</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2">
-        <v>75</v>
-      </c>
     </row>
     <row r="7" spans="1:14" ht="24" customHeight="1">
       <c r="A7" s="1">
@@ -679,12 +611,6 @@
       </c>
       <c r="C7" s="8">
         <v>2.1839999999999899</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="24" customHeight="1">
@@ -700,10 +626,10 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -712,14 +638,11 @@
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="24" customHeight="1">
       <c r="B11" s="8"/>
@@ -735,26 +658,16 @@
         <v>EURJPY</v>
       </c>
       <c r="H11" s="5">
-        <f>IF(L11="JPY",M11,M11/100)</f>
+        <f>VLOOKUP(G11,$B$1:$C$7,2,0)</f>
         <v>3.0369999999999702</v>
       </c>
       <c r="I11" s="5">
-        <f>VLOOKUP(L11,$I$1:$J$7,2,0)</f>
-        <v>100</v>
-      </c>
-      <c r="J11" s="5">
-        <f>ROUNDDOWN($E$2*10000*(1/M11)*(100/I11)/100*$G$2,0)</f>
+        <f>ROUNDDOWN($E$2*10000*(1/H11)/100*$G$2,0)</f>
         <v>6585</v>
       </c>
-      <c r="L11" s="7" t="str">
-        <f>MID(G11,4,3)</f>
-        <v>JPY</v>
-      </c>
-      <c r="M11" s="6">
-        <f>VLOOKUP(G11,$B$1:$C$21,2,0)</f>
-        <v>3.0369999999999702</v>
-      </c>
-      <c r="N11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="24" customHeight="1">
       <c r="B12" s="8"/>
@@ -770,25 +683,15 @@
         <v>CADJPY</v>
       </c>
       <c r="H12" s="5">
-        <f>IF(L12="JPY",M12,M12/100)</f>
+        <f t="shared" ref="H12:H15" si="0">VLOOKUP(G12,$B$1:$C$7,2,0)</f>
         <v>2.28599999999998</v>
       </c>
       <c r="I12" s="5">
-        <f>VLOOKUP(L12,$I$1:$J$7,2,0)</f>
-        <v>100</v>
-      </c>
-      <c r="J12" s="5">
-        <f>ROUNDDOWN($E$2*10000*(1/M12)*(100/I12)/100*$G$2,0)</f>
+        <f t="shared" ref="I12:I15" si="1">ROUNDDOWN($E$2*10000*(1/H12)/100*$G$2,0)</f>
         <v>8748</v>
       </c>
-      <c r="L12" s="7" t="str">
-        <f>MID(G12,4,3)</f>
-        <v>JPY</v>
-      </c>
-      <c r="M12" s="6">
-        <f>VLOOKUP(G12,$B$1:$C$21,2,0)</f>
-        <v>2.28599999999998</v>
-      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="24" customHeight="1">
       <c r="B13" s="8"/>
@@ -804,25 +707,15 @@
         <v>USDJPY</v>
       </c>
       <c r="H13" s="5">
-        <f>IF(L13="JPY",M13,M13/100)</f>
+        <f t="shared" si="0"/>
         <v>1.90299999999999</v>
       </c>
       <c r="I13" s="5">
-        <f>VLOOKUP(L13,$I$1:$J$7,2,0)</f>
-        <v>100</v>
-      </c>
-      <c r="J13" s="5">
-        <f>ROUNDDOWN($E$2*10000*(1/M13)*(100/I13)/100*$G$2,0)</f>
+        <f t="shared" si="1"/>
         <v>10509</v>
       </c>
-      <c r="L13" s="7" t="str">
-        <f>MID(G13,4,3)</f>
-        <v>JPY</v>
-      </c>
-      <c r="M13" s="6">
-        <f>VLOOKUP(G13,$B$1:$C$21,2,0)</f>
-        <v>1.90299999999999</v>
-      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:14" ht="24" customHeight="1">
       <c r="B14" s="8"/>
@@ -838,25 +731,15 @@
         <v>CHFJPY</v>
       </c>
       <c r="H14" s="5">
-        <f>IF(L14="JPY",M14,M14/100)</f>
+        <f t="shared" si="0"/>
         <v>2.1839999999999899</v>
       </c>
       <c r="I14" s="5">
-        <f>VLOOKUP(L14,$I$1:$J$7,2,0)</f>
-        <v>100</v>
-      </c>
-      <c r="J14" s="5">
-        <f>ROUNDDOWN($E$2*10000*(1/M14)*(100/I14)/100*$G$2,0)</f>
+        <f t="shared" si="1"/>
         <v>9157</v>
       </c>
-      <c r="L14" s="7" t="str">
-        <f>MID(G14,4,3)</f>
-        <v>JPY</v>
-      </c>
-      <c r="M14" s="6">
-        <f>VLOOKUP(G14,$B$1:$C$21,2,0)</f>
-        <v>2.1839999999999899</v>
-      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:14" ht="24" customHeight="1">
       <c r="B15" s="8"/>
@@ -872,110 +755,85 @@
         <v>GBPJPY</v>
       </c>
       <c r="H15" s="5">
-        <f>IF(L15="JPY",M15,M15/100)</f>
+        <f t="shared" si="0"/>
         <v>4.4819999999999904</v>
       </c>
       <c r="I15" s="5">
-        <f>VLOOKUP(L15,$I$1:$J$7,2,0)</f>
-        <v>100</v>
-      </c>
-      <c r="J15" s="5">
-        <f>ROUNDDOWN($E$2*10000*(1/M15)*(100/I15)/100*$G$2,0)</f>
+        <f t="shared" si="1"/>
         <v>4462</v>
       </c>
-      <c r="L15" s="7" t="str">
-        <f>MID(G15,4,3)</f>
-        <v>JPY</v>
-      </c>
-      <c r="M15" s="6">
-        <f>VLOOKUP(G15,$B$1:$C$21,2,0)</f>
-        <v>4.4819999999999904</v>
-      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:14" ht="24" customHeight="1">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="2:10" ht="24" customHeight="1">
+    <row r="17" spans="2:8" ht="24" customHeight="1">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="24" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="24" customHeight="1">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
-        <v>7</v>
-      </c>
-      <c r="F18" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="24" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="24" customHeight="1">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="2:10" ht="24" customHeight="1">
+    <row r="20" spans="2:8" ht="24" customHeight="1">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="6"/>
       <c r="E20" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="2:10" ht="24" customHeight="1">
+    </row>
+    <row r="21" spans="2:8" ht="24" customHeight="1">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="6"/>
       <c r="E21" s="5">
-        <f>VLOOKUP(E18,$E$11:$J$15,2,0)</f>
-        <v>1</v>
+        <f>VLOOKUP(E18,$E$11:$I$15,2,0)</f>
+        <v>0</v>
       </c>
       <c r="F21" s="5" t="str">
         <f>VLOOKUP(E18,$A$1:$B$7,2,0)</f>
-        <v>CHFJPY</v>
+        <v>EURJPY</v>
       </c>
       <c r="G21" s="5">
-        <f>VLOOKUP(E18,$E$11:$J$15,6,0)</f>
-        <v>9157</v>
+        <f>VLOOKUP(E18,$E$11:$I$15,5,0)</f>
+        <v>6585</v>
       </c>
       <c r="H21" s="5">
         <f>VLOOKUP(E18,$A$1:$C$7,3,0)</f>
-        <v>2.1839999999999899</v>
-      </c>
-      <c r="I21" s="5">
-        <f>IF(E21=1,F18+H21,F18-H21)</f>
-        <v>102.18399999999998</v>
-      </c>
-      <c r="J21" s="5">
-        <f>IF(E21=1,F18-H21,F18+H21)</f>
-        <v>97.816000000000017</v>
+        <v>3.0369999999999702</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A6:H25">
-    <sortCondition descending="1" ref="C7:C25"/>
+  <sortState ref="B1:C7">
+    <sortCondition ref="B1:B7"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -996,10 +854,10 @@
   <sheetData>
     <row r="3" spans="1:6" ht="21" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -1055,7 +913,6 @@
       <c r="F8" s="5"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11080" yWindow="-80" windowWidth="16720" windowHeight="21140" tabRatio="742"/>
+    <workbookView xWindow="20740" yWindow="-80" windowWidth="16720" windowHeight="21140" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F11" sqref="F11:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -648,22 +648,20 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="E11" s="9">
-        <v>2</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F11" s="9"/>
       <c r="G11" s="5" t="str">
         <f>VLOOKUP(E11,$A$1:$B$7,2,0)</f>
-        <v>EURJPY</v>
+        <v>USDJPY</v>
       </c>
       <c r="H11" s="5">
         <f>VLOOKUP(G11,$B$1:$C$7,2,0)</f>
-        <v>3.0369999999999702</v>
+        <v>1.90299999999999</v>
       </c>
       <c r="I11" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/H11)/100*$G$2,0)</f>
-        <v>6585</v>
+        <v>10509</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="6"/>
@@ -673,22 +671,20 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="E12" s="9">
-        <v>4</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="5" t="str">
         <f>VLOOKUP(E12,$A$1:$B$7,2,0)</f>
-        <v>CADJPY</v>
+        <v>EURJPY</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ref="H12:H15" si="0">VLOOKUP(G12,$B$1:$C$7,2,0)</f>
-        <v>2.28599999999998</v>
+        <v>3.0369999999999702</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" ref="I12:I15" si="1">ROUNDDOWN($E$2*10000*(1/H12)/100*$G$2,0)</f>
-        <v>8748</v>
+        <v>6585</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="6"/>
@@ -697,22 +693,20 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F13" s="9"/>
       <c r="G13" s="5" t="str">
         <f>VLOOKUP(E13,$A$1:$B$7,2,0)</f>
-        <v>USDJPY</v>
+        <v>GBPJPY</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="0"/>
-        <v>1.90299999999999</v>
+        <v>4.4819999999999904</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="1"/>
-        <v>10509</v>
+        <v>4462</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="6"/>
@@ -721,22 +715,20 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="E14" s="9">
-        <v>7</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F14" s="9"/>
       <c r="G14" s="5" t="str">
         <f>VLOOKUP(E14,$A$1:$B$7,2,0)</f>
-        <v>CHFJPY</v>
+        <v>CADJPY</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="0"/>
-        <v>2.1839999999999899</v>
+        <v>2.28599999999998</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="1"/>
-        <v>9157</v>
+        <v>8748</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="6"/>
@@ -745,22 +737,20 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="E15" s="9">
-        <v>3</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F15" s="9"/>
       <c r="G15" s="5" t="str">
         <f>VLOOKUP(E15,$A$1:$B$7,2,0)</f>
-        <v>GBPJPY</v>
+        <v>AUDJPY</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="0"/>
-        <v>4.4819999999999904</v>
+        <v>2.8369999999999802</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="1"/>
-        <v>4462</v>
+        <v>7049</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="6"/>
@@ -833,7 +823,6 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20740" yWindow="-80" windowWidth="16720" windowHeight="21140" tabRatio="742"/>
+    <workbookView xWindow="15780" yWindow="-80" windowWidth="21380" windowHeight="21140" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
@@ -512,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="8">
-        <v>1.90299999999999</v>
+        <v>2.29</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="8">
-        <v>3.0369999999999702</v>
+        <v>3.25</v>
       </c>
       <c r="E2" s="4">
         <v>1000</v>
@@ -566,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="8">
-        <v>4.4819999999999904</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="24" customHeight="1">
@@ -577,7 +577,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="8">
-        <v>2.28599999999998</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="24" customHeight="1">
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="8">
-        <v>2.8369999999999802</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="24" customHeight="1">
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="8">
-        <v>2.4489999999999901</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="24" customHeight="1">
@@ -610,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="8">
-        <v>2.1839999999999899</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="24" customHeight="1">
@@ -657,11 +657,11 @@
       </c>
       <c r="H11" s="5">
         <f>VLOOKUP(G11,$B$1:$C$7,2,0)</f>
-        <v>1.90299999999999</v>
+        <v>2.29</v>
       </c>
       <c r="I11" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/H11)/100*$G$2,0)</f>
-        <v>10509</v>
+        <v>8733</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="6"/>
@@ -680,11 +680,11 @@
       </c>
       <c r="H12" s="5">
         <f t="shared" ref="H12:H15" si="0">VLOOKUP(G12,$B$1:$C$7,2,0)</f>
-        <v>3.0369999999999702</v>
+        <v>3.25</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" ref="I12:I15" si="1">ROUNDDOWN($E$2*10000*(1/H12)/100*$G$2,0)</f>
-        <v>6585</v>
+        <v>6153</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="6"/>
@@ -702,11 +702,11 @@
       </c>
       <c r="H13" s="5">
         <f t="shared" si="0"/>
-        <v>4.4819999999999904</v>
+        <v>4.43</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="1"/>
-        <v>4462</v>
+        <v>4514</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="6"/>
@@ -724,11 +724,11 @@
       </c>
       <c r="H14" s="5">
         <f t="shared" si="0"/>
-        <v>2.28599999999998</v>
+        <v>2.63</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="1"/>
-        <v>8748</v>
+        <v>7604</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="6"/>
@@ -746,11 +746,11 @@
       </c>
       <c r="H15" s="5">
         <f t="shared" si="0"/>
-        <v>2.8369999999999802</v>
+        <v>2.66</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="1"/>
-        <v>7049</v>
+        <v>7518</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="6"/>
@@ -759,7 +759,7 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="2:8" ht="24" customHeight="1">
+    <row r="17" spans="1:8" ht="24" customHeight="1">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -767,7 +767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="24" customHeight="1">
+    <row r="18" spans="1:8" ht="24" customHeight="1">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -775,11 +775,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="24" customHeight="1">
+    <row r="19" spans="1:8" ht="24" customHeight="1">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="2:8" ht="24" customHeight="1">
+    <row r="20" spans="1:8" ht="24" customHeight="1">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="6"/>
@@ -796,9 +796,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="24" customHeight="1">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+    <row r="21" spans="1:8" ht="24" customHeight="1">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.903</v>
+      </c>
       <c r="D21" s="6"/>
       <c r="E21" s="5">
         <f>VLOOKUP(E18,$E$11:$I$15,2,0)</f>
@@ -810,11 +817,77 @@
       </c>
       <c r="G21" s="5">
         <f>VLOOKUP(E18,$E$11:$I$15,5,0)</f>
-        <v>6585</v>
+        <v>6153</v>
       </c>
       <c r="H21" s="5">
         <f>VLOOKUP(E18,$A$1:$C$7,3,0)</f>
-        <v>3.0369999999999702</v>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="24" customHeight="1">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.0369999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="24" customHeight="1">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="24" customHeight="1">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="24" customHeight="1">
+      <c r="A25" s="1">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.8370000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="24" customHeight="1">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.4489999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="24" customHeight="1">
+      <c r="A27" s="1">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.2429999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -823,6 +896,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="8">
-        <v>2.5</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="24" customHeight="1">
@@ -896,7 +896,6 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15780" yWindow="-80" windowWidth="21380" windowHeight="21140" tabRatio="742"/>
+    <workbookView xWindow="21120" yWindow="-80" windowWidth="21380" windowHeight="21140" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="7" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="8">
-        <v>2.29</v>
+        <v>2.27</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="8">
-        <v>3.25</v>
+        <v>3.17</v>
       </c>
       <c r="E2" s="4">
         <v>1000</v>
@@ -566,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="8">
-        <v>4.43</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="24" customHeight="1">
@@ -577,7 +577,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="8">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="24" customHeight="1">
@@ -648,20 +648,20 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="E11" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="5" t="str">
         <f>VLOOKUP(E11,$A$1:$B$7,2,0)</f>
-        <v>USDJPY</v>
+        <v>GBPJPY</v>
       </c>
       <c r="H11" s="5">
         <f>VLOOKUP(G11,$B$1:$C$7,2,0)</f>
-        <v>2.29</v>
+        <v>4.47</v>
       </c>
       <c r="I11" s="5">
         <f>ROUNDDOWN($E$2*10000*(1/H11)/100*$G$2,0)</f>
-        <v>8733</v>
+        <v>4474</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="6"/>
@@ -671,20 +671,20 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="E12" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="5" t="str">
         <f>VLOOKUP(E12,$A$1:$B$7,2,0)</f>
-        <v>EURJPY</v>
+        <v>CADJPY</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ref="H12:H15" si="0">VLOOKUP(G12,$B$1:$C$7,2,0)</f>
-        <v>3.25</v>
+        <v>2.57</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" ref="I12:I15" si="1">ROUNDDOWN($E$2*10000*(1/H12)/100*$G$2,0)</f>
-        <v>6153</v>
+        <v>7782</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="6"/>
@@ -693,20 +693,20 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="E13" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="5" t="str">
         <f>VLOOKUP(E13,$A$1:$B$7,2,0)</f>
-        <v>GBPJPY</v>
+        <v>AUDJPY</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="0"/>
-        <v>4.43</v>
+        <v>2.66</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="1"/>
-        <v>4514</v>
+        <v>7518</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="6"/>
@@ -715,20 +715,20 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="E14" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="5" t="str">
         <f>VLOOKUP(E14,$A$1:$B$7,2,0)</f>
-        <v>CADJPY</v>
+        <v>NZDJPY</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="0"/>
-        <v>2.63</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="1"/>
-        <v>7604</v>
+        <v>7968</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="6"/>
@@ -737,20 +737,20 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="E15" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="5" t="str">
         <f>VLOOKUP(E15,$A$1:$B$7,2,0)</f>
-        <v>AUDJPY</v>
+        <v>CHFJPY</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="0"/>
-        <v>2.66</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="1"/>
-        <v>7518</v>
+        <v>8230</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="6"/>
@@ -772,7 +772,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24" customHeight="1">
@@ -813,15 +813,15 @@
       </c>
       <c r="F21" s="5" t="str">
         <f>VLOOKUP(E18,$A$1:$B$7,2,0)</f>
-        <v>EURJPY</v>
+        <v>CHFJPY</v>
       </c>
       <c r="G21" s="5">
         <f>VLOOKUP(E18,$E$11:$I$15,5,0)</f>
-        <v>6153</v>
+        <v>8230</v>
       </c>
       <c r="H21" s="5">
         <f>VLOOKUP(E18,$A$1:$C$7,3,0)</f>
-        <v>3.25</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1">
@@ -891,6 +891,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B1:C7">
     <sortCondition ref="B1:B7"/>
   </sortState>
@@ -975,6 +976,7 @@
       <c r="F8" s="5"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>

--- a/volatility/src/calc.xlsx
+++ b/volatility/src/calc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24840" yWindow="-75" windowWidth="21375" windowHeight="21135" tabRatio="742"/>
+    <workbookView xWindow="25770" yWindow="-75" windowWidth="21375" windowHeight="21135" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="jpy" sheetId="51" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>AUDJPY</t>
   </si>
@@ -296,6 +296,10 @@
   </si>
   <si>
     <t>sell</t>
+  </si>
+  <si>
+    <t>divisor</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -752,7 +756,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -868,8 +872,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="I8" s="1">
-        <f>I7/2</f>
-        <v>0.65</v>
+        <f>ROUND(I7/amount!B2,2)</f>
+        <v>0.43</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -916,7 +920,7 @@
       </c>
       <c r="C12" s="9">
         <f>IF($C$2="buy",I14,J14)</f>
-        <v>130.35</v>
+        <v>130.57</v>
       </c>
       <c r="I12" s="1">
         <f>D2-I7</f>
@@ -933,7 +937,7 @@
       </c>
       <c r="C13" s="9">
         <f>IF($C$2="buy",I15,J15)</f>
-        <v>129.04999999999998</v>
+        <v>129.26999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -942,15 +946,15 @@
       </c>
       <c r="C14" s="9">
         <f>IF($C$2="buy",I16,J16)</f>
-        <v>131.65</v>
+        <v>131.87</v>
       </c>
       <c r="I14" s="1">
         <f>D2-I8</f>
-        <v>130.35</v>
+        <v>130.57</v>
       </c>
       <c r="J14" s="1">
         <f>D2+I8</f>
-        <v>131.65</v>
+        <v>131.43</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -958,11 +962,11 @@
       <c r="C15" s="6"/>
       <c r="I15" s="1">
         <f>I14-I7</f>
-        <v>129.04999999999998</v>
+        <v>129.26999999999998</v>
       </c>
       <c r="J15" s="1">
         <f>J14+I7</f>
-        <v>132.95000000000002</v>
+        <v>132.73000000000002</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -970,11 +974,11 @@
       <c r="C16" s="6"/>
       <c r="I16" s="1">
         <f>I14+I7</f>
-        <v>131.65</v>
+        <v>131.87</v>
       </c>
       <c r="J16" s="1">
         <f>J14-I7</f>
-        <v>130.35</v>
+        <v>130.13</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -995,7 +999,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="4"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>$N$10:$N$11</formula1>
     </dataValidation>
@@ -1014,7 +1018,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1131,8 +1135,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="I8" s="1">
-        <f>I7/2</f>
-        <v>6.5000000000000006E-3</v>
+        <f>ROUND(I7/amount!B2,4)</f>
+        <v>4.3E-3</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>20</v>
@@ -1185,7 +1189,7 @@
       </c>
       <c r="C12" s="9">
         <f>IF($C$2="buy",I14,J14)</f>
-        <v>1.0065</v>
+        <v>1.0043</v>
       </c>
       <c r="I12" s="1">
         <f>D2-I7</f>
@@ -1205,7 +1209,7 @@
       </c>
       <c r="C13" s="9">
         <f>IF($C$2="buy",I15,J15)</f>
-        <v>1.0194999999999999</v>
+        <v>1.0172999999999999</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>25</v>
@@ -1217,15 +1221,15 @@
       </c>
       <c r="C14" s="9">
         <f>IF($C$2="buy",I16,J16)</f>
-        <v>0.99349999999999994</v>
+        <v>0.99129999999999996</v>
       </c>
       <c r="I14" s="1">
         <f>D2-I8</f>
-        <v>0.99350000000000005</v>
+        <v>0.99570000000000003</v>
       </c>
       <c r="J14" s="1">
         <f>D2+I8</f>
-        <v>1.0065</v>
+        <v>1.0043</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -1233,11 +1237,11 @@
       <c r="C15" s="6"/>
       <c r="I15" s="1">
         <f>I14-I7</f>
-        <v>0.98050000000000004</v>
+        <v>0.98270000000000002</v>
       </c>
       <c r="J15" s="1">
         <f>J14+I7</f>
-        <v>1.0194999999999999</v>
+        <v>1.0172999999999999</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -1245,11 +1249,11 @@
       <c r="C16" s="6"/>
       <c r="I16" s="1">
         <f>I14+I7</f>
-        <v>1.0065</v>
+        <v>1.0086999999999999</v>
       </c>
       <c r="J16" s="1">
         <f>J14-I7</f>
-        <v>0.99349999999999994</v>
+        <v>0.99129999999999996</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>29</v>
@@ -1295,7 +1299,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1312,7 +1316,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
@@ -1415,7 +1424,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1548,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="5">
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
